--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,9 @@
     <t>Koufália, Central Macedonia, Greece</t>
   </si>
   <si>
+    <t>Gargaliánoi, Peloponnese (region), Greece</t>
+  </si>
+  <si>
     <t>2019-02-11</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
   </si>
   <si>
     <t>14-02-2019</t>
+  </si>
+  <si>
+    <t>16-02-2019</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA9"/>
+  <dimension ref="A1:BB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -534,7 +540,7 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,8 +700,11 @@
       <c r="BA1" t="s">
         <v>52</v>
       </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1" t="n">
         <v>43502</v>
       </c>
@@ -855,8 +864,11 @@
       <c r="BA2" t="n">
         <v>0</v>
       </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1" t="n">
         <v>43503</v>
       </c>
@@ -1016,8 +1028,11 @@
       <c r="BA3" t="n">
         <v>0</v>
       </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1" t="n">
         <v>43504</v>
       </c>
@@ -1177,8 +1192,11 @@
       <c r="BA4" t="n">
         <v>0</v>
       </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1" t="n">
         <v>43507</v>
       </c>
@@ -1338,10 +1356,13 @@
       <c r="BA5" t="n">
         <v>0</v>
       </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -1499,10 +1520,13 @@
       <c r="BA6" t="n">
         <v>0</v>
       </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -1660,10 +1684,13 @@
       <c r="BA7" t="n">
         <v>0</v>
       </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -1821,10 +1848,13 @@
       <c r="BA8" t="n">
         <v>0</v>
       </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -1980,6 +2010,173 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>51</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>66</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -178,6 +178,12 @@
     <t>Gargaliánoi, Peloponnese (region), Greece</t>
   </si>
   <si>
+    <t>Melíssia, Attica (region), Greece</t>
+  </si>
+  <si>
+    <t>Vólos, Thessaly, Greece</t>
+  </si>
+  <si>
     <t>2019-02-11</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
   </si>
   <si>
     <t>16-02-2019</t>
+  </si>
+  <si>
+    <t>19-02-2019</t>
   </si>
 </sst>
 </file>
@@ -529,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB10"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -540,7 +549,7 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:56">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -703,8 +712,14 @@
       <c r="BB1" t="s">
         <v>53</v>
       </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:56">
       <c r="A2" s="1" t="n">
         <v>43502</v>
       </c>
@@ -867,8 +882,14 @@
       <c r="BB2" t="n">
         <v>0</v>
       </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:56">
       <c r="A3" s="1" t="n">
         <v>43503</v>
       </c>
@@ -1031,8 +1052,14 @@
       <c r="BB3" t="n">
         <v>0</v>
       </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:56">
       <c r="A4" s="1" t="n">
         <v>43504</v>
       </c>
@@ -1195,8 +1222,14 @@
       <c r="BB4" t="n">
         <v>0</v>
       </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:56">
       <c r="A5" s="1" t="n">
         <v>43507</v>
       </c>
@@ -1359,10 +1392,16 @@
       <c r="BB5" t="n">
         <v>0</v>
       </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:56">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -1523,10 +1562,16 @@
       <c r="BB6" t="n">
         <v>0</v>
       </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:56">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -1687,10 +1732,16 @@
       <c r="BB7" t="n">
         <v>0</v>
       </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:56">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -1851,10 +1902,16 @@
       <c r="BB8" t="n">
         <v>0</v>
       </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:56">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -2015,10 +2072,16 @@
       <c r="BB9" t="n">
         <v>0</v>
       </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:56">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -2178,6 +2241,182 @@
       </c>
       <c r="BB10" t="n">
         <v>1</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>53</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>66</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -187,7 +187,46 @@
     <t>Elefthério, Central Macedonia, Greece</t>
   </si>
   <si>
+    <t>Braga, Braga District, Portugal</t>
+  </si>
+  <si>
+    <t>São Paulo, SP, Brazil</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Chalkída, Central Greece (region), Greece</t>
+  </si>
+  <si>
+    <t>Corfu, Ionian Islands (region), Greece</t>
+  </si>
+  <si>
+    <t>Dráma, Eastern Macedonia and Thrace, Greece</t>
+  </si>
+  <si>
+    <t>Kavála, Eastern Macedonia and Thrace, Greece</t>
+  </si>
+  <si>
+    <t>Náfpaktos, Western Greece, Greece</t>
+  </si>
+  <si>
+    <t>Réthimnon, Crete, Greece</t>
+  </si>
+  <si>
+    <t>Skafidhákí, Peloponnese (region), Greece</t>
+  </si>
+  <si>
+    <t>Skópelos, Thessaly, Greece</t>
+  </si>
+  <si>
+    <t>Trípoli, Peloponnese (region), Greece</t>
+  </si>
+  <si>
     <t>23-02-2019</t>
+  </si>
+  <si>
+    <t>24-02-2019</t>
   </si>
 </sst>
 </file>
@@ -526,7 +565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE12"/>
+  <dimension ref="A1:BQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +576,7 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:69">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -709,8 +748,44 @@
       <c r="BE1" t="s">
         <v>56</v>
       </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:69">
       <c r="A2" s="1" t="n">
         <v>43502</v>
       </c>
@@ -882,8 +957,44 @@
       <c r="BE2" t="n">
         <v>0</v>
       </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:69">
       <c r="A3" s="1" t="n">
         <v>43503</v>
       </c>
@@ -1055,8 +1166,44 @@
       <c r="BE3" t="n">
         <v>0</v>
       </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:69">
       <c r="A4" s="1" t="n">
         <v>43504</v>
       </c>
@@ -1228,8 +1375,44 @@
       <c r="BE4" t="n">
         <v>0</v>
       </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:69">
       <c r="A5" s="1" t="n">
         <v>43507</v>
       </c>
@@ -1401,8 +1584,44 @@
       <c r="BE5" t="n">
         <v>0</v>
       </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:69">
       <c r="A6" s="1" t="n">
         <v>43507</v>
       </c>
@@ -1574,8 +1793,44 @@
       <c r="BE6" t="n">
         <v>0</v>
       </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:69">
       <c r="A7" s="1" t="n">
         <v>43508</v>
       </c>
@@ -1747,8 +2002,44 @@
       <c r="BE7" t="n">
         <v>0</v>
       </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:69">
       <c r="A8" s="1" t="n">
         <v>43509</v>
       </c>
@@ -1920,8 +2211,44 @@
       <c r="BE8" t="n">
         <v>0</v>
       </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:69">
       <c r="A9" s="1" t="n">
         <v>43510</v>
       </c>
@@ -2093,8 +2420,44 @@
       <c r="BE9" t="n">
         <v>0</v>
       </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:69">
       <c r="A10" s="1" t="n">
         <v>43512</v>
       </c>
@@ -2266,8 +2629,44 @@
       <c r="BE10" t="n">
         <v>0</v>
       </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:69">
       <c r="A11" s="1" t="n">
         <v>43515</v>
       </c>
@@ -2439,10 +2838,46 @@
       <c r="BE11" t="n">
         <v>0</v>
       </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:69">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
@@ -2610,6 +3045,251 @@
         <v>2</v>
       </c>
       <c r="BE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>86</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ13" t="n">
         <v>2</v>
       </c>
     </row>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -223,10 +223,37 @@
     <t>Trípoli, Peloponnese (region), Greece</t>
   </si>
   <si>
+    <t>Kastoriá, Western Macedonia, Greece</t>
+  </si>
+  <si>
+    <t>Salamís, Attica (region), Greece</t>
+  </si>
+  <si>
+    <t>Tirana, Tirana County, Albania</t>
+  </si>
+  <si>
+    <t>Granada, Andalusia, Spain</t>
+  </si>
+  <si>
+    <t>London, England, United Kingdom</t>
+  </si>
+  <si>
+    <t>Lechainá, Western Greece, Greece</t>
+  </si>
+  <si>
+    <t>Sámos, Northern Aegean, Greece</t>
+  </si>
+  <si>
     <t>23-02-2019</t>
   </si>
   <si>
     <t>24-02-2019</t>
+  </si>
+  <si>
+    <t>25-02-2019</t>
+  </si>
+  <si>
+    <t>03-03-2019</t>
   </si>
 </sst>
 </file>
@@ -565,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ13"/>
+  <dimension ref="A1:BX15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,7 +603,7 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:76">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -784,8 +811,29 @@
       <c r="BQ1" t="s">
         <v>68</v>
       </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:76">
       <c r="A2" s="1" t="n">
         <v>43502</v>
       </c>
@@ -993,8 +1041,29 @@
       <c r="BQ2" t="n">
         <v>0</v>
       </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:76">
       <c r="A3" s="1" t="n">
         <v>43503</v>
       </c>
@@ -1202,8 +1271,29 @@
       <c r="BQ3" t="n">
         <v>0</v>
       </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:76">
       <c r="A4" s="1" t="n">
         <v>43504</v>
       </c>
@@ -1411,8 +1501,29 @@
       <c r="BQ4" t="n">
         <v>0</v>
       </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:76">
       <c r="A5" s="1" t="n">
         <v>43507</v>
       </c>
@@ -1620,8 +1731,29 @@
       <c r="BQ5" t="n">
         <v>0</v>
       </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:76">
       <c r="A6" s="1" t="n">
         <v>43507</v>
       </c>
@@ -1829,8 +1961,29 @@
       <c r="BQ6" t="n">
         <v>0</v>
       </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:76">
       <c r="A7" s="1" t="n">
         <v>43508</v>
       </c>
@@ -2038,8 +2191,29 @@
       <c r="BQ7" t="n">
         <v>0</v>
       </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:76">
       <c r="A8" s="1" t="n">
         <v>43509</v>
       </c>
@@ -2247,8 +2421,29 @@
       <c r="BQ8" t="n">
         <v>0</v>
       </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:76">
       <c r="A9" s="1" t="n">
         <v>43510</v>
       </c>
@@ -2456,8 +2651,29 @@
       <c r="BQ9" t="n">
         <v>0</v>
       </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:76">
       <c r="A10" s="1" t="n">
         <v>43512</v>
       </c>
@@ -2665,8 +2881,29 @@
       <c r="BQ10" t="n">
         <v>0</v>
       </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:76">
       <c r="A11" s="1" t="n">
         <v>43515</v>
       </c>
@@ -2874,10 +3111,31 @@
       <c r="BQ11" t="n">
         <v>0</v>
       </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:76">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
@@ -3083,10 +3341,31 @@
       <c r="BQ12" t="n">
         <v>0</v>
       </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:76">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -3291,6 +3570,487 @@
       </c>
       <c r="BQ13" t="n">
         <v>2</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:76">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>76</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:76">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>79</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>84</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="37560" windowHeight="13440"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -256,6 +261,9 @@
   </si>
   <si>
     <t>Pétra, Northern Aegean, Greece</t>
+  </si>
+  <si>
+    <t>Alíartos, Central Greece (region), Greece</t>
   </si>
 </sst>
 </file>
@@ -300,6 +308,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -590,18 +603,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA16"/>
+  <dimension ref="A1:CB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -839,8 +852,11 @@
       <c r="CA1" t="s">
         <v>78</v>
       </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:79">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43502</v>
       </c>
@@ -1078,8 +1094,11 @@
       <c r="CA2">
         <v>0</v>
       </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:79">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43503</v>
       </c>
@@ -1317,8 +1336,11 @@
       <c r="CA3">
         <v>0</v>
       </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:79">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43504</v>
       </c>
@@ -1556,8 +1578,11 @@
       <c r="CA4">
         <v>0</v>
       </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:79">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43507</v>
       </c>
@@ -1795,8 +1820,11 @@
       <c r="CA5">
         <v>0</v>
       </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:79">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43507</v>
       </c>
@@ -2034,8 +2062,11 @@
       <c r="CA6">
         <v>0</v>
       </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:79">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43508</v>
       </c>
@@ -2273,8 +2304,11 @@
       <c r="CA7">
         <v>0</v>
       </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:79">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43509</v>
       </c>
@@ -2512,8 +2546,11 @@
       <c r="CA8">
         <v>0</v>
       </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:79">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43510</v>
       </c>
@@ -2751,8 +2788,11 @@
       <c r="CA9">
         <v>0</v>
       </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:79">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43512</v>
       </c>
@@ -2990,8 +3030,11 @@
       <c r="CA10">
         <v>0</v>
       </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:79">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43515</v>
       </c>
@@ -3229,8 +3272,11 @@
       <c r="CA11">
         <v>0</v>
       </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:79">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43519</v>
       </c>
@@ -3468,8 +3514,11 @@
       <c r="CA12">
         <v>0</v>
       </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:79">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43520</v>
       </c>
@@ -3707,8 +3756,11 @@
       <c r="CA13">
         <v>0</v>
       </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:79">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43521</v>
       </c>
@@ -3946,8 +3998,11 @@
       <c r="CA14">
         <v>0</v>
       </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:79">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43527</v>
       </c>
@@ -4185,8 +4240,11 @@
       <c r="CA15">
         <v>0</v>
       </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:79">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43529</v>
       </c>
@@ -4422,15 +4480,255 @@
         <v>1</v>
       </c>
       <c r="CA16">
+        <v>1</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>79</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>8</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+      <c r="AA17">
+        <v>3</v>
+      </c>
+      <c r="AB17">
+        <v>6</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>2</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>8</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>2</v>
+      </c>
+      <c r="AM17">
+        <v>2</v>
+      </c>
+      <c r="AN17">
+        <v>2</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>85</v>
+      </c>
+      <c r="AQ17">
+        <v>2</v>
+      </c>
+      <c r="AR17">
+        <v>2</v>
+      </c>
+      <c r="AS17">
+        <v>7</v>
+      </c>
+      <c r="AT17">
+        <v>4</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>3</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>2</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>1</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>2</v>
+      </c>
+      <c r="BJ17">
+        <v>2</v>
+      </c>
+      <c r="BK17">
+        <v>2</v>
+      </c>
+      <c r="BL17">
+        <v>2</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>1</v>
+      </c>
+      <c r="BQ17">
+        <v>2</v>
+      </c>
+      <c r="BR17">
+        <v>1</v>
+      </c>
+      <c r="BS17">
+        <v>1</v>
+      </c>
+      <c r="BT17">
+        <v>1</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
+        <v>0</v>
+      </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="CC1" sqref="CC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -268,7 +268,22 @@
     <t>Zakháro, Western Greece, Greece</t>
   </si>
   <si>
+    <t>Magé, RJ, Brazil</t>
+  </si>
+  <si>
+    <t>Ponte Nova, MG, Brazil</t>
+  </si>
+  <si>
+    <t>Amaliáda, Western Greece, Greece</t>
+  </si>
+  <si>
     <t>6/3/2019</t>
+  </si>
+  <si>
+    <t>3/11/2019</t>
+  </si>
+  <si>
+    <t>11/3/19</t>
   </si>
 </sst>
 </file>
@@ -607,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CF17"/>
+  <dimension ref="A1:CI19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -618,7 +633,7 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84">
+    <row r="1" spans="1:87">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -871,8 +886,17 @@
       <c r="CF1" t="s">
         <v>83</v>
       </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:84">
+    <row r="2" spans="1:87">
       <c r="A2" s="1" t="n">
         <v>43502</v>
       </c>
@@ -1125,8 +1149,17 @@
       <c r="CF2" t="n">
         <v>0</v>
       </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:84">
+    <row r="3" spans="1:87">
       <c r="A3" s="1" t="n">
         <v>43503</v>
       </c>
@@ -1379,8 +1412,17 @@
       <c r="CF3" t="n">
         <v>0</v>
       </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:84">
+    <row r="4" spans="1:87">
       <c r="A4" s="1" t="n">
         <v>43504</v>
       </c>
@@ -1633,8 +1675,17 @@
       <c r="CF4" t="n">
         <v>0</v>
       </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:84">
+    <row r="5" spans="1:87">
       <c r="A5" s="1" t="n">
         <v>43507</v>
       </c>
@@ -1887,8 +1938,17 @@
       <c r="CF5" t="n">
         <v>0</v>
       </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:84">
+    <row r="6" spans="1:87">
       <c r="A6" s="1" t="n">
         <v>43507</v>
       </c>
@@ -2141,8 +2201,17 @@
       <c r="CF6" t="n">
         <v>0</v>
       </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:84">
+    <row r="7" spans="1:87">
       <c r="A7" s="1" t="n">
         <v>43508</v>
       </c>
@@ -2395,8 +2464,17 @@
       <c r="CF7" t="n">
         <v>0</v>
       </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:84">
+    <row r="8" spans="1:87">
       <c r="A8" s="1" t="n">
         <v>43509</v>
       </c>
@@ -2649,8 +2727,17 @@
       <c r="CF8" t="n">
         <v>0</v>
       </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:84">
+    <row r="9" spans="1:87">
       <c r="A9" s="1" t="n">
         <v>43510</v>
       </c>
@@ -2903,8 +2990,17 @@
       <c r="CF9" t="n">
         <v>0</v>
       </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:84">
+    <row r="10" spans="1:87">
       <c r="A10" s="1" t="n">
         <v>43512</v>
       </c>
@@ -3157,8 +3253,17 @@
       <c r="CF10" t="n">
         <v>0</v>
       </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:84">
+    <row r="11" spans="1:87">
       <c r="A11" s="1" t="n">
         <v>43515</v>
       </c>
@@ -3411,8 +3516,17 @@
       <c r="CF11" t="n">
         <v>0</v>
       </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:84">
+    <row r="12" spans="1:87">
       <c r="A12" s="1" t="n">
         <v>43519</v>
       </c>
@@ -3665,8 +3779,17 @@
       <c r="CF12" t="n">
         <v>0</v>
       </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:84">
+    <row r="13" spans="1:87">
       <c r="A13" s="1" t="n">
         <v>43520</v>
       </c>
@@ -3919,8 +4042,17 @@
       <c r="CF13" t="n">
         <v>0</v>
       </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:84">
+    <row r="14" spans="1:87">
       <c r="A14" s="1" t="n">
         <v>43521</v>
       </c>
@@ -4173,8 +4305,17 @@
       <c r="CF14" t="n">
         <v>0</v>
       </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:84">
+    <row r="15" spans="1:87">
       <c r="A15" s="1" t="n">
         <v>43527</v>
       </c>
@@ -4427,8 +4568,17 @@
       <c r="CF15" t="n">
         <v>0</v>
       </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:84">
+    <row r="16" spans="1:87">
       <c r="A16" s="1" t="n">
         <v>43529</v>
       </c>
@@ -4681,10 +4831,19 @@
       <c r="CF16" t="n">
         <v>0</v>
       </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:84">
+    <row r="17" spans="1:87">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -4933,6 +5092,541 @@
         <v>1</v>
       </c>
       <c r="CF17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:87">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>79</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>8</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:87">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>79</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI19" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -277,6 +277,9 @@
     <t>Amaliáda, Western Greece, Greece</t>
   </si>
   <si>
+    <t>Quezon City, Metro Manila, Philippines</t>
+  </si>
+  <si>
     <t>6/3/2019</t>
   </si>
   <si>
@@ -284,6 +287,9 @@
   </si>
   <si>
     <t>11/3/19</t>
+  </si>
+  <si>
+    <t>12/3/19</t>
   </si>
 </sst>
 </file>
@@ -622,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI19"/>
+  <dimension ref="A1:CJ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -633,7 +639,7 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87">
+    <row r="1" spans="1:88">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -895,8 +901,11 @@
       <c r="CI1" t="s">
         <v>86</v>
       </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:87">
+    <row r="2" spans="1:88">
       <c r="A2" s="1" t="n">
         <v>43502</v>
       </c>
@@ -1158,8 +1167,11 @@
       <c r="CI2" t="n">
         <v>0</v>
       </c>
+      <c r="CJ2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:87">
+    <row r="3" spans="1:88">
       <c r="A3" s="1" t="n">
         <v>43503</v>
       </c>
@@ -1421,8 +1433,11 @@
       <c r="CI3" t="n">
         <v>0</v>
       </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:87">
+    <row r="4" spans="1:88">
       <c r="A4" s="1" t="n">
         <v>43504</v>
       </c>
@@ -1684,8 +1699,11 @@
       <c r="CI4" t="n">
         <v>0</v>
       </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:87">
+    <row r="5" spans="1:88">
       <c r="A5" s="1" t="n">
         <v>43507</v>
       </c>
@@ -1947,8 +1965,11 @@
       <c r="CI5" t="n">
         <v>0</v>
       </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:87">
+    <row r="6" spans="1:88">
       <c r="A6" s="1" t="n">
         <v>43507</v>
       </c>
@@ -2210,8 +2231,11 @@
       <c r="CI6" t="n">
         <v>0</v>
       </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:87">
+    <row r="7" spans="1:88">
       <c r="A7" s="1" t="n">
         <v>43508</v>
       </c>
@@ -2473,8 +2497,11 @@
       <c r="CI7" t="n">
         <v>0</v>
       </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:87">
+    <row r="8" spans="1:88">
       <c r="A8" s="1" t="n">
         <v>43509</v>
       </c>
@@ -2736,8 +2763,11 @@
       <c r="CI8" t="n">
         <v>0</v>
       </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:87">
+    <row r="9" spans="1:88">
       <c r="A9" s="1" t="n">
         <v>43510</v>
       </c>
@@ -2999,8 +3029,11 @@
       <c r="CI9" t="n">
         <v>0</v>
       </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:87">
+    <row r="10" spans="1:88">
       <c r="A10" s="1" t="n">
         <v>43512</v>
       </c>
@@ -3262,8 +3295,11 @@
       <c r="CI10" t="n">
         <v>0</v>
       </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:87">
+    <row r="11" spans="1:88">
       <c r="A11" s="1" t="n">
         <v>43515</v>
       </c>
@@ -3525,8 +3561,11 @@
       <c r="CI11" t="n">
         <v>0</v>
       </c>
+      <c r="CJ11" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:87">
+    <row r="12" spans="1:88">
       <c r="A12" s="1" t="n">
         <v>43519</v>
       </c>
@@ -3788,8 +3827,11 @@
       <c r="CI12" t="n">
         <v>0</v>
       </c>
+      <c r="CJ12" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:87">
+    <row r="13" spans="1:88">
       <c r="A13" s="1" t="n">
         <v>43520</v>
       </c>
@@ -4051,8 +4093,11 @@
       <c r="CI13" t="n">
         <v>0</v>
       </c>
+      <c r="CJ13" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:87">
+    <row r="14" spans="1:88">
       <c r="A14" s="1" t="n">
         <v>43521</v>
       </c>
@@ -4314,8 +4359,11 @@
       <c r="CI14" t="n">
         <v>0</v>
       </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:87">
+    <row r="15" spans="1:88">
       <c r="A15" s="1" t="n">
         <v>43527</v>
       </c>
@@ -4577,8 +4625,11 @@
       <c r="CI15" t="n">
         <v>0</v>
       </c>
+      <c r="CJ15" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:87">
+    <row r="16" spans="1:88">
       <c r="A16" s="1" t="n">
         <v>43529</v>
       </c>
@@ -4840,10 +4891,13 @@
       <c r="CI16" t="n">
         <v>0</v>
       </c>
+      <c r="CJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:87">
+    <row r="17" spans="1:88">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -5103,10 +5157,13 @@
       <c r="CI17" t="n">
         <v>0</v>
       </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:87">
+    <row r="18" spans="1:88">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -5366,10 +5423,13 @@
       <c r="CI18" t="n">
         <v>1</v>
       </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:87">
+    <row r="19" spans="1:88">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -5627,6 +5687,275 @@
         <v>1</v>
       </c>
       <c r="CI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:88">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>76</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -280,6 +280,15 @@
     <t>Quezon City, Metro Manila, Philippines</t>
   </si>
   <si>
+    <t>Ermióni, Peloponnese (region), Greece</t>
+  </si>
+  <si>
+    <t>Oinófita, Central Greece (region), Greece</t>
+  </si>
+  <si>
+    <t>Sérvia, Western Macedonia, Greece</t>
+  </si>
+  <si>
     <t>6/3/2019</t>
   </si>
   <si>
@@ -290,6 +299,9 @@
   </si>
   <si>
     <t>12/3/19</t>
+  </si>
+  <si>
+    <t>16/03/2019</t>
   </si>
 </sst>
 </file>
@@ -628,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ20"/>
+  <dimension ref="A1:CM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -639,7 +651,7 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88">
+    <row r="1" spans="1:91">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,8 +916,17 @@
       <c r="CJ1" t="s">
         <v>87</v>
       </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:88">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="n">
         <v>43502</v>
       </c>
@@ -1170,8 +1191,17 @@
       <c r="CJ2" t="n">
         <v>0</v>
       </c>
+      <c r="CK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:88">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="n">
         <v>43503</v>
       </c>
@@ -1436,8 +1466,17 @@
       <c r="CJ3" t="n">
         <v>0</v>
       </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:88">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="n">
         <v>43504</v>
       </c>
@@ -1702,8 +1741,17 @@
       <c r="CJ4" t="n">
         <v>0</v>
       </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:88">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="n">
         <v>43507</v>
       </c>
@@ -1968,8 +2016,17 @@
       <c r="CJ5" t="n">
         <v>0</v>
       </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:88">
+    <row r="6" spans="1:91">
       <c r="A6" s="1" t="n">
         <v>43507</v>
       </c>
@@ -2234,8 +2291,17 @@
       <c r="CJ6" t="n">
         <v>0</v>
       </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:88">
+    <row r="7" spans="1:91">
       <c r="A7" s="1" t="n">
         <v>43508</v>
       </c>
@@ -2500,8 +2566,17 @@
       <c r="CJ7" t="n">
         <v>0</v>
       </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:88">
+    <row r="8" spans="1:91">
       <c r="A8" s="1" t="n">
         <v>43509</v>
       </c>
@@ -2766,8 +2841,17 @@
       <c r="CJ8" t="n">
         <v>0</v>
       </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:88">
+    <row r="9" spans="1:91">
       <c r="A9" s="1" t="n">
         <v>43510</v>
       </c>
@@ -3032,8 +3116,17 @@
       <c r="CJ9" t="n">
         <v>0</v>
       </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:88">
+    <row r="10" spans="1:91">
       <c r="A10" s="1" t="n">
         <v>43512</v>
       </c>
@@ -3298,8 +3391,17 @@
       <c r="CJ10" t="n">
         <v>0</v>
       </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:88">
+    <row r="11" spans="1:91">
       <c r="A11" s="1" t="n">
         <v>43515</v>
       </c>
@@ -3564,8 +3666,17 @@
       <c r="CJ11" t="n">
         <v>0</v>
       </c>
+      <c r="CK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:88">
+    <row r="12" spans="1:91">
       <c r="A12" s="1" t="n">
         <v>43519</v>
       </c>
@@ -3830,8 +3941,17 @@
       <c r="CJ12" t="n">
         <v>0</v>
       </c>
+      <c r="CK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:88">
+    <row r="13" spans="1:91">
       <c r="A13" s="1" t="n">
         <v>43520</v>
       </c>
@@ -4096,8 +4216,17 @@
       <c r="CJ13" t="n">
         <v>0</v>
       </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:88">
+    <row r="14" spans="1:91">
       <c r="A14" s="1" t="n">
         <v>43521</v>
       </c>
@@ -4362,8 +4491,17 @@
       <c r="CJ14" t="n">
         <v>0</v>
       </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:88">
+    <row r="15" spans="1:91">
       <c r="A15" s="1" t="n">
         <v>43527</v>
       </c>
@@ -4628,8 +4766,17 @@
       <c r="CJ15" t="n">
         <v>0</v>
       </c>
+      <c r="CK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:88">
+    <row r="16" spans="1:91">
       <c r="A16" s="1" t="n">
         <v>43529</v>
       </c>
@@ -4894,10 +5041,19 @@
       <c r="CJ16" t="n">
         <v>0</v>
       </c>
+      <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:88">
+    <row r="17" spans="1:91">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -5160,10 +5316,19 @@
       <c r="CJ17" t="n">
         <v>0</v>
       </c>
+      <c r="CK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:88">
+    <row r="18" spans="1:91">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -5426,10 +5591,19 @@
       <c r="CJ18" t="n">
         <v>0</v>
       </c>
+      <c r="CK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:88">
+    <row r="19" spans="1:91">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -5692,10 +5866,19 @@
       <c r="CJ19" t="n">
         <v>0</v>
       </c>
+      <c r="CK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:88">
+    <row r="20" spans="1:91">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -5956,6 +6139,290 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:91">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>79</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>8</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>84</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM21" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -296,6 +296,12 @@
   <si>
     <t>Mýrina, Northern Aegean, Greece</t>
   </si>
+  <si>
+    <t>Alíartos, Central Greece (region), Greece</t>
+  </si>
+  <si>
+    <t>Kos, Southern Aegean, Greece</t>
+  </si>
 </sst>
 </file>
 
@@ -343,50 +349,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -681,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN33"/>
+  <dimension ref="A1:CP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -692,7 +666,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92">
+    <row r="1" spans="1:94">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -969,8 +943,14 @@
       <c r="CN1" t="s">
         <v>91</v>
       </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="2" spans="1:92">
+    <row r="2" spans="1:94">
       <c r="A2" s="1">
         <v>43502</v>
       </c>
@@ -1247,8 +1227,14 @@
       <c r="CN2">
         <v>0</v>
       </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:92">
+    <row r="3" spans="1:94">
       <c r="A3" s="1">
         <v>43503</v>
       </c>
@@ -1525,8 +1511,14 @@
       <c r="CN3">
         <v>0</v>
       </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:92">
+    <row r="4" spans="1:94">
       <c r="A4" s="1">
         <v>43504</v>
       </c>
@@ -1803,8 +1795,14 @@
       <c r="CN4">
         <v>0</v>
       </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:92">
+    <row r="5" spans="1:94">
       <c r="A5" s="1">
         <v>43507</v>
       </c>
@@ -2081,8 +2079,14 @@
       <c r="CN5">
         <v>0</v>
       </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:92">
+    <row r="6" spans="1:94">
       <c r="A6" s="1">
         <v>43507</v>
       </c>
@@ -2359,8 +2363,14 @@
       <c r="CN6">
         <v>0</v>
       </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:92">
+    <row r="7" spans="1:94">
       <c r="A7" s="1">
         <v>43508</v>
       </c>
@@ -2637,8 +2647,14 @@
       <c r="CN7">
         <v>0</v>
       </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:92">
+    <row r="8" spans="1:94">
       <c r="A8" s="1">
         <v>43509</v>
       </c>
@@ -2915,8 +2931,14 @@
       <c r="CN8">
         <v>0</v>
       </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:92">
+    <row r="9" spans="1:94">
       <c r="A9" s="1">
         <v>43510</v>
       </c>
@@ -3193,8 +3215,14 @@
       <c r="CN9">
         <v>0</v>
       </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:92">
+    <row r="10" spans="1:94">
       <c r="A10" s="1">
         <v>43512</v>
       </c>
@@ -3471,8 +3499,14 @@
       <c r="CN10">
         <v>0</v>
       </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:92">
+    <row r="11" spans="1:94">
       <c r="A11" s="1">
         <v>43515</v>
       </c>
@@ -3749,8 +3783,14 @@
       <c r="CN11">
         <v>0</v>
       </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:92">
+    <row r="12" spans="1:94">
       <c r="A12" s="1">
         <v>43519</v>
       </c>
@@ -4027,8 +4067,14 @@
       <c r="CN12">
         <v>0</v>
       </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:92">
+    <row r="13" spans="1:94">
       <c r="A13" s="1">
         <v>43520</v>
       </c>
@@ -4305,8 +4351,14 @@
       <c r="CN13">
         <v>0</v>
       </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:92">
+    <row r="14" spans="1:94">
       <c r="A14" s="1">
         <v>43521</v>
       </c>
@@ -4583,8 +4635,14 @@
       <c r="CN14">
         <v>0</v>
       </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:92">
+    <row r="15" spans="1:94">
       <c r="A15" s="1">
         <v>43522</v>
       </c>
@@ -4861,8 +4919,14 @@
       <c r="CN15">
         <v>0</v>
       </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:92">
+    <row r="16" spans="1:94">
       <c r="A16" s="1">
         <v>43523</v>
       </c>
@@ -5139,8 +5203,14 @@
       <c r="CN16">
         <v>0</v>
       </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:92">
+    <row r="17" spans="1:94">
       <c r="A17" s="1">
         <v>43524</v>
       </c>
@@ -5417,8 +5487,14 @@
       <c r="CN17">
         <v>0</v>
       </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:92">
+    <row r="18" spans="1:94">
       <c r="A18" s="1">
         <v>43525</v>
       </c>
@@ -5695,8 +5771,14 @@
       <c r="CN18">
         <v>0</v>
       </c>
+      <c r="CO18">
+        <v>0</v>
+      </c>
+      <c r="CP18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:92">
+    <row r="19" spans="1:94">
       <c r="A19" s="1">
         <v>43526</v>
       </c>
@@ -5973,8 +6055,14 @@
       <c r="CN19">
         <v>0</v>
       </c>
+      <c r="CO19">
+        <v>0</v>
+      </c>
+      <c r="CP19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:92">
+    <row r="20" spans="1:94">
       <c r="A20" s="1">
         <v>43527</v>
       </c>
@@ -6251,8 +6339,14 @@
       <c r="CN20">
         <v>0</v>
       </c>
+      <c r="CO20">
+        <v>0</v>
+      </c>
+      <c r="CP20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:92">
+    <row r="21" spans="1:94">
       <c r="A21" s="1">
         <v>43529</v>
       </c>
@@ -6529,8 +6623,14 @@
       <c r="CN21">
         <v>0</v>
       </c>
+      <c r="CO21">
+        <v>0</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:92">
+    <row r="22" spans="1:94">
       <c r="A22" s="1">
         <v>43530</v>
       </c>
@@ -6807,8 +6907,14 @@
       <c r="CN22">
         <v>0</v>
       </c>
+      <c r="CO22">
+        <v>0</v>
+      </c>
+      <c r="CP22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:92">
+    <row r="23" spans="1:94">
       <c r="A23" s="1">
         <v>43531</v>
       </c>
@@ -7085,8 +7191,14 @@
       <c r="CN23">
         <v>0</v>
       </c>
+      <c r="CO23">
+        <v>0</v>
+      </c>
+      <c r="CP23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:92">
+    <row r="24" spans="1:94">
       <c r="A24" s="1">
         <v>43532</v>
       </c>
@@ -7363,8 +7475,14 @@
       <c r="CN24">
         <v>0</v>
       </c>
+      <c r="CO24">
+        <v>0</v>
+      </c>
+      <c r="CP24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:92">
+    <row r="25" spans="1:94">
       <c r="A25" s="1">
         <v>43533</v>
       </c>
@@ -7641,8 +7759,14 @@
       <c r="CN25">
         <v>0</v>
       </c>
+      <c r="CO25">
+        <v>0</v>
+      </c>
+      <c r="CP25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:92">
+    <row r="26" spans="1:94">
       <c r="A26" s="1">
         <v>43534</v>
       </c>
@@ -7919,8 +8043,14 @@
       <c r="CN26">
         <v>0</v>
       </c>
+      <c r="CO26">
+        <v>0</v>
+      </c>
+      <c r="CP26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:92">
+    <row r="27" spans="1:94">
       <c r="A27" s="1">
         <v>43535</v>
       </c>
@@ -8197,8 +8327,14 @@
       <c r="CN27">
         <v>0</v>
       </c>
+      <c r="CO27">
+        <v>0</v>
+      </c>
+      <c r="CP27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:92">
+    <row r="28" spans="1:94">
       <c r="A28" s="1">
         <v>43536</v>
       </c>
@@ -8475,8 +8611,14 @@
       <c r="CN28">
         <v>0</v>
       </c>
+      <c r="CO28">
+        <v>0</v>
+      </c>
+      <c r="CP28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:92">
+    <row r="29" spans="1:94">
       <c r="A29" s="1">
         <v>43537</v>
       </c>
@@ -8753,8 +8895,14 @@
       <c r="CN29">
         <v>0</v>
       </c>
+      <c r="CO29">
+        <v>0</v>
+      </c>
+      <c r="CP29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:92">
+    <row r="30" spans="1:94">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -9031,8 +9179,14 @@
       <c r="CN30">
         <v>1</v>
       </c>
+      <c r="CO30">
+        <v>0</v>
+      </c>
+      <c r="CP30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:92">
+    <row r="31" spans="1:94">
       <c r="A31" s="1">
         <v>43539</v>
       </c>
@@ -9309,8 +9463,14 @@
       <c r="CN31">
         <v>0</v>
       </c>
+      <c r="CO31">
+        <v>0</v>
+      </c>
+      <c r="CP31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:92">
+    <row r="32" spans="1:94">
       <c r="A32" s="1">
         <v>43540</v>
       </c>
@@ -9587,8 +9747,14 @@
       <c r="CN32">
         <v>1</v>
       </c>
+      <c r="CO32">
+        <v>0</v>
+      </c>
+      <c r="CP32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:92">
+    <row r="33" spans="1:94">
       <c r="A33" s="1">
         <v>43541</v>
       </c>
@@ -9863,6 +10029,296 @@
         <v>0</v>
       </c>
       <c r="CN33">
+        <v>1</v>
+      </c>
+      <c r="CO33">
+        <v>0</v>
+      </c>
+      <c r="CP33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:94">
+      <c r="A34" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>79</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>8</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+      <c r="Z34">
+        <v>4</v>
+      </c>
+      <c r="AA34">
+        <v>3</v>
+      </c>
+      <c r="AB34">
+        <v>7</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>3</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>8</v>
+      </c>
+      <c r="AK34">
+        <v>2</v>
+      </c>
+      <c r="AL34">
+        <v>2</v>
+      </c>
+      <c r="AM34">
+        <v>2</v>
+      </c>
+      <c r="AN34">
+        <v>2</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>84</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AR34">
+        <v>2</v>
+      </c>
+      <c r="AS34">
+        <v>7</v>
+      </c>
+      <c r="AT34">
+        <v>4</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>1</v>
+      </c>
+      <c r="AX34">
+        <v>2</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>2</v>
+      </c>
+      <c r="BJ34">
+        <v>2</v>
+      </c>
+      <c r="BK34">
+        <v>2</v>
+      </c>
+      <c r="BL34">
+        <v>2</v>
+      </c>
+      <c r="BM34">
+        <v>1</v>
+      </c>
+      <c r="BN34">
+        <v>1</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>2</v>
+      </c>
+      <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>0</v>
+      </c>
+      <c r="BT34">
+        <v>1</v>
+      </c>
+      <c r="BU34">
+        <v>0</v>
+      </c>
+      <c r="BV34">
+        <v>0</v>
+      </c>
+      <c r="BW34">
+        <v>0</v>
+      </c>
+      <c r="BX34">
+        <v>0</v>
+      </c>
+      <c r="BY34">
+        <v>0</v>
+      </c>
+      <c r="BZ34">
+        <v>0</v>
+      </c>
+      <c r="CA34">
+        <v>0</v>
+      </c>
+      <c r="CB34">
+        <v>0</v>
+      </c>
+      <c r="CC34">
+        <v>0</v>
+      </c>
+      <c r="CD34">
+        <v>0</v>
+      </c>
+      <c r="CE34">
+        <v>0</v>
+      </c>
+      <c r="CF34">
+        <v>0</v>
+      </c>
+      <c r="CG34">
+        <v>0</v>
+      </c>
+      <c r="CH34">
+        <v>0</v>
+      </c>
+      <c r="CI34">
+        <v>0</v>
+      </c>
+      <c r="CJ34">
+        <v>0</v>
+      </c>
+      <c r="CK34">
+        <v>0</v>
+      </c>
+      <c r="CL34">
+        <v>1</v>
+      </c>
+      <c r="CM34">
+        <v>1</v>
+      </c>
+      <c r="CN34">
+        <v>0</v>
+      </c>
+      <c r="CO34">
+        <v>1</v>
+      </c>
+      <c r="CP34">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CP34"/>
+  <dimension ref="A1:CP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10320,6 +10320,290 @@
       </c>
       <c r="CP34">
         <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:94">
+      <c r="A35" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>78</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>8</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>2</v>
+      </c>
+      <c r="Y35">
+        <v>2</v>
+      </c>
+      <c r="Z35">
+        <v>4</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <v>7</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>3</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>8</v>
+      </c>
+      <c r="AK35">
+        <v>2</v>
+      </c>
+      <c r="AL35">
+        <v>2</v>
+      </c>
+      <c r="AM35">
+        <v>2</v>
+      </c>
+      <c r="AN35">
+        <v>2</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>84</v>
+      </c>
+      <c r="AQ35">
+        <v>2</v>
+      </c>
+      <c r="AR35">
+        <v>2</v>
+      </c>
+      <c r="AS35">
+        <v>7</v>
+      </c>
+      <c r="AT35">
+        <v>4</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>3</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>2</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>2</v>
+      </c>
+      <c r="BJ35">
+        <v>2</v>
+      </c>
+      <c r="BK35">
+        <v>2</v>
+      </c>
+      <c r="BL35">
+        <v>2</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>1</v>
+      </c>
+      <c r="BO35">
+        <v>1</v>
+      </c>
+      <c r="BP35">
+        <v>1</v>
+      </c>
+      <c r="BQ35">
+        <v>2</v>
+      </c>
+      <c r="BR35">
+        <v>0</v>
+      </c>
+      <c r="BS35">
+        <v>0</v>
+      </c>
+      <c r="BT35">
+        <v>0</v>
+      </c>
+      <c r="BU35">
+        <v>0</v>
+      </c>
+      <c r="BV35">
+        <v>0</v>
+      </c>
+      <c r="BW35">
+        <v>0</v>
+      </c>
+      <c r="BX35">
+        <v>1</v>
+      </c>
+      <c r="BY35">
+        <v>1</v>
+      </c>
+      <c r="BZ35">
+        <v>0</v>
+      </c>
+      <c r="CA35">
+        <v>0</v>
+      </c>
+      <c r="CB35">
+        <v>0</v>
+      </c>
+      <c r="CC35">
+        <v>1</v>
+      </c>
+      <c r="CD35">
+        <v>0</v>
+      </c>
+      <c r="CE35">
+        <v>0</v>
+      </c>
+      <c r="CF35">
+        <v>0</v>
+      </c>
+      <c r="CG35">
+        <v>0</v>
+      </c>
+      <c r="CH35">
+        <v>0</v>
+      </c>
+      <c r="CI35">
+        <v>0</v>
+      </c>
+      <c r="CJ35">
+        <v>0</v>
+      </c>
+      <c r="CK35">
+        <v>0</v>
+      </c>
+      <c r="CL35">
+        <v>0</v>
+      </c>
+      <c r="CM35">
+        <v>0</v>
+      </c>
+      <c r="CN35">
+        <v>0</v>
+      </c>
+      <c r="CO35">
+        <v>1</v>
+      </c>
+      <c r="CP35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -301,6 +301,15 @@
   </si>
   <si>
     <t>Kos, Southern Aegean, Greece</t>
+  </si>
+  <si>
+    <t>Gastoúni, Western Greece, Greece</t>
+  </si>
+  <si>
+    <t>Néa Zíchni, Central Macedonia, Greece</t>
+  </si>
+  <si>
+    <t>Préveza, Epirus (region), Greece</t>
   </si>
 </sst>
 </file>
@@ -655,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CP35"/>
+  <dimension ref="A1:CS36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -666,7 +675,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94">
+    <row r="1" spans="1:97">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -949,8 +958,17 @@
       <c r="CP1" t="s">
         <v>93</v>
       </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:94">
+    <row r="2" spans="1:97">
       <c r="A2" s="1">
         <v>43502</v>
       </c>
@@ -1233,8 +1251,17 @@
       <c r="CP2">
         <v>0</v>
       </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:94">
+    <row r="3" spans="1:97">
       <c r="A3" s="1">
         <v>43503</v>
       </c>
@@ -1517,8 +1544,17 @@
       <c r="CP3">
         <v>0</v>
       </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:94">
+    <row r="4" spans="1:97">
       <c r="A4" s="1">
         <v>43504</v>
       </c>
@@ -1801,8 +1837,17 @@
       <c r="CP4">
         <v>0</v>
       </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:94">
+    <row r="5" spans="1:97">
       <c r="A5" s="1">
         <v>43507</v>
       </c>
@@ -2085,8 +2130,17 @@
       <c r="CP5">
         <v>0</v>
       </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:94">
+    <row r="6" spans="1:97">
       <c r="A6" s="1">
         <v>43507</v>
       </c>
@@ -2369,8 +2423,17 @@
       <c r="CP6">
         <v>0</v>
       </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:94">
+    <row r="7" spans="1:97">
       <c r="A7" s="1">
         <v>43508</v>
       </c>
@@ -2653,8 +2716,17 @@
       <c r="CP7">
         <v>0</v>
       </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:94">
+    <row r="8" spans="1:97">
       <c r="A8" s="1">
         <v>43509</v>
       </c>
@@ -2937,8 +3009,17 @@
       <c r="CP8">
         <v>0</v>
       </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:94">
+    <row r="9" spans="1:97">
       <c r="A9" s="1">
         <v>43510</v>
       </c>
@@ -3221,8 +3302,17 @@
       <c r="CP9">
         <v>0</v>
       </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:94">
+    <row r="10" spans="1:97">
       <c r="A10" s="1">
         <v>43512</v>
       </c>
@@ -3505,8 +3595,17 @@
       <c r="CP10">
         <v>0</v>
       </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:94">
+    <row r="11" spans="1:97">
       <c r="A11" s="1">
         <v>43515</v>
       </c>
@@ -3789,8 +3888,17 @@
       <c r="CP11">
         <v>0</v>
       </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:94">
+    <row r="12" spans="1:97">
       <c r="A12" s="1">
         <v>43519</v>
       </c>
@@ -4073,8 +4181,17 @@
       <c r="CP12">
         <v>0</v>
       </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:94">
+    <row r="13" spans="1:97">
       <c r="A13" s="1">
         <v>43520</v>
       </c>
@@ -4357,8 +4474,17 @@
       <c r="CP13">
         <v>0</v>
       </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:94">
+    <row r="14" spans="1:97">
       <c r="A14" s="1">
         <v>43521</v>
       </c>
@@ -4641,8 +4767,17 @@
       <c r="CP14">
         <v>0</v>
       </c>
+      <c r="CQ14">
+        <v>0</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:94">
+    <row r="15" spans="1:97">
       <c r="A15" s="1">
         <v>43522</v>
       </c>
@@ -4925,8 +5060,17 @@
       <c r="CP15">
         <v>0</v>
       </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:94">
+    <row r="16" spans="1:97">
       <c r="A16" s="1">
         <v>43523</v>
       </c>
@@ -5209,8 +5353,17 @@
       <c r="CP16">
         <v>0</v>
       </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:94">
+    <row r="17" spans="1:97">
       <c r="A17" s="1">
         <v>43524</v>
       </c>
@@ -5493,8 +5646,17 @@
       <c r="CP17">
         <v>0</v>
       </c>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:94">
+    <row r="18" spans="1:97">
       <c r="A18" s="1">
         <v>43525</v>
       </c>
@@ -5777,8 +5939,17 @@
       <c r="CP18">
         <v>0</v>
       </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:94">
+    <row r="19" spans="1:97">
       <c r="A19" s="1">
         <v>43526</v>
       </c>
@@ -6061,8 +6232,17 @@
       <c r="CP19">
         <v>0</v>
       </c>
+      <c r="CQ19">
+        <v>0</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:94">
+    <row r="20" spans="1:97">
       <c r="A20" s="1">
         <v>43527</v>
       </c>
@@ -6345,8 +6525,17 @@
       <c r="CP20">
         <v>0</v>
       </c>
+      <c r="CQ20">
+        <v>0</v>
+      </c>
+      <c r="CR20">
+        <v>0</v>
+      </c>
+      <c r="CS20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:94">
+    <row r="21" spans="1:97">
       <c r="A21" s="1">
         <v>43529</v>
       </c>
@@ -6629,8 +6818,17 @@
       <c r="CP21">
         <v>0</v>
       </c>
+      <c r="CQ21">
+        <v>0</v>
+      </c>
+      <c r="CR21">
+        <v>0</v>
+      </c>
+      <c r="CS21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:94">
+    <row r="22" spans="1:97">
       <c r="A22" s="1">
         <v>43530</v>
       </c>
@@ -6913,8 +7111,17 @@
       <c r="CP22">
         <v>0</v>
       </c>
+      <c r="CQ22">
+        <v>0</v>
+      </c>
+      <c r="CR22">
+        <v>0</v>
+      </c>
+      <c r="CS22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:94">
+    <row r="23" spans="1:97">
       <c r="A23" s="1">
         <v>43531</v>
       </c>
@@ -7197,8 +7404,17 @@
       <c r="CP23">
         <v>0</v>
       </c>
+      <c r="CQ23">
+        <v>0</v>
+      </c>
+      <c r="CR23">
+        <v>0</v>
+      </c>
+      <c r="CS23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:94">
+    <row r="24" spans="1:97">
       <c r="A24" s="1">
         <v>43532</v>
       </c>
@@ -7481,8 +7697,17 @@
       <c r="CP24">
         <v>0</v>
       </c>
+      <c r="CQ24">
+        <v>0</v>
+      </c>
+      <c r="CR24">
+        <v>0</v>
+      </c>
+      <c r="CS24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:94">
+    <row r="25" spans="1:97">
       <c r="A25" s="1">
         <v>43533</v>
       </c>
@@ -7765,8 +7990,17 @@
       <c r="CP25">
         <v>0</v>
       </c>
+      <c r="CQ25">
+        <v>0</v>
+      </c>
+      <c r="CR25">
+        <v>0</v>
+      </c>
+      <c r="CS25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:94">
+    <row r="26" spans="1:97">
       <c r="A26" s="1">
         <v>43534</v>
       </c>
@@ -8049,8 +8283,17 @@
       <c r="CP26">
         <v>0</v>
       </c>
+      <c r="CQ26">
+        <v>0</v>
+      </c>
+      <c r="CR26">
+        <v>0</v>
+      </c>
+      <c r="CS26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:94">
+    <row r="27" spans="1:97">
       <c r="A27" s="1">
         <v>43535</v>
       </c>
@@ -8333,8 +8576,17 @@
       <c r="CP27">
         <v>0</v>
       </c>
+      <c r="CQ27">
+        <v>0</v>
+      </c>
+      <c r="CR27">
+        <v>0</v>
+      </c>
+      <c r="CS27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:94">
+    <row r="28" spans="1:97">
       <c r="A28" s="1">
         <v>43536</v>
       </c>
@@ -8617,8 +8869,17 @@
       <c r="CP28">
         <v>0</v>
       </c>
+      <c r="CQ28">
+        <v>0</v>
+      </c>
+      <c r="CR28">
+        <v>0</v>
+      </c>
+      <c r="CS28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:94">
+    <row r="29" spans="1:97">
       <c r="A29" s="1">
         <v>43537</v>
       </c>
@@ -8901,8 +9162,17 @@
       <c r="CP29">
         <v>0</v>
       </c>
+      <c r="CQ29">
+        <v>0</v>
+      </c>
+      <c r="CR29">
+        <v>0</v>
+      </c>
+      <c r="CS29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:94">
+    <row r="30" spans="1:97">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -9185,8 +9455,17 @@
       <c r="CP30">
         <v>0</v>
       </c>
+      <c r="CQ30">
+        <v>0</v>
+      </c>
+      <c r="CR30">
+        <v>0</v>
+      </c>
+      <c r="CS30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:94">
+    <row r="31" spans="1:97">
       <c r="A31" s="1">
         <v>43539</v>
       </c>
@@ -9469,8 +9748,17 @@
       <c r="CP31">
         <v>0</v>
       </c>
+      <c r="CQ31">
+        <v>0</v>
+      </c>
+      <c r="CR31">
+        <v>0</v>
+      </c>
+      <c r="CS31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:94">
+    <row r="32" spans="1:97">
       <c r="A32" s="1">
         <v>43540</v>
       </c>
@@ -9753,8 +10041,17 @@
       <c r="CP32">
         <v>0</v>
       </c>
+      <c r="CQ32">
+        <v>0</v>
+      </c>
+      <c r="CR32">
+        <v>0</v>
+      </c>
+      <c r="CS32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:94">
+    <row r="33" spans="1:97">
       <c r="A33" s="1">
         <v>43541</v>
       </c>
@@ -10037,8 +10334,17 @@
       <c r="CP33">
         <v>0</v>
       </c>
+      <c r="CQ33">
+        <v>0</v>
+      </c>
+      <c r="CR33">
+        <v>0</v>
+      </c>
+      <c r="CS33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:94">
+    <row r="34" spans="1:97">
       <c r="A34" s="1">
         <v>43542</v>
       </c>
@@ -10321,8 +10627,17 @@
       <c r="CP34">
         <v>1</v>
       </c>
+      <c r="CQ34">
+        <v>0</v>
+      </c>
+      <c r="CR34">
+        <v>0</v>
+      </c>
+      <c r="CS34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:94">
+    <row r="35" spans="1:97">
       <c r="A35" s="1">
         <v>43543</v>
       </c>
@@ -10604,6 +10919,308 @@
       </c>
       <c r="CP35">
         <v>0</v>
+      </c>
+      <c r="CQ35">
+        <v>0</v>
+      </c>
+      <c r="CR35">
+        <v>0</v>
+      </c>
+      <c r="CS35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:97">
+      <c r="A36" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>78</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>5</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>2</v>
+      </c>
+      <c r="Y36">
+        <v>2</v>
+      </c>
+      <c r="Z36">
+        <v>4</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>7</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>3</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>8</v>
+      </c>
+      <c r="AK36">
+        <v>2</v>
+      </c>
+      <c r="AL36">
+        <v>2</v>
+      </c>
+      <c r="AM36">
+        <v>2</v>
+      </c>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>84</v>
+      </c>
+      <c r="AQ36">
+        <v>2</v>
+      </c>
+      <c r="AR36">
+        <v>2</v>
+      </c>
+      <c r="AS36">
+        <v>7</v>
+      </c>
+      <c r="AT36">
+        <v>4</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>3</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>2</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>1</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>1</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>2</v>
+      </c>
+      <c r="BJ36">
+        <v>2</v>
+      </c>
+      <c r="BK36">
+        <v>2</v>
+      </c>
+      <c r="BL36">
+        <v>2</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>2</v>
+      </c>
+      <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>0</v>
+      </c>
+      <c r="BT36">
+        <v>0</v>
+      </c>
+      <c r="BU36">
+        <v>0</v>
+      </c>
+      <c r="BV36">
+        <v>0</v>
+      </c>
+      <c r="BW36">
+        <v>0</v>
+      </c>
+      <c r="BX36">
+        <v>1</v>
+      </c>
+      <c r="BY36">
+        <v>1</v>
+      </c>
+      <c r="BZ36">
+        <v>0</v>
+      </c>
+      <c r="CA36">
+        <v>0</v>
+      </c>
+      <c r="CB36">
+        <v>0</v>
+      </c>
+      <c r="CC36">
+        <v>0</v>
+      </c>
+      <c r="CD36">
+        <v>1</v>
+      </c>
+      <c r="CE36">
+        <v>0</v>
+      </c>
+      <c r="CF36">
+        <v>0</v>
+      </c>
+      <c r="CG36">
+        <v>0</v>
+      </c>
+      <c r="CH36">
+        <v>1</v>
+      </c>
+      <c r="CI36">
+        <v>0</v>
+      </c>
+      <c r="CJ36">
+        <v>0</v>
+      </c>
+      <c r="CK36">
+        <v>0</v>
+      </c>
+      <c r="CL36">
+        <v>0</v>
+      </c>
+      <c r="CM36">
+        <v>0</v>
+      </c>
+      <c r="CN36">
+        <v>0</v>
+      </c>
+      <c r="CO36">
+        <v>0</v>
+      </c>
+      <c r="CP36">
+        <v>0</v>
+      </c>
+      <c r="CQ36">
+        <v>1</v>
+      </c>
+      <c r="CR36">
+        <v>1</v>
+      </c>
+      <c r="CS36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>Préveza, Epirus (region), Greece</t>
+  </si>
+  <si>
+    <t>Malesína, Central Greece (region), Greece</t>
   </si>
 </sst>
 </file>
@@ -664,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CS36"/>
+  <dimension ref="A1:CT37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -675,7 +678,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:98">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -967,8 +970,11 @@
       <c r="CS1" t="s">
         <v>96</v>
       </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:98">
       <c r="A2" s="1">
         <v>43502</v>
       </c>
@@ -1260,8 +1266,11 @@
       <c r="CS2">
         <v>0</v>
       </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:98">
       <c r="A3" s="1">
         <v>43503</v>
       </c>
@@ -1553,8 +1562,11 @@
       <c r="CS3">
         <v>0</v>
       </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:98">
       <c r="A4" s="1">
         <v>43504</v>
       </c>
@@ -1846,8 +1858,11 @@
       <c r="CS4">
         <v>0</v>
       </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:98">
       <c r="A5" s="1">
         <v>43507</v>
       </c>
@@ -2139,8 +2154,11 @@
       <c r="CS5">
         <v>0</v>
       </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:98">
       <c r="A6" s="1">
         <v>43507</v>
       </c>
@@ -2432,8 +2450,11 @@
       <c r="CS6">
         <v>0</v>
       </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:98">
       <c r="A7" s="1">
         <v>43508</v>
       </c>
@@ -2725,8 +2746,11 @@
       <c r="CS7">
         <v>0</v>
       </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:97">
+    <row r="8" spans="1:98">
       <c r="A8" s="1">
         <v>43509</v>
       </c>
@@ -3018,8 +3042,11 @@
       <c r="CS8">
         <v>0</v>
       </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:97">
+    <row r="9" spans="1:98">
       <c r="A9" s="1">
         <v>43510</v>
       </c>
@@ -3311,8 +3338,11 @@
       <c r="CS9">
         <v>0</v>
       </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:97">
+    <row r="10" spans="1:98">
       <c r="A10" s="1">
         <v>43512</v>
       </c>
@@ -3604,8 +3634,11 @@
       <c r="CS10">
         <v>0</v>
       </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:97">
+    <row r="11" spans="1:98">
       <c r="A11" s="1">
         <v>43515</v>
       </c>
@@ -3897,8 +3930,11 @@
       <c r="CS11">
         <v>0</v>
       </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:97">
+    <row r="12" spans="1:98">
       <c r="A12" s="1">
         <v>43519</v>
       </c>
@@ -4190,8 +4226,11 @@
       <c r="CS12">
         <v>0</v>
       </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:97">
+    <row r="13" spans="1:98">
       <c r="A13" s="1">
         <v>43520</v>
       </c>
@@ -4483,8 +4522,11 @@
       <c r="CS13">
         <v>0</v>
       </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:97">
+    <row r="14" spans="1:98">
       <c r="A14" s="1">
         <v>43521</v>
       </c>
@@ -4776,8 +4818,11 @@
       <c r="CS14">
         <v>0</v>
       </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:97">
+    <row r="15" spans="1:98">
       <c r="A15" s="1">
         <v>43522</v>
       </c>
@@ -5069,8 +5114,11 @@
       <c r="CS15">
         <v>0</v>
       </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:97">
+    <row r="16" spans="1:98">
       <c r="A16" s="1">
         <v>43523</v>
       </c>
@@ -5362,8 +5410,11 @@
       <c r="CS16">
         <v>0</v>
       </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:97">
+    <row r="17" spans="1:98">
       <c r="A17" s="1">
         <v>43524</v>
       </c>
@@ -5655,8 +5706,11 @@
       <c r="CS17">
         <v>0</v>
       </c>
+      <c r="CT17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:97">
+    <row r="18" spans="1:98">
       <c r="A18" s="1">
         <v>43525</v>
       </c>
@@ -5948,8 +6002,11 @@
       <c r="CS18">
         <v>0</v>
       </c>
+      <c r="CT18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:97">
+    <row r="19" spans="1:98">
       <c r="A19" s="1">
         <v>43526</v>
       </c>
@@ -6241,8 +6298,11 @@
       <c r="CS19">
         <v>0</v>
       </c>
+      <c r="CT19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:97">
+    <row r="20" spans="1:98">
       <c r="A20" s="1">
         <v>43527</v>
       </c>
@@ -6534,8 +6594,11 @@
       <c r="CS20">
         <v>0</v>
       </c>
+      <c r="CT20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:97">
+    <row r="21" spans="1:98">
       <c r="A21" s="1">
         <v>43529</v>
       </c>
@@ -6827,8 +6890,11 @@
       <c r="CS21">
         <v>0</v>
       </c>
+      <c r="CT21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:97">
+    <row r="22" spans="1:98">
       <c r="A22" s="1">
         <v>43530</v>
       </c>
@@ -7120,8 +7186,11 @@
       <c r="CS22">
         <v>0</v>
       </c>
+      <c r="CT22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:97">
+    <row r="23" spans="1:98">
       <c r="A23" s="1">
         <v>43531</v>
       </c>
@@ -7413,8 +7482,11 @@
       <c r="CS23">
         <v>0</v>
       </c>
+      <c r="CT23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:97">
+    <row r="24" spans="1:98">
       <c r="A24" s="1">
         <v>43532</v>
       </c>
@@ -7706,8 +7778,11 @@
       <c r="CS24">
         <v>0</v>
       </c>
+      <c r="CT24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:97">
+    <row r="25" spans="1:98">
       <c r="A25" s="1">
         <v>43533</v>
       </c>
@@ -7999,8 +8074,11 @@
       <c r="CS25">
         <v>0</v>
       </c>
+      <c r="CT25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:97">
+    <row r="26" spans="1:98">
       <c r="A26" s="1">
         <v>43534</v>
       </c>
@@ -8292,8 +8370,11 @@
       <c r="CS26">
         <v>0</v>
       </c>
+      <c r="CT26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:97">
+    <row r="27" spans="1:98">
       <c r="A27" s="1">
         <v>43535</v>
       </c>
@@ -8585,8 +8666,11 @@
       <c r="CS27">
         <v>0</v>
       </c>
+      <c r="CT27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:97">
+    <row r="28" spans="1:98">
       <c r="A28" s="1">
         <v>43536</v>
       </c>
@@ -8878,8 +8962,11 @@
       <c r="CS28">
         <v>0</v>
       </c>
+      <c r="CT28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:97">
+    <row r="29" spans="1:98">
       <c r="A29" s="1">
         <v>43537</v>
       </c>
@@ -9171,8 +9258,11 @@
       <c r="CS29">
         <v>0</v>
       </c>
+      <c r="CT29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:97">
+    <row r="30" spans="1:98">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -9464,8 +9554,11 @@
       <c r="CS30">
         <v>0</v>
       </c>
+      <c r="CT30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:97">
+    <row r="31" spans="1:98">
       <c r="A31" s="1">
         <v>43539</v>
       </c>
@@ -9757,8 +9850,11 @@
       <c r="CS31">
         <v>0</v>
       </c>
+      <c r="CT31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:97">
+    <row r="32" spans="1:98">
       <c r="A32" s="1">
         <v>43540</v>
       </c>
@@ -10050,8 +10146,11 @@
       <c r="CS32">
         <v>0</v>
       </c>
+      <c r="CT32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:97">
+    <row r="33" spans="1:98">
       <c r="A33" s="1">
         <v>43541</v>
       </c>
@@ -10343,8 +10442,11 @@
       <c r="CS33">
         <v>0</v>
       </c>
+      <c r="CT33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:97">
+    <row r="34" spans="1:98">
       <c r="A34" s="1">
         <v>43542</v>
       </c>
@@ -10636,8 +10738,11 @@
       <c r="CS34">
         <v>0</v>
       </c>
+      <c r="CT34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:97">
+    <row r="35" spans="1:98">
       <c r="A35" s="1">
         <v>43543</v>
       </c>
@@ -10929,8 +11034,11 @@
       <c r="CS35">
         <v>0</v>
       </c>
+      <c r="CT35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:97">
+    <row r="36" spans="1:98">
       <c r="A36" s="1">
         <v>43544</v>
       </c>
@@ -11220,6 +11328,305 @@
         <v>1</v>
       </c>
       <c r="CS36">
+        <v>1</v>
+      </c>
+      <c r="CT36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:98">
+      <c r="A37" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>79</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>5</v>
+      </c>
+      <c r="P37">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>7</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>5</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>3</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>5</v>
+      </c>
+      <c r="AA37">
+        <v>3</v>
+      </c>
+      <c r="AB37">
+        <v>7</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>3</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>8</v>
+      </c>
+      <c r="AK37">
+        <v>2</v>
+      </c>
+      <c r="AL37">
+        <v>2</v>
+      </c>
+      <c r="AM37">
+        <v>2</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>83</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>2</v>
+      </c>
+      <c r="AS37">
+        <v>7</v>
+      </c>
+      <c r="AT37">
+        <v>4</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>3</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>2</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>2</v>
+      </c>
+      <c r="BJ37">
+        <v>2</v>
+      </c>
+      <c r="BK37">
+        <v>2</v>
+      </c>
+      <c r="BL37">
+        <v>2</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>2</v>
+      </c>
+      <c r="BR37">
+        <v>1</v>
+      </c>
+      <c r="BS37">
+        <v>1</v>
+      </c>
+      <c r="BT37">
+        <v>0</v>
+      </c>
+      <c r="BU37">
+        <v>0</v>
+      </c>
+      <c r="BV37">
+        <v>0</v>
+      </c>
+      <c r="BW37">
+        <v>0</v>
+      </c>
+      <c r="BX37">
+        <v>0</v>
+      </c>
+      <c r="BY37">
+        <v>1</v>
+      </c>
+      <c r="BZ37">
+        <v>0</v>
+      </c>
+      <c r="CA37">
+        <v>0</v>
+      </c>
+      <c r="CB37">
+        <v>0</v>
+      </c>
+      <c r="CC37">
+        <v>0</v>
+      </c>
+      <c r="CD37">
+        <v>1</v>
+      </c>
+      <c r="CE37">
+        <v>0</v>
+      </c>
+      <c r="CF37">
+        <v>0</v>
+      </c>
+      <c r="CG37">
+        <v>0</v>
+      </c>
+      <c r="CH37">
+        <v>0</v>
+      </c>
+      <c r="CI37">
+        <v>0</v>
+      </c>
+      <c r="CJ37">
+        <v>0</v>
+      </c>
+      <c r="CK37">
+        <v>1</v>
+      </c>
+      <c r="CL37">
+        <v>1</v>
+      </c>
+      <c r="CM37">
+        <v>0</v>
+      </c>
+      <c r="CN37">
+        <v>0</v>
+      </c>
+      <c r="CO37">
+        <v>0</v>
+      </c>
+      <c r="CP37">
+        <v>0</v>
+      </c>
+      <c r="CQ37">
+        <v>0</v>
+      </c>
+      <c r="CR37">
+        <v>0</v>
+      </c>
+      <c r="CS37">
+        <v>0</v>
+      </c>
+      <c r="CT37">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>Malesína, Central Greece (region), Greece</t>
+  </si>
+  <si>
+    <t>Kateríni, Central Macedonia, Greece</t>
+  </si>
+  <si>
+    <t>Leptokaryá, Central Macedonia, Greece</t>
   </si>
 </sst>
 </file>
@@ -667,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CT37"/>
+  <dimension ref="A1:CV38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -678,7 +684,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:100">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,8 +979,14 @@
       <c r="CT1" t="s">
         <v>97</v>
       </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:100">
       <c r="A2" s="1">
         <v>43502</v>
       </c>
@@ -1269,8 +1281,14 @@
       <c r="CT2">
         <v>0</v>
       </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:100">
       <c r="A3" s="1">
         <v>43503</v>
       </c>
@@ -1565,8 +1583,14 @@
       <c r="CT3">
         <v>0</v>
       </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:100">
       <c r="A4" s="1">
         <v>43504</v>
       </c>
@@ -1861,8 +1885,14 @@
       <c r="CT4">
         <v>0</v>
       </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:100">
       <c r="A5" s="1">
         <v>43507</v>
       </c>
@@ -2157,8 +2187,14 @@
       <c r="CT5">
         <v>0</v>
       </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:100">
       <c r="A6" s="1">
         <v>43507</v>
       </c>
@@ -2453,8 +2489,14 @@
       <c r="CT6">
         <v>0</v>
       </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:100">
       <c r="A7" s="1">
         <v>43508</v>
       </c>
@@ -2749,8 +2791,14 @@
       <c r="CT7">
         <v>0</v>
       </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:100">
       <c r="A8" s="1">
         <v>43509</v>
       </c>
@@ -3045,8 +3093,14 @@
       <c r="CT8">
         <v>0</v>
       </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:100">
       <c r="A9" s="1">
         <v>43510</v>
       </c>
@@ -3341,8 +3395,14 @@
       <c r="CT9">
         <v>0</v>
       </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:98">
+    <row r="10" spans="1:100">
       <c r="A10" s="1">
         <v>43512</v>
       </c>
@@ -3637,8 +3697,14 @@
       <c r="CT10">
         <v>0</v>
       </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:98">
+    <row r="11" spans="1:100">
       <c r="A11" s="1">
         <v>43515</v>
       </c>
@@ -3933,8 +3999,14 @@
       <c r="CT11">
         <v>0</v>
       </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:98">
+    <row r="12" spans="1:100">
       <c r="A12" s="1">
         <v>43519</v>
       </c>
@@ -4229,8 +4301,14 @@
       <c r="CT12">
         <v>0</v>
       </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:98">
+    <row r="13" spans="1:100">
       <c r="A13" s="1">
         <v>43520</v>
       </c>
@@ -4525,8 +4603,14 @@
       <c r="CT13">
         <v>0</v>
       </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:98">
+    <row r="14" spans="1:100">
       <c r="A14" s="1">
         <v>43521</v>
       </c>
@@ -4821,8 +4905,14 @@
       <c r="CT14">
         <v>0</v>
       </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:98">
+    <row r="15" spans="1:100">
       <c r="A15" s="1">
         <v>43522</v>
       </c>
@@ -5117,8 +5207,14 @@
       <c r="CT15">
         <v>0</v>
       </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:98">
+    <row r="16" spans="1:100">
       <c r="A16" s="1">
         <v>43523</v>
       </c>
@@ -5413,8 +5509,14 @@
       <c r="CT16">
         <v>0</v>
       </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:98">
+    <row r="17" spans="1:100">
       <c r="A17" s="1">
         <v>43524</v>
       </c>
@@ -5709,8 +5811,14 @@
       <c r="CT17">
         <v>0</v>
       </c>
+      <c r="CU17">
+        <v>0</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:98">
+    <row r="18" spans="1:100">
       <c r="A18" s="1">
         <v>43525</v>
       </c>
@@ -6005,8 +6113,14 @@
       <c r="CT18">
         <v>0</v>
       </c>
+      <c r="CU18">
+        <v>0</v>
+      </c>
+      <c r="CV18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:98">
+    <row r="19" spans="1:100">
       <c r="A19" s="1">
         <v>43526</v>
       </c>
@@ -6301,8 +6415,14 @@
       <c r="CT19">
         <v>0</v>
       </c>
+      <c r="CU19">
+        <v>0</v>
+      </c>
+      <c r="CV19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:98">
+    <row r="20" spans="1:100">
       <c r="A20" s="1">
         <v>43527</v>
       </c>
@@ -6597,8 +6717,14 @@
       <c r="CT20">
         <v>0</v>
       </c>
+      <c r="CU20">
+        <v>0</v>
+      </c>
+      <c r="CV20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:98">
+    <row r="21" spans="1:100">
       <c r="A21" s="1">
         <v>43529</v>
       </c>
@@ -6893,8 +7019,14 @@
       <c r="CT21">
         <v>0</v>
       </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
+      <c r="CV21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:98">
+    <row r="22" spans="1:100">
       <c r="A22" s="1">
         <v>43530</v>
       </c>
@@ -7189,8 +7321,14 @@
       <c r="CT22">
         <v>0</v>
       </c>
+      <c r="CU22">
+        <v>0</v>
+      </c>
+      <c r="CV22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:98">
+    <row r="23" spans="1:100">
       <c r="A23" s="1">
         <v>43531</v>
       </c>
@@ -7485,8 +7623,14 @@
       <c r="CT23">
         <v>0</v>
       </c>
+      <c r="CU23">
+        <v>0</v>
+      </c>
+      <c r="CV23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:98">
+    <row r="24" spans="1:100">
       <c r="A24" s="1">
         <v>43532</v>
       </c>
@@ -7781,8 +7925,14 @@
       <c r="CT24">
         <v>0</v>
       </c>
+      <c r="CU24">
+        <v>0</v>
+      </c>
+      <c r="CV24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:98">
+    <row r="25" spans="1:100">
       <c r="A25" s="1">
         <v>43533</v>
       </c>
@@ -8077,8 +8227,14 @@
       <c r="CT25">
         <v>0</v>
       </c>
+      <c r="CU25">
+        <v>0</v>
+      </c>
+      <c r="CV25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:98">
+    <row r="26" spans="1:100">
       <c r="A26" s="1">
         <v>43534</v>
       </c>
@@ -8373,8 +8529,14 @@
       <c r="CT26">
         <v>0</v>
       </c>
+      <c r="CU26">
+        <v>0</v>
+      </c>
+      <c r="CV26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:98">
+    <row r="27" spans="1:100">
       <c r="A27" s="1">
         <v>43535</v>
       </c>
@@ -8669,8 +8831,14 @@
       <c r="CT27">
         <v>0</v>
       </c>
+      <c r="CU27">
+        <v>0</v>
+      </c>
+      <c r="CV27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:98">
+    <row r="28" spans="1:100">
       <c r="A28" s="1">
         <v>43536</v>
       </c>
@@ -8965,8 +9133,14 @@
       <c r="CT28">
         <v>0</v>
       </c>
+      <c r="CU28">
+        <v>0</v>
+      </c>
+      <c r="CV28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:98">
+    <row r="29" spans="1:100">
       <c r="A29" s="1">
         <v>43537</v>
       </c>
@@ -9261,8 +9435,14 @@
       <c r="CT29">
         <v>0</v>
       </c>
+      <c r="CU29">
+        <v>0</v>
+      </c>
+      <c r="CV29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:98">
+    <row r="30" spans="1:100">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -9557,8 +9737,14 @@
       <c r="CT30">
         <v>0</v>
       </c>
+      <c r="CU30">
+        <v>0</v>
+      </c>
+      <c r="CV30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:98">
+    <row r="31" spans="1:100">
       <c r="A31" s="1">
         <v>43539</v>
       </c>
@@ -9853,8 +10039,14 @@
       <c r="CT31">
         <v>0</v>
       </c>
+      <c r="CU31">
+        <v>0</v>
+      </c>
+      <c r="CV31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:98">
+    <row r="32" spans="1:100">
       <c r="A32" s="1">
         <v>43540</v>
       </c>
@@ -10149,8 +10341,14 @@
       <c r="CT32">
         <v>0</v>
       </c>
+      <c r="CU32">
+        <v>0</v>
+      </c>
+      <c r="CV32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:98">
+    <row r="33" spans="1:100">
       <c r="A33" s="1">
         <v>43541</v>
       </c>
@@ -10445,8 +10643,14 @@
       <c r="CT33">
         <v>0</v>
       </c>
+      <c r="CU33">
+        <v>0</v>
+      </c>
+      <c r="CV33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:98">
+    <row r="34" spans="1:100">
       <c r="A34" s="1">
         <v>43542</v>
       </c>
@@ -10741,8 +10945,14 @@
       <c r="CT34">
         <v>0</v>
       </c>
+      <c r="CU34">
+        <v>0</v>
+      </c>
+      <c r="CV34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:98">
+    <row r="35" spans="1:100">
       <c r="A35" s="1">
         <v>43543</v>
       </c>
@@ -11037,8 +11247,14 @@
       <c r="CT35">
         <v>0</v>
       </c>
+      <c r="CU35">
+        <v>0</v>
+      </c>
+      <c r="CV35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:98">
+    <row r="36" spans="1:100">
       <c r="A36" s="1">
         <v>43544</v>
       </c>
@@ -11333,8 +11549,14 @@
       <c r="CT36">
         <v>0</v>
       </c>
+      <c r="CU36">
+        <v>0</v>
+      </c>
+      <c r="CV36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:98">
+    <row r="37" spans="1:100">
       <c r="A37" s="1">
         <v>43548</v>
       </c>
@@ -11627,6 +11849,314 @@
         <v>0</v>
       </c>
       <c r="CT37">
+        <v>1</v>
+      </c>
+      <c r="CU37">
+        <v>0</v>
+      </c>
+      <c r="CV37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:100">
+      <c r="A38" s="1">
+        <v>43549</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>79</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>5</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>3</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>5</v>
+      </c>
+      <c r="AA38">
+        <v>3</v>
+      </c>
+      <c r="AB38">
+        <v>7</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>3</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>8</v>
+      </c>
+      <c r="AK38">
+        <v>2</v>
+      </c>
+      <c r="AL38">
+        <v>2</v>
+      </c>
+      <c r="AM38">
+        <v>2</v>
+      </c>
+      <c r="AN38">
+        <v>2</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>83</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>2</v>
+      </c>
+      <c r="AS38">
+        <v>7</v>
+      </c>
+      <c r="AT38">
+        <v>4</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>2</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>2</v>
+      </c>
+      <c r="BJ38">
+        <v>2</v>
+      </c>
+      <c r="BK38">
+        <v>2</v>
+      </c>
+      <c r="BL38">
+        <v>2</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>2</v>
+      </c>
+      <c r="BR38">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>1</v>
+      </c>
+      <c r="BT38">
+        <v>0</v>
+      </c>
+      <c r="BU38">
+        <v>0</v>
+      </c>
+      <c r="BV38">
+        <v>0</v>
+      </c>
+      <c r="BW38">
+        <v>1</v>
+      </c>
+      <c r="BX38">
+        <v>0</v>
+      </c>
+      <c r="BY38">
+        <v>1</v>
+      </c>
+      <c r="BZ38">
+        <v>0</v>
+      </c>
+      <c r="CA38">
+        <v>0</v>
+      </c>
+      <c r="CB38">
+        <v>0</v>
+      </c>
+      <c r="CC38">
+        <v>0</v>
+      </c>
+      <c r="CD38">
+        <v>0</v>
+      </c>
+      <c r="CE38">
+        <v>0</v>
+      </c>
+      <c r="CF38">
+        <v>0</v>
+      </c>
+      <c r="CG38">
+        <v>0</v>
+      </c>
+      <c r="CH38">
+        <v>1</v>
+      </c>
+      <c r="CI38">
+        <v>0</v>
+      </c>
+      <c r="CJ38">
+        <v>0</v>
+      </c>
+      <c r="CK38">
+        <v>0</v>
+      </c>
+      <c r="CL38">
+        <v>0</v>
+      </c>
+      <c r="CM38">
+        <v>0</v>
+      </c>
+      <c r="CN38">
+        <v>0</v>
+      </c>
+      <c r="CO38">
+        <v>0</v>
+      </c>
+      <c r="CP38">
+        <v>0</v>
+      </c>
+      <c r="CQ38">
+        <v>0</v>
+      </c>
+      <c r="CR38">
+        <v>0</v>
+      </c>
+      <c r="CS38">
+        <v>1</v>
+      </c>
+      <c r="CT38">
+        <v>0</v>
+      </c>
+      <c r="CU38">
+        <v>1</v>
+      </c>
+      <c r="CV38">
         <v>1</v>
       </c>
     </row>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -673,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV38"/>
+  <dimension ref="A1:CV39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12158,6 +12158,308 @@
       </c>
       <c r="CV38">
         <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:100">
+      <c r="A39" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>79</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>7</v>
+      </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>5</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>5</v>
+      </c>
+      <c r="AA39">
+        <v>3</v>
+      </c>
+      <c r="AB39">
+        <v>7</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>3</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>8</v>
+      </c>
+      <c r="AK39">
+        <v>2</v>
+      </c>
+      <c r="AL39">
+        <v>2</v>
+      </c>
+      <c r="AM39">
+        <v>2</v>
+      </c>
+      <c r="AN39">
+        <v>2</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>83</v>
+      </c>
+      <c r="AQ39">
+        <v>2</v>
+      </c>
+      <c r="AR39">
+        <v>2</v>
+      </c>
+      <c r="AS39">
+        <v>7</v>
+      </c>
+      <c r="AT39">
+        <v>4</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>1</v>
+      </c>
+      <c r="AX39">
+        <v>2</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>2</v>
+      </c>
+      <c r="BJ39">
+        <v>2</v>
+      </c>
+      <c r="BK39">
+        <v>2</v>
+      </c>
+      <c r="BL39">
+        <v>2</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>1</v>
+      </c>
+      <c r="BQ39">
+        <v>2</v>
+      </c>
+      <c r="BR39">
+        <v>0</v>
+      </c>
+      <c r="BS39">
+        <v>0</v>
+      </c>
+      <c r="BT39">
+        <v>0</v>
+      </c>
+      <c r="BU39">
+        <v>1</v>
+      </c>
+      <c r="BV39">
+        <v>0</v>
+      </c>
+      <c r="BW39">
+        <v>1</v>
+      </c>
+      <c r="BX39">
+        <v>0</v>
+      </c>
+      <c r="BY39">
+        <v>1</v>
+      </c>
+      <c r="BZ39">
+        <v>0</v>
+      </c>
+      <c r="CA39">
+        <v>0</v>
+      </c>
+      <c r="CB39">
+        <v>0</v>
+      </c>
+      <c r="CC39">
+        <v>1</v>
+      </c>
+      <c r="CD39">
+        <v>0</v>
+      </c>
+      <c r="CE39">
+        <v>0</v>
+      </c>
+      <c r="CF39">
+        <v>0</v>
+      </c>
+      <c r="CG39">
+        <v>0</v>
+      </c>
+      <c r="CH39">
+        <v>0</v>
+      </c>
+      <c r="CI39">
+        <v>0</v>
+      </c>
+      <c r="CJ39">
+        <v>0</v>
+      </c>
+      <c r="CK39">
+        <v>0</v>
+      </c>
+      <c r="CL39">
+        <v>0</v>
+      </c>
+      <c r="CM39">
+        <v>0</v>
+      </c>
+      <c r="CN39">
+        <v>0</v>
+      </c>
+      <c r="CO39">
+        <v>0</v>
+      </c>
+      <c r="CP39">
+        <v>0</v>
+      </c>
+      <c r="CQ39">
+        <v>1</v>
+      </c>
+      <c r="CR39">
+        <v>0</v>
+      </c>
+      <c r="CS39">
+        <v>0</v>
+      </c>
+      <c r="CT39">
+        <v>0</v>
+      </c>
+      <c r="CU39">
+        <v>1</v>
+      </c>
+      <c r="CV39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>Leptokaryá, Central Macedonia, Greece</t>
+  </si>
+  <si>
+    <t>Corinth, Peloponnese (region), Greece</t>
+  </si>
+  <si>
+    <t>Plataniás, Crete, Greece</t>
   </si>
 </sst>
 </file>
@@ -673,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV39"/>
+  <dimension ref="A1:CX40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -684,7 +690,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:102">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,8 +991,14 @@
       <c r="CV1" t="s">
         <v>99</v>
       </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:102">
       <c r="A2" s="1">
         <v>43502</v>
       </c>
@@ -1287,8 +1299,14 @@
       <c r="CV2">
         <v>0</v>
       </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3" spans="1:102">
       <c r="A3" s="1">
         <v>43503</v>
       </c>
@@ -1589,8 +1607,14 @@
       <c r="CV3">
         <v>0</v>
       </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:100">
+    <row r="4" spans="1:102">
       <c r="A4" s="1">
         <v>43504</v>
       </c>
@@ -1891,8 +1915,14 @@
       <c r="CV4">
         <v>0</v>
       </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:100">
+    <row r="5" spans="1:102">
       <c r="A5" s="1">
         <v>43507</v>
       </c>
@@ -2193,8 +2223,14 @@
       <c r="CV5">
         <v>0</v>
       </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:100">
+    <row r="6" spans="1:102">
       <c r="A6" s="1">
         <v>43507</v>
       </c>
@@ -2495,8 +2531,14 @@
       <c r="CV6">
         <v>0</v>
       </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:100">
+    <row r="7" spans="1:102">
       <c r="A7" s="1">
         <v>43508</v>
       </c>
@@ -2797,8 +2839,14 @@
       <c r="CV7">
         <v>0</v>
       </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:100">
+    <row r="8" spans="1:102">
       <c r="A8" s="1">
         <v>43509</v>
       </c>
@@ -3099,8 +3147,14 @@
       <c r="CV8">
         <v>0</v>
       </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:100">
+    <row r="9" spans="1:102">
       <c r="A9" s="1">
         <v>43510</v>
       </c>
@@ -3401,8 +3455,14 @@
       <c r="CV9">
         <v>0</v>
       </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:100">
+    <row r="10" spans="1:102">
       <c r="A10" s="1">
         <v>43512</v>
       </c>
@@ -3703,8 +3763,14 @@
       <c r="CV10">
         <v>0</v>
       </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:100">
+    <row r="11" spans="1:102">
       <c r="A11" s="1">
         <v>43515</v>
       </c>
@@ -4005,8 +4071,14 @@
       <c r="CV11">
         <v>0</v>
       </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:100">
+    <row r="12" spans="1:102">
       <c r="A12" s="1">
         <v>43519</v>
       </c>
@@ -4307,8 +4379,14 @@
       <c r="CV12">
         <v>0</v>
       </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:100">
+    <row r="13" spans="1:102">
       <c r="A13" s="1">
         <v>43520</v>
       </c>
@@ -4609,8 +4687,14 @@
       <c r="CV13">
         <v>0</v>
       </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:100">
+    <row r="14" spans="1:102">
       <c r="A14" s="1">
         <v>43521</v>
       </c>
@@ -4911,8 +4995,14 @@
       <c r="CV14">
         <v>0</v>
       </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:100">
+    <row r="15" spans="1:102">
       <c r="A15" s="1">
         <v>43522</v>
       </c>
@@ -5213,8 +5303,14 @@
       <c r="CV15">
         <v>0</v>
       </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:100">
+    <row r="16" spans="1:102">
       <c r="A16" s="1">
         <v>43523</v>
       </c>
@@ -5515,8 +5611,14 @@
       <c r="CV16">
         <v>0</v>
       </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:100">
+    <row r="17" spans="1:102">
       <c r="A17" s="1">
         <v>43524</v>
       </c>
@@ -5817,8 +5919,14 @@
       <c r="CV17">
         <v>0</v>
       </c>
+      <c r="CW17">
+        <v>0</v>
+      </c>
+      <c r="CX17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:100">
+    <row r="18" spans="1:102">
       <c r="A18" s="1">
         <v>43525</v>
       </c>
@@ -6119,8 +6227,14 @@
       <c r="CV18">
         <v>0</v>
       </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:100">
+    <row r="19" spans="1:102">
       <c r="A19" s="1">
         <v>43526</v>
       </c>
@@ -6421,8 +6535,14 @@
       <c r="CV19">
         <v>0</v>
       </c>
+      <c r="CW19">
+        <v>0</v>
+      </c>
+      <c r="CX19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:100">
+    <row r="20" spans="1:102">
       <c r="A20" s="1">
         <v>43527</v>
       </c>
@@ -6723,8 +6843,14 @@
       <c r="CV20">
         <v>0</v>
       </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:100">
+    <row r="21" spans="1:102">
       <c r="A21" s="1">
         <v>43529</v>
       </c>
@@ -7025,8 +7151,14 @@
       <c r="CV21">
         <v>0</v>
       </c>
+      <c r="CW21">
+        <v>0</v>
+      </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:100">
+    <row r="22" spans="1:102">
       <c r="A22" s="1">
         <v>43530</v>
       </c>
@@ -7327,8 +7459,14 @@
       <c r="CV22">
         <v>0</v>
       </c>
+      <c r="CW22">
+        <v>0</v>
+      </c>
+      <c r="CX22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:100">
+    <row r="23" spans="1:102">
       <c r="A23" s="1">
         <v>43531</v>
       </c>
@@ -7629,8 +7767,14 @@
       <c r="CV23">
         <v>0</v>
       </c>
+      <c r="CW23">
+        <v>0</v>
+      </c>
+      <c r="CX23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:100">
+    <row r="24" spans="1:102">
       <c r="A24" s="1">
         <v>43532</v>
       </c>
@@ -7931,8 +8075,14 @@
       <c r="CV24">
         <v>0</v>
       </c>
+      <c r="CW24">
+        <v>0</v>
+      </c>
+      <c r="CX24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:100">
+    <row r="25" spans="1:102">
       <c r="A25" s="1">
         <v>43533</v>
       </c>
@@ -8233,8 +8383,14 @@
       <c r="CV25">
         <v>0</v>
       </c>
+      <c r="CW25">
+        <v>0</v>
+      </c>
+      <c r="CX25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:100">
+    <row r="26" spans="1:102">
       <c r="A26" s="1">
         <v>43534</v>
       </c>
@@ -8535,8 +8691,14 @@
       <c r="CV26">
         <v>0</v>
       </c>
+      <c r="CW26">
+        <v>0</v>
+      </c>
+      <c r="CX26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:100">
+    <row r="27" spans="1:102">
       <c r="A27" s="1">
         <v>43535</v>
       </c>
@@ -8837,8 +8999,14 @@
       <c r="CV27">
         <v>0</v>
       </c>
+      <c r="CW27">
+        <v>0</v>
+      </c>
+      <c r="CX27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:100">
+    <row r="28" spans="1:102">
       <c r="A28" s="1">
         <v>43536</v>
       </c>
@@ -9139,8 +9307,14 @@
       <c r="CV28">
         <v>0</v>
       </c>
+      <c r="CW28">
+        <v>0</v>
+      </c>
+      <c r="CX28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:100">
+    <row r="29" spans="1:102">
       <c r="A29" s="1">
         <v>43537</v>
       </c>
@@ -9441,8 +9615,14 @@
       <c r="CV29">
         <v>0</v>
       </c>
+      <c r="CW29">
+        <v>0</v>
+      </c>
+      <c r="CX29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:100">
+    <row r="30" spans="1:102">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -9743,8 +9923,14 @@
       <c r="CV30">
         <v>0</v>
       </c>
+      <c r="CW30">
+        <v>0</v>
+      </c>
+      <c r="CX30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:100">
+    <row r="31" spans="1:102">
       <c r="A31" s="1">
         <v>43539</v>
       </c>
@@ -10045,8 +10231,14 @@
       <c r="CV31">
         <v>0</v>
       </c>
+      <c r="CW31">
+        <v>0</v>
+      </c>
+      <c r="CX31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:100">
+    <row r="32" spans="1:102">
       <c r="A32" s="1">
         <v>43540</v>
       </c>
@@ -10347,8 +10539,14 @@
       <c r="CV32">
         <v>0</v>
       </c>
+      <c r="CW32">
+        <v>0</v>
+      </c>
+      <c r="CX32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:100">
+    <row r="33" spans="1:102">
       <c r="A33" s="1">
         <v>43541</v>
       </c>
@@ -10649,8 +10847,14 @@
       <c r="CV33">
         <v>0</v>
       </c>
+      <c r="CW33">
+        <v>0</v>
+      </c>
+      <c r="CX33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:100">
+    <row r="34" spans="1:102">
       <c r="A34" s="1">
         <v>43542</v>
       </c>
@@ -10951,8 +11155,14 @@
       <c r="CV34">
         <v>0</v>
       </c>
+      <c r="CW34">
+        <v>0</v>
+      </c>
+      <c r="CX34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:100">
+    <row r="35" spans="1:102">
       <c r="A35" s="1">
         <v>43543</v>
       </c>
@@ -11253,8 +11463,14 @@
       <c r="CV35">
         <v>0</v>
       </c>
+      <c r="CW35">
+        <v>0</v>
+      </c>
+      <c r="CX35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:100">
+    <row r="36" spans="1:102">
       <c r="A36" s="1">
         <v>43544</v>
       </c>
@@ -11555,8 +11771,14 @@
       <c r="CV36">
         <v>0</v>
       </c>
+      <c r="CW36">
+        <v>0</v>
+      </c>
+      <c r="CX36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:100">
+    <row r="37" spans="1:102">
       <c r="A37" s="1">
         <v>43548</v>
       </c>
@@ -11857,8 +12079,14 @@
       <c r="CV37">
         <v>0</v>
       </c>
+      <c r="CW37">
+        <v>0</v>
+      </c>
+      <c r="CX37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:100">
+    <row r="38" spans="1:102">
       <c r="A38" s="1">
         <v>43549</v>
       </c>
@@ -12159,8 +12387,14 @@
       <c r="CV38">
         <v>1</v>
       </c>
+      <c r="CW38">
+        <v>0</v>
+      </c>
+      <c r="CX38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:100">
+    <row r="39" spans="1:102">
       <c r="A39" s="1">
         <v>43550</v>
       </c>
@@ -12460,6 +12694,320 @@
       </c>
       <c r="CV39">
         <v>0</v>
+      </c>
+      <c r="CW39">
+        <v>0</v>
+      </c>
+      <c r="CX39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:102">
+      <c r="A40" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>78</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>7</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>5</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>5</v>
+      </c>
+      <c r="AA40">
+        <v>3</v>
+      </c>
+      <c r="AB40">
+        <v>7</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>3</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>8</v>
+      </c>
+      <c r="AK40">
+        <v>2</v>
+      </c>
+      <c r="AL40">
+        <v>2</v>
+      </c>
+      <c r="AM40">
+        <v>2</v>
+      </c>
+      <c r="AN40">
+        <v>2</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>83</v>
+      </c>
+      <c r="AQ40">
+        <v>2</v>
+      </c>
+      <c r="AR40">
+        <v>3</v>
+      </c>
+      <c r="AS40">
+        <v>7</v>
+      </c>
+      <c r="AT40">
+        <v>4</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>2</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>1</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>2</v>
+      </c>
+      <c r="BJ40">
+        <v>2</v>
+      </c>
+      <c r="BK40">
+        <v>2</v>
+      </c>
+      <c r="BL40">
+        <v>2</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>2</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>1</v>
+      </c>
+      <c r="BQ40">
+        <v>2</v>
+      </c>
+      <c r="BR40">
+        <v>0</v>
+      </c>
+      <c r="BS40">
+        <v>0</v>
+      </c>
+      <c r="BT40">
+        <v>0</v>
+      </c>
+      <c r="BU40">
+        <v>0</v>
+      </c>
+      <c r="BV40">
+        <v>0</v>
+      </c>
+      <c r="BW40">
+        <v>0</v>
+      </c>
+      <c r="BX40">
+        <v>1</v>
+      </c>
+      <c r="BY40">
+        <v>0</v>
+      </c>
+      <c r="BZ40">
+        <v>0</v>
+      </c>
+      <c r="CA40">
+        <v>0</v>
+      </c>
+      <c r="CB40">
+        <v>0</v>
+      </c>
+      <c r="CC40">
+        <v>0</v>
+      </c>
+      <c r="CD40">
+        <v>0</v>
+      </c>
+      <c r="CE40">
+        <v>0</v>
+      </c>
+      <c r="CF40">
+        <v>2</v>
+      </c>
+      <c r="CG40">
+        <v>0</v>
+      </c>
+      <c r="CH40">
+        <v>0</v>
+      </c>
+      <c r="CI40">
+        <v>0</v>
+      </c>
+      <c r="CJ40">
+        <v>0</v>
+      </c>
+      <c r="CK40">
+        <v>0</v>
+      </c>
+      <c r="CL40">
+        <v>0</v>
+      </c>
+      <c r="CM40">
+        <v>0</v>
+      </c>
+      <c r="CN40">
+        <v>0</v>
+      </c>
+      <c r="CO40">
+        <v>0</v>
+      </c>
+      <c r="CP40">
+        <v>1</v>
+      </c>
+      <c r="CQ40">
+        <v>1</v>
+      </c>
+      <c r="CR40">
+        <v>0</v>
+      </c>
+      <c r="CS40">
+        <v>0</v>
+      </c>
+      <c r="CT40">
+        <v>0</v>
+      </c>
+      <c r="CU40">
+        <v>0</v>
+      </c>
+      <c r="CV40">
+        <v>1</v>
+      </c>
+      <c r="CW40">
+        <v>1</v>
+      </c>
+      <c r="CX40">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="18720"/>
   </bookViews>
@@ -403,11 +398,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -698,18 +688,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DA45"/>
+  <dimension ref="A1:DA46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:105">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1016,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:105">
       <c r="A2" s="1">
         <v>43502</v>
       </c>
@@ -1343,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:105">
       <c r="A3" s="1">
         <v>43503</v>
       </c>
@@ -1660,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:105">
       <c r="A4" s="1">
         <v>43504</v>
       </c>
@@ -1977,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:105">
       <c r="A5" s="1">
         <v>43507</v>
       </c>
@@ -2294,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:105">
       <c r="A6" s="1">
         <v>43507</v>
       </c>
@@ -2611,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:105">
       <c r="A7" s="1">
         <v>43508</v>
       </c>
@@ -2928,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:105">
       <c r="A8" s="1">
         <v>43509</v>
       </c>
@@ -3245,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:105">
       <c r="A9" s="1">
         <v>43510</v>
       </c>
@@ -3562,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:105">
       <c r="A10" s="1">
         <v>43512</v>
       </c>
@@ -3879,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:105">
       <c r="A11" s="1">
         <v>43515</v>
       </c>
@@ -4196,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:105">
       <c r="A12" s="1">
         <v>43519</v>
       </c>
@@ -4513,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:105">
       <c r="A13" s="1">
         <v>43520</v>
       </c>
@@ -4830,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:105">
       <c r="A14" s="1">
         <v>43521</v>
       </c>
@@ -5147,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:105">
       <c r="A15" s="1">
         <v>43522</v>
       </c>
@@ -5464,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:105">
       <c r="A16" s="1">
         <v>43523</v>
       </c>
@@ -5781,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:105">
       <c r="A17" s="1">
         <v>43524</v>
       </c>
@@ -6098,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:105">
       <c r="A18" s="1">
         <v>43525</v>
       </c>
@@ -6415,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:105">
       <c r="A19" s="1">
         <v>43526</v>
       </c>
@@ -6732,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:105">
       <c r="A20" s="1">
         <v>43527</v>
       </c>
@@ -7049,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:105">
       <c r="A21" s="1">
         <v>43529</v>
       </c>
@@ -7366,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:105">
       <c r="A22" s="1">
         <v>43530</v>
       </c>
@@ -7683,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:105">
       <c r="A23" s="1">
         <v>43531</v>
       </c>
@@ -8000,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:105">
       <c r="A24" s="1">
         <v>43532</v>
       </c>
@@ -8317,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:105">
       <c r="A25" s="1">
         <v>43533</v>
       </c>
@@ -8634,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:105">
       <c r="A26" s="1">
         <v>43534</v>
       </c>
@@ -8951,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:105">
       <c r="A27" s="1">
         <v>43535</v>
       </c>
@@ -9268,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:105">
       <c r="A28" s="1">
         <v>43536</v>
       </c>
@@ -9585,7 +9575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:105">
       <c r="A29" s="1">
         <v>43537</v>
       </c>
@@ -9902,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:105">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -10219,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:105">
       <c r="A31" s="1">
         <v>43539</v>
       </c>
@@ -10536,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:105">
       <c r="A32" s="1">
         <v>43540</v>
       </c>
@@ -10853,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:105">
       <c r="A33" s="1">
         <v>43541</v>
       </c>
@@ -11170,7 +11160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:105">
       <c r="A34" s="1">
         <v>43542</v>
       </c>
@@ -11487,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:105">
       <c r="A35" s="1">
         <v>43543</v>
       </c>
@@ -11804,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:105">
       <c r="A36" s="1">
         <v>43544</v>
       </c>
@@ -12121,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:105">
       <c r="A37" s="1">
         <v>43548</v>
       </c>
@@ -12438,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:105">
       <c r="A38" s="1">
         <v>43549</v>
       </c>
@@ -12755,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:105">
       <c r="A39" s="1">
         <v>43550</v>
       </c>
@@ -13072,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:105">
       <c r="A40" s="1">
         <v>43554</v>
       </c>
@@ -13389,7 +13379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:105">
       <c r="A41" s="1">
         <v>43556</v>
       </c>
@@ -13706,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:105">
       <c r="A42" s="1">
         <v>43557</v>
       </c>
@@ -14023,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:105">
       <c r="A43" s="1">
         <v>43558</v>
       </c>
@@ -14340,7 +14330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:105">
       <c r="A44" s="1">
         <v>43559</v>
       </c>
@@ -14657,7 +14647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:105">
       <c r="A45" s="1">
         <v>43560</v>
       </c>
@@ -14971,11 +14961,333 @@
         <v>3</v>
       </c>
       <c r="DA45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:105">
+      <c r="A46" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>106</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>8</v>
+      </c>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>9</v>
+      </c>
+      <c r="S46">
+        <v>4</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="V46">
+        <v>5</v>
+      </c>
+      <c r="W46">
+        <v>2</v>
+      </c>
+      <c r="X46">
+        <v>4</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>9</v>
+      </c>
+      <c r="AA46">
+        <v>9</v>
+      </c>
+      <c r="AB46">
+        <v>15</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>4</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>10</v>
+      </c>
+      <c r="AK46">
+        <v>3</v>
+      </c>
+      <c r="AL46">
+        <v>5</v>
+      </c>
+      <c r="AM46">
+        <v>2</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>95</v>
+      </c>
+      <c r="AQ46">
+        <v>2</v>
+      </c>
+      <c r="AR46">
+        <v>4</v>
+      </c>
+      <c r="AS46">
+        <v>8</v>
+      </c>
+      <c r="AT46">
+        <v>5</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>5</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>2</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>2</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>4</v>
+      </c>
+      <c r="BJ46">
+        <v>2</v>
+      </c>
+      <c r="BK46">
+        <v>4</v>
+      </c>
+      <c r="BL46">
+        <v>3</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>2</v>
+      </c>
+      <c r="BR46">
+        <v>0</v>
+      </c>
+      <c r="BS46">
+        <v>0</v>
+      </c>
+      <c r="BT46">
+        <v>0</v>
+      </c>
+      <c r="BU46">
+        <v>0</v>
+      </c>
+      <c r="BV46">
+        <v>0</v>
+      </c>
+      <c r="BW46">
+        <v>0</v>
+      </c>
+      <c r="BX46">
+        <v>2</v>
+      </c>
+      <c r="BY46">
+        <v>2</v>
+      </c>
+      <c r="BZ46">
+        <v>0</v>
+      </c>
+      <c r="CA46">
+        <v>0</v>
+      </c>
+      <c r="CB46">
+        <v>0</v>
+      </c>
+      <c r="CC46">
+        <v>0</v>
+      </c>
+      <c r="CD46">
+        <v>0</v>
+      </c>
+      <c r="CE46">
+        <v>0</v>
+      </c>
+      <c r="CF46">
+        <v>2</v>
+      </c>
+      <c r="CG46">
+        <v>0</v>
+      </c>
+      <c r="CH46">
+        <v>0</v>
+      </c>
+      <c r="CI46">
+        <v>0</v>
+      </c>
+      <c r="CJ46">
+        <v>0</v>
+      </c>
+      <c r="CK46">
+        <v>0</v>
+      </c>
+      <c r="CL46">
+        <v>0</v>
+      </c>
+      <c r="CM46">
+        <v>0</v>
+      </c>
+      <c r="CN46">
+        <v>0</v>
+      </c>
+      <c r="CO46">
+        <v>0</v>
+      </c>
+      <c r="CP46">
+        <v>0</v>
+      </c>
+      <c r="CQ46">
+        <v>0</v>
+      </c>
+      <c r="CR46">
+        <v>0</v>
+      </c>
+      <c r="CS46">
+        <v>0</v>
+      </c>
+      <c r="CT46">
+        <v>0</v>
+      </c>
+      <c r="CU46">
+        <v>2</v>
+      </c>
+      <c r="CV46">
+        <v>0</v>
+      </c>
+      <c r="CW46">
+        <v>6</v>
+      </c>
+      <c r="CX46">
+        <v>0</v>
+      </c>
+      <c r="CY46">
+        <v>2</v>
+      </c>
+      <c r="CZ46">
+        <v>3</v>
+      </c>
+      <c r="DA46">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="18720"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -335,6 +340,12 @@
   <si>
     <t>Chrysoúpoli, Greece</t>
   </si>
+  <si>
+    <t>Zográfou, Greece</t>
+  </si>
+  <si>
+    <t>08/04/2019</t>
+  </si>
 </sst>
 </file>
 
@@ -398,6 +409,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -688,18 +704,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DA46"/>
+  <dimension ref="A1:DB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1015,8 +1031,11 @@
       <c r="DA1" t="s">
         <v>104</v>
       </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="2" spans="1:105">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43502</v>
       </c>
@@ -1332,8 +1351,11 @@
       <c r="DA2">
         <v>0</v>
       </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:105">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43503</v>
       </c>
@@ -1649,8 +1671,11 @@
       <c r="DA3">
         <v>0</v>
       </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:105">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43504</v>
       </c>
@@ -1966,8 +1991,11 @@
       <c r="DA4">
         <v>0</v>
       </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:105">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43507</v>
       </c>
@@ -2283,8 +2311,11 @@
       <c r="DA5">
         <v>0</v>
       </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:105">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43507</v>
       </c>
@@ -2600,8 +2631,11 @@
       <c r="DA6">
         <v>0</v>
       </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:105">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43508</v>
       </c>
@@ -2917,8 +2951,11 @@
       <c r="DA7">
         <v>0</v>
       </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:105">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43509</v>
       </c>
@@ -3234,8 +3271,11 @@
       <c r="DA8">
         <v>0</v>
       </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:105">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43510</v>
       </c>
@@ -3551,8 +3591,11 @@
       <c r="DA9">
         <v>0</v>
       </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:105">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43512</v>
       </c>
@@ -3868,8 +3911,11 @@
       <c r="DA10">
         <v>0</v>
       </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:105">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43515</v>
       </c>
@@ -4185,8 +4231,11 @@
       <c r="DA11">
         <v>0</v>
       </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:105">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43519</v>
       </c>
@@ -4502,8 +4551,11 @@
       <c r="DA12">
         <v>0</v>
       </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:105">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43520</v>
       </c>
@@ -4819,8 +4871,11 @@
       <c r="DA13">
         <v>0</v>
       </c>
+      <c r="DB13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:105">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43521</v>
       </c>
@@ -5136,8 +5191,11 @@
       <c r="DA14">
         <v>0</v>
       </c>
+      <c r="DB14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:105">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43522</v>
       </c>
@@ -5453,8 +5511,11 @@
       <c r="DA15">
         <v>0</v>
       </c>
+      <c r="DB15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:105">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43523</v>
       </c>
@@ -5770,8 +5831,11 @@
       <c r="DA16">
         <v>0</v>
       </c>
+      <c r="DB16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:105">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43524</v>
       </c>
@@ -6087,8 +6151,11 @@
       <c r="DA17">
         <v>0</v>
       </c>
+      <c r="DB17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:105">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43525</v>
       </c>
@@ -6404,8 +6471,11 @@
       <c r="DA18">
         <v>0</v>
       </c>
+      <c r="DB18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:105">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43526</v>
       </c>
@@ -6721,8 +6791,11 @@
       <c r="DA19">
         <v>0</v>
       </c>
+      <c r="DB19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:105">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43527</v>
       </c>
@@ -7038,8 +7111,11 @@
       <c r="DA20">
         <v>0</v>
       </c>
+      <c r="DB20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:105">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43529</v>
       </c>
@@ -7355,8 +7431,11 @@
       <c r="DA21">
         <v>0</v>
       </c>
+      <c r="DB21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:105">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43530</v>
       </c>
@@ -7672,8 +7751,11 @@
       <c r="DA22">
         <v>0</v>
       </c>
+      <c r="DB22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:105">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43531</v>
       </c>
@@ -7989,8 +8071,11 @@
       <c r="DA23">
         <v>0</v>
       </c>
+      <c r="DB23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:105">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43532</v>
       </c>
@@ -8306,8 +8391,11 @@
       <c r="DA24">
         <v>0</v>
       </c>
+      <c r="DB24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:105">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43533</v>
       </c>
@@ -8623,8 +8711,11 @@
       <c r="DA25">
         <v>0</v>
       </c>
+      <c r="DB25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:105">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43534</v>
       </c>
@@ -8940,8 +9031,11 @@
       <c r="DA26">
         <v>0</v>
       </c>
+      <c r="DB26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:105">
+    <row r="27" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43535</v>
       </c>
@@ -9257,8 +9351,11 @@
       <c r="DA27">
         <v>0</v>
       </c>
+      <c r="DB27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:105">
+    <row r="28" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43536</v>
       </c>
@@ -9574,8 +9671,11 @@
       <c r="DA28">
         <v>0</v>
       </c>
+      <c r="DB28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:105">
+    <row r="29" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43537</v>
       </c>
@@ -9891,8 +9991,11 @@
       <c r="DA29">
         <v>0</v>
       </c>
+      <c r="DB29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:105">
+    <row r="30" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43538</v>
       </c>
@@ -10208,8 +10311,11 @@
       <c r="DA30">
         <v>0</v>
       </c>
+      <c r="DB30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:105">
+    <row r="31" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43539</v>
       </c>
@@ -10525,8 +10631,11 @@
       <c r="DA31">
         <v>0</v>
       </c>
+      <c r="DB31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:105">
+    <row r="32" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43540</v>
       </c>
@@ -10842,8 +10951,11 @@
       <c r="DA32">
         <v>0</v>
       </c>
+      <c r="DB32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:105">
+    <row r="33" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43541</v>
       </c>
@@ -11159,8 +11271,11 @@
       <c r="DA33">
         <v>0</v>
       </c>
+      <c r="DB33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:105">
+    <row r="34" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43542</v>
       </c>
@@ -11476,8 +11591,11 @@
       <c r="DA34">
         <v>0</v>
       </c>
+      <c r="DB34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:105">
+    <row r="35" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43543</v>
       </c>
@@ -11793,8 +11911,11 @@
       <c r="DA35">
         <v>0</v>
       </c>
+      <c r="DB35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:105">
+    <row r="36" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43544</v>
       </c>
@@ -12110,8 +12231,11 @@
       <c r="DA36">
         <v>0</v>
       </c>
+      <c r="DB36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:105">
+    <row r="37" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43548</v>
       </c>
@@ -12427,8 +12551,11 @@
       <c r="DA37">
         <v>0</v>
       </c>
+      <c r="DB37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:105">
+    <row r="38" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43549</v>
       </c>
@@ -12744,8 +12871,11 @@
       <c r="DA38">
         <v>0</v>
       </c>
+      <c r="DB38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:105">
+    <row r="39" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43550</v>
       </c>
@@ -13061,8 +13191,11 @@
       <c r="DA39">
         <v>0</v>
       </c>
+      <c r="DB39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:105">
+    <row r="40" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43554</v>
       </c>
@@ -13378,8 +13511,11 @@
       <c r="DA40">
         <v>0</v>
       </c>
+      <c r="DB40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:105">
+    <row r="41" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43556</v>
       </c>
@@ -13695,8 +13831,11 @@
       <c r="DA41">
         <v>0</v>
       </c>
+      <c r="DB41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:105">
+    <row r="42" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43557</v>
       </c>
@@ -14012,8 +14151,11 @@
       <c r="DA42">
         <v>0</v>
       </c>
+      <c r="DB42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:105">
+    <row r="43" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43558</v>
       </c>
@@ -14329,8 +14471,11 @@
       <c r="DA43">
         <v>2</v>
       </c>
+      <c r="DB43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:105">
+    <row r="44" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43559</v>
       </c>
@@ -14646,8 +14791,11 @@
       <c r="DA44">
         <v>2</v>
       </c>
+      <c r="DB44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:105">
+    <row r="45" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43560</v>
       </c>
@@ -14963,8 +15111,11 @@
       <c r="DA45">
         <v>2</v>
       </c>
+      <c r="DB45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:105">
+    <row r="46" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43561</v>
       </c>
@@ -15279,15 +15430,653 @@
       </c>
       <c r="DA46">
         <v>2</v>
+      </c>
+      <c r="DB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>107</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>8</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="R47">
+        <v>10</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>5</v>
+      </c>
+      <c r="W47">
+        <v>2</v>
+      </c>
+      <c r="X47">
+        <v>4</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>9</v>
+      </c>
+      <c r="AA47">
+        <v>9</v>
+      </c>
+      <c r="AB47">
+        <v>15</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>4</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>9</v>
+      </c>
+      <c r="AK47">
+        <v>4</v>
+      </c>
+      <c r="AL47">
+        <v>5</v>
+      </c>
+      <c r="AM47">
+        <v>2</v>
+      </c>
+      <c r="AN47">
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>94</v>
+      </c>
+      <c r="AQ47">
+        <v>2</v>
+      </c>
+      <c r="AR47">
+        <v>4</v>
+      </c>
+      <c r="AS47">
+        <v>7</v>
+      </c>
+      <c r="AT47">
+        <v>5</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>5</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>2</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>3</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>5</v>
+      </c>
+      <c r="BJ47">
+        <v>2</v>
+      </c>
+      <c r="BK47">
+        <v>4</v>
+      </c>
+      <c r="BL47">
+        <v>3</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
+      <c r="BQ47">
+        <v>2</v>
+      </c>
+      <c r="BR47">
+        <v>0</v>
+      </c>
+      <c r="BS47">
+        <v>0</v>
+      </c>
+      <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
+        <v>0</v>
+      </c>
+      <c r="BV47">
+        <v>0</v>
+      </c>
+      <c r="BW47">
+        <v>0</v>
+      </c>
+      <c r="BX47">
+        <v>2</v>
+      </c>
+      <c r="BY47">
+        <v>2</v>
+      </c>
+      <c r="BZ47">
+        <v>0</v>
+      </c>
+      <c r="CA47">
+        <v>0</v>
+      </c>
+      <c r="CB47">
+        <v>0</v>
+      </c>
+      <c r="CC47">
+        <v>0</v>
+      </c>
+      <c r="CD47">
+        <v>0</v>
+      </c>
+      <c r="CE47">
+        <v>0</v>
+      </c>
+      <c r="CF47">
+        <v>2</v>
+      </c>
+      <c r="CG47">
+        <v>0</v>
+      </c>
+      <c r="CH47">
+        <v>0</v>
+      </c>
+      <c r="CI47">
+        <v>0</v>
+      </c>
+      <c r="CJ47">
+        <v>0</v>
+      </c>
+      <c r="CK47">
+        <v>0</v>
+      </c>
+      <c r="CL47">
+        <v>0</v>
+      </c>
+      <c r="CM47">
+        <v>0</v>
+      </c>
+      <c r="CN47">
+        <v>0</v>
+      </c>
+      <c r="CO47">
+        <v>0</v>
+      </c>
+      <c r="CP47">
+        <v>0</v>
+      </c>
+      <c r="CQ47">
+        <v>0</v>
+      </c>
+      <c r="CR47">
+        <v>0</v>
+      </c>
+      <c r="CS47">
+        <v>0</v>
+      </c>
+      <c r="CT47">
+        <v>0</v>
+      </c>
+      <c r="CU47">
+        <v>2</v>
+      </c>
+      <c r="CV47">
+        <v>0</v>
+      </c>
+      <c r="CW47">
+        <v>6</v>
+      </c>
+      <c r="CX47">
+        <v>0</v>
+      </c>
+      <c r="CY47">
+        <v>0</v>
+      </c>
+      <c r="CZ47">
+        <v>3</v>
+      </c>
+      <c r="DA47">
+        <v>0</v>
+      </c>
+      <c r="DB47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>107</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>8</v>
+      </c>
+      <c r="P48">
+        <v>4</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>4</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>5</v>
+      </c>
+      <c r="W48">
+        <v>2</v>
+      </c>
+      <c r="X48">
+        <v>4</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>9</v>
+      </c>
+      <c r="AA48">
+        <v>9</v>
+      </c>
+      <c r="AB48">
+        <v>15</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>4</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>9</v>
+      </c>
+      <c r="AK48">
+        <v>4</v>
+      </c>
+      <c r="AL48">
+        <v>5</v>
+      </c>
+      <c r="AM48">
+        <v>2</v>
+      </c>
+      <c r="AN48">
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>94</v>
+      </c>
+      <c r="AQ48">
+        <v>2</v>
+      </c>
+      <c r="AR48">
+        <v>4</v>
+      </c>
+      <c r="AS48">
+        <v>7</v>
+      </c>
+      <c r="AT48">
+        <v>5</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>2</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>3</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>5</v>
+      </c>
+      <c r="BJ48">
+        <v>2</v>
+      </c>
+      <c r="BK48">
+        <v>4</v>
+      </c>
+      <c r="BL48">
+        <v>3</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+      <c r="BQ48">
+        <v>2</v>
+      </c>
+      <c r="BR48">
+        <v>0</v>
+      </c>
+      <c r="BS48">
+        <v>0</v>
+      </c>
+      <c r="BT48">
+        <v>0</v>
+      </c>
+      <c r="BU48">
+        <v>0</v>
+      </c>
+      <c r="BV48">
+        <v>0</v>
+      </c>
+      <c r="BW48">
+        <v>0</v>
+      </c>
+      <c r="BX48">
+        <v>2</v>
+      </c>
+      <c r="BY48">
+        <v>2</v>
+      </c>
+      <c r="BZ48">
+        <v>0</v>
+      </c>
+      <c r="CA48">
+        <v>0</v>
+      </c>
+      <c r="CB48">
+        <v>0</v>
+      </c>
+      <c r="CC48">
+        <v>0</v>
+      </c>
+      <c r="CD48">
+        <v>0</v>
+      </c>
+      <c r="CE48">
+        <v>0</v>
+      </c>
+      <c r="CF48">
+        <v>2</v>
+      </c>
+      <c r="CG48">
+        <v>0</v>
+      </c>
+      <c r="CH48">
+        <v>0</v>
+      </c>
+      <c r="CI48">
+        <v>0</v>
+      </c>
+      <c r="CJ48">
+        <v>0</v>
+      </c>
+      <c r="CK48">
+        <v>0</v>
+      </c>
+      <c r="CL48">
+        <v>0</v>
+      </c>
+      <c r="CM48">
+        <v>0</v>
+      </c>
+      <c r="CN48">
+        <v>0</v>
+      </c>
+      <c r="CO48">
+        <v>0</v>
+      </c>
+      <c r="CP48">
+        <v>0</v>
+      </c>
+      <c r="CQ48">
+        <v>0</v>
+      </c>
+      <c r="CR48">
+        <v>0</v>
+      </c>
+      <c r="CS48">
+        <v>0</v>
+      </c>
+      <c r="CT48">
+        <v>0</v>
+      </c>
+      <c r="CU48">
+        <v>2</v>
+      </c>
+      <c r="CV48">
+        <v>0</v>
+      </c>
+      <c r="CW48">
+        <v>6</v>
+      </c>
+      <c r="CX48">
+        <v>0</v>
+      </c>
+      <c r="CY48">
+        <v>0</v>
+      </c>
+      <c r="CZ48">
+        <v>3</v>
+      </c>
+      <c r="DA48">
+        <v>0</v>
+      </c>
+      <c r="DB48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>Zográfou, Greece</t>
-  </si>
-  <si>
-    <t>08/04/2019</t>
   </si>
 </sst>
 </file>
@@ -704,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB48"/>
+  <dimension ref="A1:DB49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15756,8 +15753,8 @@
       </c>
     </row>
     <row r="48" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>106</v>
+      <c r="A48" s="1">
+        <v>43563</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -16073,6 +16070,326 @@
       </c>
       <c r="DB48">
         <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>109</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>8</v>
+      </c>
+      <c r="P49">
+        <v>4</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>10</v>
+      </c>
+      <c r="S49">
+        <v>4</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>5</v>
+      </c>
+      <c r="W49">
+        <v>2</v>
+      </c>
+      <c r="X49">
+        <v>4</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>9</v>
+      </c>
+      <c r="AA49">
+        <v>9</v>
+      </c>
+      <c r="AB49">
+        <v>15</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>4</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>8</v>
+      </c>
+      <c r="AK49">
+        <v>4</v>
+      </c>
+      <c r="AL49">
+        <v>5</v>
+      </c>
+      <c r="AM49">
+        <v>2</v>
+      </c>
+      <c r="AN49">
+        <v>3</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>94</v>
+      </c>
+      <c r="AQ49">
+        <v>2</v>
+      </c>
+      <c r="AR49">
+        <v>4</v>
+      </c>
+      <c r="AS49">
+        <v>7</v>
+      </c>
+      <c r="AT49">
+        <v>5</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>2</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>3</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>5</v>
+      </c>
+      <c r="BJ49">
+        <v>2</v>
+      </c>
+      <c r="BK49">
+        <v>4</v>
+      </c>
+      <c r="BL49">
+        <v>3</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
+      </c>
+      <c r="BQ49">
+        <v>2</v>
+      </c>
+      <c r="BR49">
+        <v>0</v>
+      </c>
+      <c r="BS49">
+        <v>0</v>
+      </c>
+      <c r="BT49">
+        <v>0</v>
+      </c>
+      <c r="BU49">
+        <v>0</v>
+      </c>
+      <c r="BV49">
+        <v>0</v>
+      </c>
+      <c r="BW49">
+        <v>0</v>
+      </c>
+      <c r="BX49">
+        <v>2</v>
+      </c>
+      <c r="BY49">
+        <v>2</v>
+      </c>
+      <c r="BZ49">
+        <v>0</v>
+      </c>
+      <c r="CA49">
+        <v>0</v>
+      </c>
+      <c r="CB49">
+        <v>0</v>
+      </c>
+      <c r="CC49">
+        <v>0</v>
+      </c>
+      <c r="CD49">
+        <v>0</v>
+      </c>
+      <c r="CE49">
+        <v>0</v>
+      </c>
+      <c r="CF49">
+        <v>2</v>
+      </c>
+      <c r="CG49">
+        <v>0</v>
+      </c>
+      <c r="CH49">
+        <v>0</v>
+      </c>
+      <c r="CI49">
+        <v>0</v>
+      </c>
+      <c r="CJ49">
+        <v>1</v>
+      </c>
+      <c r="CK49">
+        <v>0</v>
+      </c>
+      <c r="CL49">
+        <v>0</v>
+      </c>
+      <c r="CM49">
+        <v>0</v>
+      </c>
+      <c r="CN49">
+        <v>0</v>
+      </c>
+      <c r="CO49">
+        <v>0</v>
+      </c>
+      <c r="CP49">
+        <v>0</v>
+      </c>
+      <c r="CQ49">
+        <v>0</v>
+      </c>
+      <c r="CR49">
+        <v>0</v>
+      </c>
+      <c r="CS49">
+        <v>0</v>
+      </c>
+      <c r="CT49">
+        <v>0</v>
+      </c>
+      <c r="CU49">
+        <v>2</v>
+      </c>
+      <c r="CV49">
+        <v>0</v>
+      </c>
+      <c r="CW49">
+        <v>6</v>
+      </c>
+      <c r="CX49">
+        <v>0</v>
+      </c>
+      <c r="CY49">
+        <v>0</v>
+      </c>
+      <c r="CZ49">
+        <v>3</v>
+      </c>
+      <c r="DA49">
+        <v>0</v>
+      </c>
+      <c r="DB49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -701,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB49"/>
+  <dimension ref="A1:DB50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16392,6 +16392,326 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>110</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>8</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>10</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <v>5</v>
+      </c>
+      <c r="W50">
+        <v>2</v>
+      </c>
+      <c r="X50">
+        <v>4</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>9</v>
+      </c>
+      <c r="AA50">
+        <v>9</v>
+      </c>
+      <c r="AB50">
+        <v>15</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>4</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>8</v>
+      </c>
+      <c r="AK50">
+        <v>4</v>
+      </c>
+      <c r="AL50">
+        <v>5</v>
+      </c>
+      <c r="AM50">
+        <v>2</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>94</v>
+      </c>
+      <c r="AQ50">
+        <v>2</v>
+      </c>
+      <c r="AR50">
+        <v>4</v>
+      </c>
+      <c r="AS50">
+        <v>7</v>
+      </c>
+      <c r="AT50">
+        <v>5</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>2</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>3</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>5</v>
+      </c>
+      <c r="BJ50">
+        <v>2</v>
+      </c>
+      <c r="BK50">
+        <v>4</v>
+      </c>
+      <c r="BL50">
+        <v>3</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
+      </c>
+      <c r="BQ50">
+        <v>2</v>
+      </c>
+      <c r="BR50">
+        <v>0</v>
+      </c>
+      <c r="BS50">
+        <v>0</v>
+      </c>
+      <c r="BT50">
+        <v>0</v>
+      </c>
+      <c r="BU50">
+        <v>0</v>
+      </c>
+      <c r="BV50">
+        <v>0</v>
+      </c>
+      <c r="BW50">
+        <v>0</v>
+      </c>
+      <c r="BX50">
+        <v>2</v>
+      </c>
+      <c r="BY50">
+        <v>2</v>
+      </c>
+      <c r="BZ50">
+        <v>0</v>
+      </c>
+      <c r="CA50">
+        <v>0</v>
+      </c>
+      <c r="CB50">
+        <v>0</v>
+      </c>
+      <c r="CC50">
+        <v>1</v>
+      </c>
+      <c r="CD50">
+        <v>0</v>
+      </c>
+      <c r="CE50">
+        <v>0</v>
+      </c>
+      <c r="CF50">
+        <v>2</v>
+      </c>
+      <c r="CG50">
+        <v>0</v>
+      </c>
+      <c r="CH50">
+        <v>0</v>
+      </c>
+      <c r="CI50">
+        <v>0</v>
+      </c>
+      <c r="CJ50">
+        <v>0</v>
+      </c>
+      <c r="CK50">
+        <v>0</v>
+      </c>
+      <c r="CL50">
+        <v>0</v>
+      </c>
+      <c r="CM50">
+        <v>0</v>
+      </c>
+      <c r="CN50">
+        <v>0</v>
+      </c>
+      <c r="CO50">
+        <v>0</v>
+      </c>
+      <c r="CP50">
+        <v>0</v>
+      </c>
+      <c r="CQ50">
+        <v>0</v>
+      </c>
+      <c r="CR50">
+        <v>0</v>
+      </c>
+      <c r="CS50">
+        <v>0</v>
+      </c>
+      <c r="CT50">
+        <v>0</v>
+      </c>
+      <c r="CU50">
+        <v>2</v>
+      </c>
+      <c r="CV50">
+        <v>0</v>
+      </c>
+      <c r="CW50">
+        <v>6</v>
+      </c>
+      <c r="CX50">
+        <v>0</v>
+      </c>
+      <c r="CY50">
+        <v>0</v>
+      </c>
+      <c r="CZ50">
+        <v>3</v>
+      </c>
+      <c r="DA50">
+        <v>0</v>
+      </c>
+      <c r="DB50">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -701,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB50"/>
+  <dimension ref="A1:DB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="2" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43502</v>
+        <v>43497</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="3" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43503</v>
+        <v>43498</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43504</v>
+        <v>43499</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="5" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43507</v>
+        <v>43500</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43507</v>
+        <v>43501</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43508</v>
+        <v>43502</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2670,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -2700,7 +2700,7 @@
         <v>4</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>3</v>
@@ -2754,7 +2754,7 @@
         <v>2</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7">
         <v>66</v>
@@ -2772,13 +2772,13 @@
         <v>4</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43509</v>
+        <v>43503</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2990,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -3020,7 +3020,7 @@
         <v>4</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>3</v>
@@ -3053,7 +3053,7 @@
         <v>2</v>
       </c>
       <c r="AH8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI8">
         <v>2</v>
@@ -3074,10 +3074,10 @@
         <v>2</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -3086,7 +3086,7 @@
         <v>3</v>
       </c>
       <c r="AS8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT8">
         <v>4</v>
@@ -3101,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8">
         <v>0</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43510</v>
+        <v>43504</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -3310,7 +3310,7 @@
         <v>2</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -3340,7 +3340,7 @@
         <v>4</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>3</v>
@@ -3373,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="AH9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI9">
         <v>2</v>
@@ -3394,10 +3394,10 @@
         <v>2</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3406,13 +3406,13 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT9">
         <v>4</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9">
         <v>0</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43512</v>
+        <v>43507</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3618,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -3630,16 +3630,16 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3660,7 +3660,7 @@
         <v>4</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>3</v>
@@ -3714,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
         <v>66</v>
@@ -3726,13 +3726,13 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT10">
         <v>4</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AY10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43515</v>
+        <v>43507</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3938,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -3950,16 +3950,16 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>2</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3968,10 +3968,10 @@
         <v>8</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -3998,7 +3998,7 @@
         <v>6</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
         <v>66</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="AR11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT11">
         <v>4</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="AY11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
         <v>0</v>
@@ -4076,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE11">
         <v>0</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43519</v>
+        <v>43508</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -4249,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4258,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -4276,10 +4276,10 @@
         <v>2</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4288,10 +4288,10 @@
         <v>8</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -4318,7 +4318,7 @@
         <v>6</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD12">
         <v>2</v>
@@ -4342,7 +4342,7 @@
         <v>6</v>
       </c>
       <c r="AK12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL12">
         <v>2</v>
@@ -4357,34 +4357,34 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AQ12">
         <v>2</v>
       </c>
       <c r="AR12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT12">
         <v>4</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX12">
         <v>0</v>
       </c>
       <c r="AY12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ12">
         <v>0</v>
@@ -4399,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="BD12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF12">
         <v>0</v>
@@ -4554,34 +4554,34 @@
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43520</v>
+        <v>43509</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -4593,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13">
         <v>3</v>
@@ -4605,13 +4605,13 @@
         <v>3</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -4623,52 +4623,52 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA13">
         <v>3</v>
       </c>
       <c r="AB13">
+        <v>6</v>
+      </c>
+      <c r="AC13">
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <v>2</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+      <c r="AH13">
         <v>7</v>
       </c>
-      <c r="AC13">
-        <v>2</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>2</v>
-      </c>
-      <c r="AF13">
-        <v>2</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AL13">
         <v>2</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN13">
         <v>2</v>
@@ -4677,16 +4677,16 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AQ13">
         <v>2</v>
       </c>
       <c r="AR13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT13">
         <v>4</v>
@@ -4695,19 +4695,19 @@
         <v>0</v>
       </c>
       <c r="AV13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13">
         <v>0</v>
@@ -4725,40 +4725,40 @@
         <v>0</v>
       </c>
       <c r="BF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR13">
         <v>0</v>
@@ -4874,34 +4874,34 @@
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43521</v>
+        <v>43510</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -4913,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P14">
         <v>3</v>
@@ -4925,70 +4925,70 @@
         <v>3</v>
       </c>
       <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <v>3</v>
+      </c>
+      <c r="AB14">
+        <v>6</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>2</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <v>2</v>
+      </c>
+      <c r="AH14">
         <v>7</v>
       </c>
-      <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>5</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>2</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>5</v>
-      </c>
-      <c r="AA14">
-        <v>3</v>
-      </c>
-      <c r="AB14">
-        <v>7</v>
-      </c>
-      <c r="AC14">
-        <v>2</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>2</v>
-      </c>
-      <c r="AF14">
-        <v>2</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
       <c r="AI14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AL14">
         <v>2</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN14">
         <v>2</v>
@@ -4997,43 +4997,43 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="AQ14">
         <v>2</v>
       </c>
       <c r="AR14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AT14">
         <v>4</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW14">
         <v>0</v>
       </c>
       <c r="AX14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ14">
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14">
         <v>0</v>
@@ -5048,28 +5048,28 @@
         <v>0</v>
       </c>
       <c r="BG14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM14">
         <v>0</v>
       </c>
       <c r="BN14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO14">
         <v>0</v>
@@ -5078,13 +5078,13 @@
         <v>0</v>
       </c>
       <c r="BQ14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14">
         <v>0</v>
@@ -5194,34 +5194,34 @@
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43522</v>
+        <v>43512</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -5233,31 +5233,31 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15">
         <v>5</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q15">
         <v>3</v>
       </c>
       <c r="R15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15">
         <v>2</v>
       </c>
       <c r="V15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -5266,22 +5266,22 @@
         <v>3</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA15">
         <v>3</v>
       </c>
       <c r="AB15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC15">
         <v>2</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE15">
         <v>2</v>
@@ -5290,25 +5290,25 @@
         <v>2</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL15">
         <v>2</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN15">
         <v>2</v>
@@ -5317,34 +5317,34 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AQ15">
         <v>2</v>
       </c>
       <c r="AR15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AT15">
         <v>4</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW15">
         <v>0</v>
       </c>
       <c r="AX15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -5371,34 +5371,34 @@
         <v>0</v>
       </c>
       <c r="BH15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM15">
         <v>0</v>
       </c>
       <c r="BN15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP15">
         <v>0</v>
       </c>
       <c r="BQ15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR15">
         <v>0</v>
@@ -5407,19 +5407,19 @@
         <v>0</v>
       </c>
       <c r="BT15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY15">
         <v>0</v>
@@ -5514,34 +5514,34 @@
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43523</v>
+        <v>43515</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -5553,25 +5553,25 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16">
         <v>5</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16">
         <v>3</v>
       </c>
       <c r="R16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S16">
         <v>3</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -5580,28 +5580,28 @@
         <v>4</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA16">
         <v>3</v>
       </c>
       <c r="AB16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE16">
         <v>2</v>
@@ -5610,25 +5610,25 @@
         <v>2</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AL16">
         <v>2</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN16">
         <v>2</v>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -5646,7 +5646,7 @@
         <v>2</v>
       </c>
       <c r="AS16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT16">
         <v>4</v>
@@ -5655,16 +5655,16 @@
         <v>0</v>
       </c>
       <c r="AV16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ16">
         <v>0</v>
@@ -5676,49 +5676,49 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE16">
         <v>0</v>
       </c>
       <c r="BF16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR16">
         <v>0</v>
@@ -5834,34 +5834,34 @@
     </row>
     <row r="17" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43524</v>
+        <v>43519</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -5873,100 +5873,100 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17">
         <v>5</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17">
         <v>3</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S17">
         <v>3</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>2</v>
       </c>
       <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
+      </c>
+      <c r="AA17">
+        <v>3</v>
+      </c>
+      <c r="AB17">
+        <v>6</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <v>2</v>
+      </c>
+      <c r="AF17">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <v>6</v>
+      </c>
+      <c r="AI17">
+        <v>2</v>
+      </c>
+      <c r="AJ17">
+        <v>6</v>
+      </c>
+      <c r="AK17">
         <v>5</v>
       </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>2</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>5</v>
-      </c>
-      <c r="AA17">
-        <v>3</v>
-      </c>
-      <c r="AB17">
-        <v>7</v>
-      </c>
-      <c r="AC17">
-        <v>2</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>2</v>
-      </c>
-      <c r="AF17">
-        <v>2</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
+      <c r="AL17">
+        <v>2</v>
+      </c>
+      <c r="AM17">
+        <v>3</v>
+      </c>
+      <c r="AN17">
+        <v>2</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>65</v>
+      </c>
+      <c r="AQ17">
+        <v>2</v>
+      </c>
+      <c r="AR17">
+        <v>2</v>
+      </c>
+      <c r="AS17">
         <v>8</v>
-      </c>
-      <c r="AK17">
-        <v>2</v>
-      </c>
-      <c r="AL17">
-        <v>2</v>
-      </c>
-      <c r="AM17">
-        <v>2</v>
-      </c>
-      <c r="AN17">
-        <v>2</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>85</v>
-      </c>
-      <c r="AQ17">
-        <v>2</v>
-      </c>
-      <c r="AR17">
-        <v>2</v>
-      </c>
-      <c r="AS17">
-        <v>7</v>
       </c>
       <c r="AT17">
         <v>4</v>
@@ -5981,10 +5981,10 @@
         <v>0</v>
       </c>
       <c r="AX17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ17">
         <v>0</v>
@@ -5993,43 +5993,43 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17">
         <v>0</v>
       </c>
       <c r="BD17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF17">
         <v>0</v>
       </c>
       <c r="BG17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM17">
         <v>0</v>
       </c>
       <c r="BN17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO17">
         <v>0</v>
@@ -6038,13 +6038,13 @@
         <v>0</v>
       </c>
       <c r="BQ17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17">
         <v>0</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="18" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43525</v>
+        <v>43520</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -6178,10 +6178,10 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -6217,19 +6217,19 @@
         <v>2</v>
       </c>
       <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>5</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>3</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>4</v>
       </c>
       <c r="AA18">
         <v>3</v>
@@ -6262,7 +6262,7 @@
         <v>8</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL18">
         <v>2</v>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -6286,7 +6286,7 @@
         <v>2</v>
       </c>
       <c r="AS18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT18">
         <v>4</v>
@@ -6295,10 +6295,10 @@
         <v>0</v>
       </c>
       <c r="AV18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18">
         <v>2</v>
@@ -6325,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="BF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18">
         <v>1</v>
@@ -6346,7 +6346,7 @@
         <v>2</v>
       </c>
       <c r="BM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="BP18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ18">
         <v>2</v>
@@ -6367,19 +6367,19 @@
         <v>0</v>
       </c>
       <c r="BT18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY18">
         <v>0</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="19" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43526</v>
+        <v>43521</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -6498,10 +6498,10 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -6531,7 +6531,7 @@
         <v>3</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -6540,16 +6540,16 @@
         <v>5</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA19">
         <v>3</v>
@@ -6582,7 +6582,7 @@
         <v>8</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL19">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="BG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH19">
         <v>1</v>
@@ -6672,7 +6672,7 @@
         <v>2</v>
       </c>
       <c r="BO19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP19">
         <v>0</v>
@@ -6681,25 +6681,25 @@
         <v>2</v>
       </c>
       <c r="BR19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY19">
         <v>0</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="20" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43527</v>
+        <v>43522</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="21" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43529</v>
+        <v>43523</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -7138,7 +7138,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>2</v>
       </c>
       <c r="V21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>3</v>
       </c>
       <c r="AB21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC21">
         <v>2</v>
@@ -7207,7 +7207,7 @@
         <v>2</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG21">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -7246,7 +7246,7 @@
         <v>2</v>
       </c>
       <c r="AS21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT21">
         <v>4</v>
@@ -7255,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="AV21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX21">
         <v>2</v>
@@ -7285,10 +7285,10 @@
         <v>0</v>
       </c>
       <c r="BF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH21">
         <v>1</v>
@@ -7306,16 +7306,16 @@
         <v>2</v>
       </c>
       <c r="BM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN21">
         <v>2</v>
       </c>
       <c r="BO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ21">
         <v>2</v>
@@ -7324,31 +7324,31 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT21">
         <v>0</v>
       </c>
       <c r="BU21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX21">
         <v>0</v>
       </c>
       <c r="BY21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB21">
         <v>0</v>
@@ -7434,7 +7434,7 @@
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43530</v>
+        <v>43524</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>2</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -7485,13 +7485,13 @@
         <v>3</v>
       </c>
       <c r="R22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S22">
         <v>3</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -7500,7 +7500,7 @@
         <v>5</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>2</v>
@@ -7515,7 +7515,7 @@
         <v>3</v>
       </c>
       <c r="AB22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC22">
         <v>2</v>
@@ -7527,7 +7527,7 @@
         <v>2</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>3</v>
       </c>
       <c r="AW22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22">
         <v>2</v>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22">
         <v>0</v>
@@ -7608,10 +7608,10 @@
         <v>0</v>
       </c>
       <c r="BG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI22">
         <v>2</v>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="BN22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO22">
         <v>0</v>
@@ -7641,13 +7641,13 @@
         <v>2</v>
       </c>
       <c r="BR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU22">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="BW22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX22">
         <v>0</v>
@@ -7671,19 +7671,19 @@
         <v>0</v>
       </c>
       <c r="CB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG22">
         <v>0</v>
@@ -7754,7 +7754,7 @@
     </row>
     <row r="23" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43531</v>
+        <v>43525</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -7781,7 +7781,7 @@
         <v>79</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -7805,13 +7805,13 @@
         <v>3</v>
       </c>
       <c r="R23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S23">
         <v>3</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -7823,13 +7823,13 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA23">
         <v>3</v>
@@ -7838,7 +7838,7 @@
         <v>7</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -7847,7 +7847,7 @@
         <v>2</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -7928,10 +7928,10 @@
         <v>0</v>
       </c>
       <c r="BG23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI23">
         <v>2</v>
@@ -7949,19 +7949,19 @@
         <v>0</v>
       </c>
       <c r="BN23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ23">
         <v>2</v>
       </c>
       <c r="BR23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS23">
         <v>0</v>
@@ -7970,19 +7970,19 @@
         <v>1</v>
       </c>
       <c r="BU23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ23">
         <v>0</v>
@@ -8000,19 +8000,19 @@
         <v>0</v>
       </c>
       <c r="CE23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ23">
         <v>0</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="24" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43532</v>
+        <v>43526</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -8101,7 +8101,7 @@
         <v>79</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -8125,13 +8125,13 @@
         <v>3</v>
       </c>
       <c r="R24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S24">
         <v>3</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>2</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA24">
         <v>3</v>
@@ -8158,7 +8158,7 @@
         <v>7</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -8167,7 +8167,7 @@
         <v>2</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG24">
         <v>0</v>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ24">
         <v>2</v>
@@ -8248,10 +8248,10 @@
         <v>0</v>
       </c>
       <c r="BG24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI24">
         <v>2</v>
@@ -8269,19 +8269,19 @@
         <v>0</v>
       </c>
       <c r="BN24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ24">
         <v>2</v>
       </c>
       <c r="BR24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS24">
         <v>0</v>
@@ -8290,19 +8290,19 @@
         <v>1</v>
       </c>
       <c r="BU24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ24">
         <v>0</v>
@@ -8320,19 +8320,19 @@
         <v>0</v>
       </c>
       <c r="CE24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ24">
         <v>0</v>
@@ -8394,7 +8394,7 @@
     </row>
     <row r="25" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43533</v>
+        <v>43527</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -8418,10 +8418,10 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -8445,13 +8445,13 @@
         <v>3</v>
       </c>
       <c r="R25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S25">
         <v>3</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>2</v>
@@ -8460,13 +8460,13 @@
         <v>5</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>4</v>
@@ -8478,16 +8478,16 @@
         <v>7</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG25">
         <v>0</v>
@@ -8502,7 +8502,7 @@
         <v>8</v>
       </c>
       <c r="AK25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>2</v>
@@ -8517,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -8538,7 +8538,7 @@
         <v>3</v>
       </c>
       <c r="AW25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25">
         <v>2</v>
@@ -8589,10 +8589,10 @@
         <v>0</v>
       </c>
       <c r="BN25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -8607,19 +8607,19 @@
         <v>0</v>
       </c>
       <c r="BT25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW25">
         <v>1</v>
       </c>
       <c r="BX25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY25">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="CA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB25">
         <v>0</v>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="CE25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF25">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="CJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK25">
         <v>0</v>
@@ -8714,7 +8714,7 @@
     </row>
     <row r="26" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43534</v>
+        <v>43529</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -9034,7 +9034,7 @@
     </row>
     <row r="27" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43535</v>
+        <v>43530</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -9354,7 +9354,7 @@
     </row>
     <row r="28" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43536</v>
+        <v>43531</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -9674,7 +9674,7 @@
     </row>
     <row r="29" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43537</v>
+        <v>43532</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -9731,7 +9731,7 @@
         <v>3</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U29">
         <v>2</v>
@@ -9746,10 +9746,10 @@
         <v>2</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA29">
         <v>3</v>
@@ -9764,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -9782,7 +9782,7 @@
         <v>8</v>
       </c>
       <c r="AK29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>2</v>
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="BG29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH29">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="BO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP29">
         <v>1</v>
@@ -9881,13 +9881,13 @@
         <v>2</v>
       </c>
       <c r="BR29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS29">
         <v>0</v>
       </c>
       <c r="BT29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU29">
         <v>0</v>
@@ -9899,10 +9899,10 @@
         <v>0</v>
       </c>
       <c r="BX29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ29">
         <v>0</v>
@@ -9920,31 +9920,31 @@
         <v>0</v>
       </c>
       <c r="CE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH29">
         <v>1</v>
       </c>
       <c r="CI29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN29">
         <v>0</v>
@@ -9994,7 +9994,7 @@
     </row>
     <row r="30" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43538</v>
+        <v>43533</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -10018,7 +10018,7 @@
         <v>2</v>
       </c>
       <c r="I30">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -10051,7 +10051,7 @@
         <v>3</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30">
         <v>2</v>
@@ -10060,7 +10060,7 @@
         <v>5</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
         <v>2</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="BH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI30">
         <v>2</v>
@@ -10186,7 +10186,7 @@
         <v>2</v>
       </c>
       <c r="BM30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN30">
         <v>0</v>
@@ -10207,13 +10207,13 @@
         <v>0</v>
       </c>
       <c r="BT30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU30">
         <v>0</v>
       </c>
       <c r="BV30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW30">
         <v>1</v>
@@ -10228,19 +10228,19 @@
         <v>0</v>
       </c>
       <c r="CA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB30">
         <v>0</v>
       </c>
       <c r="CC30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD30">
         <v>0</v>
       </c>
       <c r="CE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF30">
         <v>0</v>
@@ -10249,13 +10249,13 @@
         <v>0</v>
       </c>
       <c r="CH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI30">
         <v>0</v>
       </c>
       <c r="CJ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK30">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="CN30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO30">
         <v>0</v>
@@ -10314,7 +10314,7 @@
     </row>
     <row r="31" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43539</v>
+        <v>43534</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -10365,13 +10365,13 @@
         <v>3</v>
       </c>
       <c r="R31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S31">
         <v>3</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>2</v>
@@ -10386,25 +10386,25 @@
         <v>2</v>
       </c>
       <c r="Y31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA31">
         <v>3</v>
       </c>
       <c r="AB31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -10491,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="BH31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI31">
         <v>2</v>
@@ -10509,13 +10509,13 @@
         <v>0</v>
       </c>
       <c r="BN31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ31">
         <v>2</v>
@@ -10524,31 +10524,31 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT31">
         <v>0</v>
       </c>
       <c r="BU31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB31">
         <v>0</v>
@@ -10569,22 +10569,22 @@
         <v>0</v>
       </c>
       <c r="CH31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI31">
         <v>0</v>
       </c>
       <c r="CJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN31">
         <v>0</v>
@@ -10634,7 +10634,7 @@
     </row>
     <row r="32" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43540</v>
+        <v>43535</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -10670,7 +10670,7 @@
         <v>2</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -10706,25 +10706,25 @@
         <v>2</v>
       </c>
       <c r="Y32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA32">
         <v>3</v>
       </c>
       <c r="AB32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AQ32">
         <v>2</v>
@@ -10826,7 +10826,7 @@
         <v>2</v>
       </c>
       <c r="BM32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN32">
         <v>0</v>
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="BV32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW32">
         <v>1</v>
@@ -10871,25 +10871,25 @@
         <v>0</v>
       </c>
       <c r="CB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC32">
         <v>1</v>
       </c>
       <c r="CD32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG32">
         <v>0</v>
       </c>
       <c r="CH32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI32">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="CN32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO32">
         <v>0</v>
@@ -10954,7 +10954,7 @@
     </row>
     <row r="33" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43541</v>
+        <v>43536</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -11011,7 +11011,7 @@
         <v>3</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U33">
         <v>2</v>
@@ -11026,10 +11026,10 @@
         <v>2</v>
       </c>
       <c r="Y33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA33">
         <v>3</v>
@@ -11041,10 +11041,10 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>8</v>
       </c>
       <c r="AK33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>2</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -11098,7 +11098,7 @@
         <v>3</v>
       </c>
       <c r="AW33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX33">
         <v>2</v>
@@ -11128,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="BG33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH33">
         <v>0</v>
@@ -11146,7 +11146,7 @@
         <v>2</v>
       </c>
       <c r="BM33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN33">
         <v>0</v>
@@ -11155,13 +11155,13 @@
         <v>0</v>
       </c>
       <c r="BP33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ33">
         <v>2</v>
       </c>
       <c r="BR33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS33">
         <v>0</v>
@@ -11173,16 +11173,16 @@
         <v>0</v>
       </c>
       <c r="BV33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX33">
         <v>0</v>
       </c>
       <c r="BY33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ33">
         <v>0</v>
@@ -11194,25 +11194,25 @@
         <v>0</v>
       </c>
       <c r="CC33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD33">
         <v>0</v>
       </c>
       <c r="CE33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH33">
         <v>1</v>
       </c>
       <c r="CI33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ33">
         <v>0</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="CN33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO33">
         <v>0</v>
@@ -11274,7 +11274,7 @@
     </row>
     <row r="34" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43542</v>
+        <v>43537</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -11331,7 +11331,7 @@
         <v>3</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
         <v>2</v>
@@ -11418,7 +11418,7 @@
         <v>3</v>
       </c>
       <c r="AW34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX34">
         <v>2</v>
@@ -11466,16 +11466,16 @@
         <v>2</v>
       </c>
       <c r="BM34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ34">
         <v>2</v>
@@ -11487,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="BT34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU34">
         <v>0</v>
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="BX34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY34">
         <v>0</v>
@@ -11529,16 +11529,16 @@
         <v>0</v>
       </c>
       <c r="CH34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI34">
         <v>0</v>
       </c>
       <c r="CJ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL34">
         <v>1</v>
@@ -11550,10 +11550,10 @@
         <v>0</v>
       </c>
       <c r="CO34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ34">
         <v>0</v>
@@ -11594,7 +11594,7 @@
     </row>
     <row r="35" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43543</v>
+        <v>43538</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -11618,7 +11618,7 @@
         <v>2</v>
       </c>
       <c r="I35">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -11651,7 +11651,7 @@
         <v>3</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>2</v>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35">
         <v>3</v>
@@ -11786,16 +11786,16 @@
         <v>2</v>
       </c>
       <c r="BM35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ35">
         <v>2</v>
@@ -11807,22 +11807,22 @@
         <v>0</v>
       </c>
       <c r="BT35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU35">
         <v>0</v>
       </c>
       <c r="BV35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ35">
         <v>0</v>
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="CH35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI35">
         <v>0</v>
@@ -11867,10 +11867,10 @@
         <v>0</v>
       </c>
       <c r="CN35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP35">
         <v>0</v>
@@ -11914,7 +11914,7 @@
     </row>
     <row r="36" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43544</v>
+        <v>43539</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -11938,7 +11938,7 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -11971,7 +11971,7 @@
         <v>3</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
         <v>2</v>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="BD36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE36">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="BG36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH36">
         <v>0</v>
@@ -12112,10 +12112,10 @@
         <v>0</v>
       </c>
       <c r="BO36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ36">
         <v>2</v>
@@ -12142,7 +12142,7 @@
         <v>1</v>
       </c>
       <c r="BY36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ36">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="CD36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE36">
         <v>0</v>
@@ -12175,16 +12175,16 @@
         <v>0</v>
       </c>
       <c r="CJ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN36">
         <v>0</v>
@@ -12196,13 +12196,13 @@
         <v>0</v>
       </c>
       <c r="CQ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT36">
         <v>0</v>
@@ -12234,7 +12234,7 @@
     </row>
     <row r="37" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43548</v>
+        <v>43540</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -12261,7 +12261,7 @@
         <v>79</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -12285,13 +12285,13 @@
         <v>3</v>
       </c>
       <c r="R37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S37">
         <v>3</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>2</v>
@@ -12303,13 +12303,13 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA37">
         <v>3</v>
@@ -12357,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -12378,7 +12378,7 @@
         <v>3</v>
       </c>
       <c r="AW37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX37">
         <v>2</v>
@@ -12426,7 +12426,7 @@
         <v>2</v>
       </c>
       <c r="BM37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN37">
         <v>0</v>
@@ -12441,28 +12441,28 @@
         <v>2</v>
       </c>
       <c r="BR37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU37">
         <v>0</v>
       </c>
       <c r="BV37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX37">
         <v>0</v>
       </c>
       <c r="BY37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ37">
         <v>0</v>
@@ -12474,10 +12474,10 @@
         <v>0</v>
       </c>
       <c r="CC37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE37">
         <v>0</v>
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="CH37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI37">
         <v>0</v>
@@ -12498,16 +12498,16 @@
         <v>0</v>
       </c>
       <c r="CK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM37">
         <v>0</v>
       </c>
       <c r="CN37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO37">
         <v>0</v>
@@ -12525,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="CT37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU37">
         <v>0</v>
@@ -12554,7 +12554,7 @@
     </row>
     <row r="38" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43549</v>
+        <v>43541</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -12581,7 +12581,7 @@
         <v>79</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -12605,13 +12605,13 @@
         <v>3</v>
       </c>
       <c r="R38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S38">
         <v>3</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U38">
         <v>2</v>
@@ -12623,13 +12623,13 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA38">
         <v>3</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38">
         <v>3</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -12698,7 +12698,7 @@
         <v>3</v>
       </c>
       <c r="AW38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX38">
         <v>2</v>
@@ -12746,7 +12746,7 @@
         <v>2</v>
       </c>
       <c r="BM38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN38">
         <v>0</v>
@@ -12764,16 +12764,16 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU38">
         <v>0</v>
       </c>
       <c r="BV38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW38">
         <v>1</v>
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="BY38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ38">
         <v>0</v>
@@ -12794,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="CC38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD38">
         <v>0</v>
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="CN38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO38">
         <v>0</v>
@@ -12842,16 +12842,16 @@
         <v>0</v>
       </c>
       <c r="CS38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT38">
         <v>0</v>
       </c>
       <c r="CU38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW38">
         <v>0</v>
@@ -12874,7 +12874,7 @@
     </row>
     <row r="39" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43550</v>
+        <v>43542</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -12892,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -12901,7 +12901,7 @@
         <v>79</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -12925,13 +12925,13 @@
         <v>3</v>
       </c>
       <c r="R39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S39">
         <v>3</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <v>2</v>
@@ -12943,13 +12943,13 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA39">
         <v>3</v>
@@ -12997,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -13066,16 +13066,16 @@
         <v>2</v>
       </c>
       <c r="BM39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO39">
         <v>0</v>
       </c>
       <c r="BP39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ39">
         <v>2</v>
@@ -13087,22 +13087,22 @@
         <v>0</v>
       </c>
       <c r="BT39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV39">
         <v>0</v>
       </c>
       <c r="BW39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX39">
         <v>0</v>
       </c>
       <c r="BY39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ39">
         <v>0</v>
@@ -13114,7 +13114,7 @@
         <v>0</v>
       </c>
       <c r="CC39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD39">
         <v>0</v>
@@ -13141,22 +13141,22 @@
         <v>0</v>
       </c>
       <c r="CL39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN39">
         <v>0</v>
       </c>
       <c r="CO39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR39">
         <v>0</v>
@@ -13168,7 +13168,7 @@
         <v>0</v>
       </c>
       <c r="CU39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV39">
         <v>0</v>
@@ -13194,7 +13194,7 @@
     </row>
     <row r="40" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43554</v>
+        <v>43543</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -13245,13 +13245,13 @@
         <v>3</v>
       </c>
       <c r="R40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S40">
         <v>3</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
         <v>2</v>
@@ -13263,13 +13263,13 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA40">
         <v>3</v>
@@ -13281,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40">
         <v>3</v>
@@ -13317,13 +13317,13 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AQ40">
         <v>2</v>
       </c>
       <c r="AR40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS40">
         <v>7</v>
@@ -13338,7 +13338,7 @@
         <v>3</v>
       </c>
       <c r="AW40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX40">
         <v>2</v>
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="BH40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI40">
         <v>2</v>
@@ -13386,22 +13386,22 @@
         <v>2</v>
       </c>
       <c r="BM40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO40">
         <v>1</v>
       </c>
       <c r="BP40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ40">
         <v>2</v>
       </c>
       <c r="BR40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS40">
         <v>0</v>
@@ -13419,10 +13419,10 @@
         <v>0</v>
       </c>
       <c r="BX40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ40">
         <v>0</v>
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="CF40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG40">
         <v>0</v>
@@ -13470,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="CO40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP40">
         <v>0</v>
@@ -13482,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="CS40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT40">
         <v>0</v>
@@ -13494,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="CW40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX40">
         <v>0</v>
@@ -13514,7 +13514,7 @@
     </row>
     <row r="41" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43556</v>
+        <v>43544</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -13565,7 +13565,7 @@
         <v>3</v>
       </c>
       <c r="R41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S41">
         <v>3</v>
@@ -13583,13 +13583,13 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA41">
         <v>3</v>
@@ -13637,13 +13637,13 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AQ41">
         <v>2</v>
       </c>
       <c r="AR41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS41">
         <v>7</v>
@@ -13688,7 +13688,7 @@
         <v>0</v>
       </c>
       <c r="BG41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH41">
         <v>0</v>
@@ -13709,13 +13709,13 @@
         <v>0</v>
       </c>
       <c r="BN41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO41">
         <v>0</v>
       </c>
       <c r="BP41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ41">
         <v>2</v>
@@ -13742,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="BY41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ41">
         <v>0</v>
@@ -13757,19 +13757,19 @@
         <v>0</v>
       </c>
       <c r="CD41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE41">
         <v>0</v>
       </c>
       <c r="CF41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG41">
         <v>0</v>
       </c>
       <c r="CH41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI41">
         <v>0</v>
@@ -13793,16 +13793,16 @@
         <v>0</v>
       </c>
       <c r="CP41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ41">
         <v>1</v>
       </c>
       <c r="CR41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT41">
         <v>0</v>
@@ -13811,13 +13811,13 @@
         <v>0</v>
       </c>
       <c r="CV41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY41">
         <v>0</v>
@@ -13834,7 +13834,7 @@
     </row>
     <row r="42" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43557</v>
+        <v>43548</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -13858,10 +13858,10 @@
         <v>2</v>
       </c>
       <c r="I42">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -13876,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P42">
         <v>3</v>
@@ -13891,7 +13891,7 @@
         <v>3</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U42">
         <v>2</v>
@@ -13915,13 +13915,13 @@
         <v>3</v>
       </c>
       <c r="AB42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AC42">
         <v>0</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE42">
         <v>3</v>
@@ -13957,13 +13957,13 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AQ42">
         <v>2</v>
       </c>
       <c r="AR42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS42">
         <v>7</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="BD42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE42">
         <v>0</v>
@@ -14029,22 +14029,22 @@
         <v>0</v>
       </c>
       <c r="BN42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO42">
         <v>0</v>
       </c>
       <c r="BP42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ42">
         <v>2</v>
       </c>
       <c r="BR42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT42">
         <v>0</v>
@@ -14059,10 +14059,10 @@
         <v>0</v>
       </c>
       <c r="BX42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ42">
         <v>0</v>
@@ -14077,13 +14077,13 @@
         <v>0</v>
       </c>
       <c r="CD42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE42">
         <v>0</v>
       </c>
       <c r="CF42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG42">
         <v>0</v>
@@ -14098,10 +14098,10 @@
         <v>0</v>
       </c>
       <c r="CK42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM42">
         <v>0</v>
@@ -14113,10 +14113,10 @@
         <v>0</v>
       </c>
       <c r="CP42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR42">
         <v>0</v>
@@ -14125,19 +14125,19 @@
         <v>0</v>
       </c>
       <c r="CT42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU42">
         <v>0</v>
       </c>
       <c r="CV42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CX42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY42">
         <v>0</v>
@@ -14154,7 +14154,7 @@
     </row>
     <row r="43" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43558</v>
+        <v>43549</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -14163,55 +14163,55 @@
         <v>0</v>
       </c>
       <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>79</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
         <v>5</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43">
-        <v>94</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>2</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>8</v>
-      </c>
       <c r="P43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q43">
         <v>3</v>
       </c>
       <c r="R43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U43">
         <v>2</v>
@@ -14220,82 +14220,82 @@
         <v>5</v>
       </c>
       <c r="W43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X43">
+        <v>3</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>5</v>
+      </c>
+      <c r="AA43">
+        <v>3</v>
+      </c>
+      <c r="AB43">
+        <v>7</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>3</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>8</v>
+      </c>
+      <c r="AK43">
+        <v>2</v>
+      </c>
+      <c r="AL43">
+        <v>2</v>
+      </c>
+      <c r="AM43">
+        <v>2</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>83</v>
+      </c>
+      <c r="AQ43">
+        <v>2</v>
+      </c>
+      <c r="AR43">
+        <v>2</v>
+      </c>
+      <c r="AS43">
+        <v>7</v>
+      </c>
+      <c r="AT43">
         <v>4</v>
       </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>8</v>
-      </c>
-      <c r="AA43">
-        <v>5</v>
-      </c>
-      <c r="AB43">
-        <v>13</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>4</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>9</v>
-      </c>
-      <c r="AK43">
-        <v>2</v>
-      </c>
-      <c r="AL43">
-        <v>5</v>
-      </c>
-      <c r="AM43">
-        <v>2</v>
-      </c>
-      <c r="AN43">
-        <v>3</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>94</v>
-      </c>
-      <c r="AQ43">
-        <v>2</v>
-      </c>
-      <c r="AR43">
-        <v>4</v>
-      </c>
-      <c r="AS43">
-        <v>8</v>
-      </c>
-      <c r="AT43">
-        <v>5</v>
-      </c>
       <c r="AU43">
         <v>0</v>
       </c>
       <c r="AV43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW43">
         <v>0</v>
@@ -14319,7 +14319,7 @@
         <v>0</v>
       </c>
       <c r="BD43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE43">
         <v>0</v>
@@ -14334,22 +14334,22 @@
         <v>0</v>
       </c>
       <c r="BI43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ43">
         <v>2</v>
       </c>
       <c r="BK43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM43">
         <v>0</v>
       </c>
       <c r="BN43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO43">
         <v>0</v>
@@ -14364,7 +14364,7 @@
         <v>0</v>
       </c>
       <c r="BS43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT43">
         <v>0</v>
@@ -14376,13 +14376,13 @@
         <v>0</v>
       </c>
       <c r="BW43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ43">
         <v>0</v>
@@ -14403,13 +14403,13 @@
         <v>0</v>
       </c>
       <c r="CF43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG43">
         <v>0</v>
       </c>
       <c r="CH43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI43">
         <v>0</v>
@@ -14442,31 +14442,31 @@
         <v>0</v>
       </c>
       <c r="CS43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT43">
         <v>0</v>
       </c>
       <c r="CU43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CX43">
         <v>0</v>
       </c>
       <c r="CY43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CZ43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DA43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB43">
         <v>0</v>
@@ -14474,7 +14474,7 @@
     </row>
     <row r="44" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43559</v>
+        <v>43550</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -14483,55 +14483,55 @@
         <v>0</v>
       </c>
       <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>79</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>5</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44">
-        <v>100</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="L44">
-        <v>3</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>8</v>
-      </c>
       <c r="P44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q44">
         <v>3</v>
       </c>
       <c r="R44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U44">
         <v>2</v>
@@ -14540,85 +14540,85 @@
         <v>5</v>
       </c>
       <c r="W44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X44">
+        <v>3</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>5</v>
+      </c>
+      <c r="AA44">
+        <v>3</v>
+      </c>
+      <c r="AB44">
+        <v>7</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>3</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>8</v>
+      </c>
+      <c r="AK44">
+        <v>2</v>
+      </c>
+      <c r="AL44">
+        <v>2</v>
+      </c>
+      <c r="AM44">
+        <v>2</v>
+      </c>
+      <c r="AN44">
+        <v>2</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>83</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>2</v>
+      </c>
+      <c r="AS44">
+        <v>7</v>
+      </c>
+      <c r="AT44">
         <v>4</v>
       </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>9</v>
-      </c>
-      <c r="AA44">
-        <v>8</v>
-      </c>
-      <c r="AB44">
-        <v>15</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>4</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>9</v>
-      </c>
-      <c r="AK44">
-        <v>3</v>
-      </c>
-      <c r="AL44">
-        <v>5</v>
-      </c>
-      <c r="AM44">
-        <v>2</v>
-      </c>
-      <c r="AN44">
-        <v>3</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>95</v>
-      </c>
-      <c r="AQ44">
-        <v>2</v>
-      </c>
-      <c r="AR44">
-        <v>4</v>
-      </c>
-      <c r="AS44">
-        <v>8</v>
-      </c>
-      <c r="AT44">
-        <v>5</v>
-      </c>
       <c r="AU44">
         <v>0</v>
       </c>
       <c r="AV44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX44">
         <v>2</v>
@@ -14639,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="BD44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE44">
         <v>0</v>
@@ -14654,16 +14654,16 @@
         <v>0</v>
       </c>
       <c r="BI44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ44">
         <v>2</v>
       </c>
       <c r="BK44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM44">
         <v>0</v>
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="BP44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ44">
         <v>2</v>
@@ -14690,19 +14690,19 @@
         <v>0</v>
       </c>
       <c r="BU44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV44">
         <v>0</v>
       </c>
       <c r="BW44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ44">
         <v>0</v>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="CC44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD44">
         <v>0</v>
@@ -14723,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="CF44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG44">
         <v>0</v>
@@ -14756,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="CQ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR44">
         <v>0</v>
@@ -14768,25 +14768,25 @@
         <v>0</v>
       </c>
       <c r="CU44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV44">
         <v>0</v>
       </c>
       <c r="CW44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CX44">
         <v>0</v>
       </c>
       <c r="CY44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CZ44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DA44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB44">
         <v>0</v>
@@ -14794,7 +14794,7 @@
     </row>
     <row r="45" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43560</v>
+        <v>43554</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -14803,52 +14803,52 @@
         <v>0</v>
       </c>
       <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>78</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <v>5</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>104</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45">
-        <v>3</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>8</v>
-      </c>
       <c r="P45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q45">
         <v>3</v>
       </c>
       <c r="R45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -14860,82 +14860,82 @@
         <v>5</v>
       </c>
       <c r="W45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X45">
+        <v>3</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>5</v>
+      </c>
+      <c r="AA45">
+        <v>3</v>
+      </c>
+      <c r="AB45">
+        <v>7</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>3</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>8</v>
+      </c>
+      <c r="AK45">
+        <v>2</v>
+      </c>
+      <c r="AL45">
+        <v>2</v>
+      </c>
+      <c r="AM45">
+        <v>2</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>83</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
+        <v>3</v>
+      </c>
+      <c r="AS45">
+        <v>7</v>
+      </c>
+      <c r="AT45">
         <v>4</v>
       </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>9</v>
-      </c>
-      <c r="AA45">
-        <v>9</v>
-      </c>
-      <c r="AB45">
-        <v>15</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>4</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>10</v>
-      </c>
-      <c r="AK45">
-        <v>3</v>
-      </c>
-      <c r="AL45">
-        <v>5</v>
-      </c>
-      <c r="AM45">
-        <v>2</v>
-      </c>
-      <c r="AN45">
-        <v>3</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>95</v>
-      </c>
-      <c r="AQ45">
-        <v>2</v>
-      </c>
-      <c r="AR45">
-        <v>4</v>
-      </c>
-      <c r="AS45">
-        <v>8</v>
-      </c>
-      <c r="AT45">
-        <v>5</v>
-      </c>
       <c r="AU45">
         <v>0</v>
       </c>
       <c r="AV45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW45">
         <v>0</v>
@@ -14959,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="BD45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE45">
         <v>0</v>
@@ -14971,28 +14971,28 @@
         <v>0</v>
       </c>
       <c r="BH45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ45">
         <v>2</v>
       </c>
       <c r="BK45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP45">
         <v>0</v>
@@ -15001,7 +15001,7 @@
         <v>2</v>
       </c>
       <c r="BR45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS45">
         <v>0</v>
@@ -15019,10 +15019,10 @@
         <v>0</v>
       </c>
       <c r="BX45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ45">
         <v>0</v>
@@ -15034,7 +15034,7 @@
         <v>0</v>
       </c>
       <c r="CC45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD45">
         <v>0</v>
@@ -15082,31 +15082,31 @@
         <v>0</v>
       </c>
       <c r="CS45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT45">
         <v>0</v>
       </c>
       <c r="CU45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV45">
         <v>0</v>
       </c>
       <c r="CW45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CX45">
         <v>0</v>
       </c>
       <c r="CY45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CZ45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DA45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB45">
         <v>0</v>
@@ -15114,7 +15114,7 @@
     </row>
     <row r="46" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43561</v>
+        <v>43556</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -15135,10 +15135,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -15147,7 +15147,7 @@
         <v>2</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -15156,19 +15156,19 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q46">
         <v>3</v>
       </c>
       <c r="R46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -15180,82 +15180,82 @@
         <v>5</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X46">
+        <v>3</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>5</v>
+      </c>
+      <c r="AA46">
+        <v>3</v>
+      </c>
+      <c r="AB46">
+        <v>7</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>3</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>8</v>
+      </c>
+      <c r="AK46">
+        <v>2</v>
+      </c>
+      <c r="AL46">
+        <v>2</v>
+      </c>
+      <c r="AM46">
+        <v>2</v>
+      </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>83</v>
+      </c>
+      <c r="AQ46">
+        <v>2</v>
+      </c>
+      <c r="AR46">
+        <v>3</v>
+      </c>
+      <c r="AS46">
+        <v>7</v>
+      </c>
+      <c r="AT46">
         <v>4</v>
       </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>9</v>
-      </c>
-      <c r="AA46">
-        <v>9</v>
-      </c>
-      <c r="AB46">
-        <v>15</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>4</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>10</v>
-      </c>
-      <c r="AK46">
-        <v>3</v>
-      </c>
-      <c r="AL46">
-        <v>5</v>
-      </c>
-      <c r="AM46">
-        <v>2</v>
-      </c>
-      <c r="AN46">
-        <v>3</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>95</v>
-      </c>
-      <c r="AQ46">
-        <v>2</v>
-      </c>
-      <c r="AR46">
-        <v>4</v>
-      </c>
-      <c r="AS46">
-        <v>8</v>
-      </c>
-      <c r="AT46">
-        <v>5</v>
-      </c>
       <c r="AU46">
         <v>0</v>
       </c>
       <c r="AV46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW46">
         <v>0</v>
@@ -15279,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="BD46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE46">
         <v>0</v>
@@ -15294,28 +15294,28 @@
         <v>0</v>
       </c>
       <c r="BI46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ46">
         <v>2</v>
       </c>
       <c r="BK46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM46">
         <v>0</v>
       </c>
       <c r="BN46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO46">
         <v>0</v>
       </c>
       <c r="BP46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ46">
         <v>2</v>
@@ -15339,10 +15339,10 @@
         <v>0</v>
       </c>
       <c r="BX46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ46">
         <v>0</v>
@@ -15393,10 +15393,10 @@
         <v>0</v>
       </c>
       <c r="CP46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR46">
         <v>0</v>
@@ -15408,25 +15408,25 @@
         <v>0</v>
       </c>
       <c r="CU46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CX46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CZ46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DA46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB46">
         <v>0</v>
@@ -15434,7 +15434,7 @@
     </row>
     <row r="47" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43562</v>
+        <v>43557</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -15443,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -15455,19 +15455,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>2</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -15476,19 +15476,19 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q47">
         <v>3</v>
       </c>
       <c r="R47">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -15500,22 +15500,22 @@
         <v>5</v>
       </c>
       <c r="W47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y47">
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA47">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AB47">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -15524,7 +15524,7 @@
         <v>0</v>
       </c>
       <c r="AE47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -15539,43 +15539,43 @@
         <v>0</v>
       </c>
       <c r="AJ47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM47">
         <v>2</v>
       </c>
       <c r="AN47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO47">
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AQ47">
         <v>2</v>
       </c>
       <c r="AR47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS47">
         <v>7</v>
       </c>
       <c r="AT47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU47">
         <v>0</v>
       </c>
       <c r="AV47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW47">
         <v>0</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="BD47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE47">
         <v>0</v>
@@ -15614,28 +15614,28 @@
         <v>0</v>
       </c>
       <c r="BI47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ47">
         <v>2</v>
       </c>
       <c r="BK47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM47">
         <v>0</v>
       </c>
       <c r="BN47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO47">
         <v>0</v>
       </c>
       <c r="BP47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ47">
         <v>2</v>
@@ -15659,10 +15659,10 @@
         <v>0</v>
       </c>
       <c r="BX47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ47">
         <v>0</v>
@@ -15713,10 +15713,10 @@
         <v>0</v>
       </c>
       <c r="CP47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR47">
         <v>0</v>
@@ -15728,33 +15728,33 @@
         <v>0</v>
       </c>
       <c r="CU47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CX47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY47">
         <v>0</v>
       </c>
       <c r="CZ47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DA47">
         <v>0</v>
       </c>
       <c r="DB47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43563</v>
+        <v>43558</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -15778,10 +15778,10 @@
         <v>3</v>
       </c>
       <c r="I48">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -15805,7 +15805,7 @@
         <v>3</v>
       </c>
       <c r="R48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S48">
         <v>4</v>
@@ -15829,13 +15829,13 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA48">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB48">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -15862,7 +15862,7 @@
         <v>9</v>
       </c>
       <c r="AK48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL48">
         <v>5</v>
@@ -15886,7 +15886,7 @@
         <v>4</v>
       </c>
       <c r="AS48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT48">
         <v>5</v>
@@ -15895,7 +15895,7 @@
         <v>0</v>
       </c>
       <c r="AV48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW48">
         <v>0</v>
@@ -15919,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="BD48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE48">
         <v>0</v>
@@ -15934,13 +15934,13 @@
         <v>0</v>
       </c>
       <c r="BI48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ48">
         <v>2</v>
       </c>
       <c r="BK48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BL48">
         <v>3</v>
@@ -15949,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="BN48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO48">
         <v>0</v>
@@ -16048,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="CU48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV48">
         <v>0</v>
@@ -16060,21 +16060,21 @@
         <v>0</v>
       </c>
       <c r="CY48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CZ48">
         <v>3</v>
       </c>
       <c r="DA48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43564</v>
+        <v>43559</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -16098,10 +16098,10 @@
         <v>3</v>
       </c>
       <c r="I49">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -16125,7 +16125,7 @@
         <v>3</v>
       </c>
       <c r="R49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S49">
         <v>4</v>
@@ -16152,7 +16152,7 @@
         <v>9</v>
       </c>
       <c r="AA49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB49">
         <v>15</v>
@@ -16179,10 +16179,10 @@
         <v>0</v>
       </c>
       <c r="AJ49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL49">
         <v>5</v>
@@ -16197,7 +16197,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -16206,7 +16206,7 @@
         <v>4</v>
       </c>
       <c r="AS49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT49">
         <v>5</v>
@@ -16239,7 +16239,7 @@
         <v>0</v>
       </c>
       <c r="BD49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE49">
         <v>0</v>
@@ -16254,7 +16254,7 @@
         <v>0</v>
       </c>
       <c r="BI49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ49">
         <v>2</v>
@@ -16335,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="CJ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK49">
         <v>0</v>
@@ -16380,13 +16380,13 @@
         <v>0</v>
       </c>
       <c r="CY49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CZ49">
         <v>3</v>
       </c>
       <c r="DA49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB49">
         <v>0</v>
@@ -16394,7 +16394,7 @@
     </row>
     <row r="50" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43565</v>
+        <v>43560</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -16418,10 +16418,10 @@
         <v>3</v>
       </c>
       <c r="I50">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -16445,7 +16445,7 @@
         <v>3</v>
       </c>
       <c r="R50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S50">
         <v>4</v>
@@ -16499,10 +16499,10 @@
         <v>0</v>
       </c>
       <c r="AJ50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL50">
         <v>5</v>
@@ -16517,7 +16517,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -16526,7 +16526,7 @@
         <v>4</v>
       </c>
       <c r="AS50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT50">
         <v>5</v>
@@ -16559,7 +16559,7 @@
         <v>0</v>
       </c>
       <c r="BD50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE50">
         <v>0</v>
@@ -16574,7 +16574,7 @@
         <v>0</v>
       </c>
       <c r="BI50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ50">
         <v>2</v>
@@ -16634,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="CC50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD50">
         <v>0</v>
@@ -16700,15 +16700,1615 @@
         <v>0</v>
       </c>
       <c r="CY50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CZ50">
         <v>3</v>
       </c>
       <c r="DA50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>106</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>8</v>
+      </c>
+      <c r="P51">
+        <v>4</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>9</v>
+      </c>
+      <c r="S51">
+        <v>4</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51">
+        <v>5</v>
+      </c>
+      <c r="W51">
+        <v>2</v>
+      </c>
+      <c r="X51">
+        <v>4</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>9</v>
+      </c>
+      <c r="AA51">
+        <v>9</v>
+      </c>
+      <c r="AB51">
+        <v>15</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>4</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>10</v>
+      </c>
+      <c r="AK51">
+        <v>3</v>
+      </c>
+      <c r="AL51">
+        <v>5</v>
+      </c>
+      <c r="AM51">
+        <v>2</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>95</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>4</v>
+      </c>
+      <c r="AS51">
+        <v>8</v>
+      </c>
+      <c r="AT51">
+        <v>5</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>5</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>2</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>2</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>4</v>
+      </c>
+      <c r="BJ51">
+        <v>2</v>
+      </c>
+      <c r="BK51">
+        <v>4</v>
+      </c>
+      <c r="BL51">
+        <v>3</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
+      </c>
+      <c r="BQ51">
+        <v>2</v>
+      </c>
+      <c r="BR51">
+        <v>0</v>
+      </c>
+      <c r="BS51">
+        <v>0</v>
+      </c>
+      <c r="BT51">
+        <v>0</v>
+      </c>
+      <c r="BU51">
+        <v>0</v>
+      </c>
+      <c r="BV51">
+        <v>0</v>
+      </c>
+      <c r="BW51">
+        <v>0</v>
+      </c>
+      <c r="BX51">
+        <v>2</v>
+      </c>
+      <c r="BY51">
+        <v>2</v>
+      </c>
+      <c r="BZ51">
+        <v>0</v>
+      </c>
+      <c r="CA51">
+        <v>0</v>
+      </c>
+      <c r="CB51">
+        <v>0</v>
+      </c>
+      <c r="CC51">
+        <v>0</v>
+      </c>
+      <c r="CD51">
+        <v>0</v>
+      </c>
+      <c r="CE51">
+        <v>0</v>
+      </c>
+      <c r="CF51">
+        <v>2</v>
+      </c>
+      <c r="CG51">
+        <v>0</v>
+      </c>
+      <c r="CH51">
+        <v>0</v>
+      </c>
+      <c r="CI51">
+        <v>0</v>
+      </c>
+      <c r="CJ51">
+        <v>0</v>
+      </c>
+      <c r="CK51">
+        <v>0</v>
+      </c>
+      <c r="CL51">
+        <v>0</v>
+      </c>
+      <c r="CM51">
+        <v>0</v>
+      </c>
+      <c r="CN51">
+        <v>0</v>
+      </c>
+      <c r="CO51">
+        <v>0</v>
+      </c>
+      <c r="CP51">
+        <v>0</v>
+      </c>
+      <c r="CQ51">
+        <v>0</v>
+      </c>
+      <c r="CR51">
+        <v>0</v>
+      </c>
+      <c r="CS51">
+        <v>0</v>
+      </c>
+      <c r="CT51">
+        <v>0</v>
+      </c>
+      <c r="CU51">
+        <v>2</v>
+      </c>
+      <c r="CV51">
+        <v>0</v>
+      </c>
+      <c r="CW51">
+        <v>6</v>
+      </c>
+      <c r="CX51">
+        <v>0</v>
+      </c>
+      <c r="CY51">
+        <v>2</v>
+      </c>
+      <c r="CZ51">
+        <v>3</v>
+      </c>
+      <c r="DA51">
+        <v>2</v>
+      </c>
+      <c r="DB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>107</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>8</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>4</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <v>5</v>
+      </c>
+      <c r="W52">
+        <v>2</v>
+      </c>
+      <c r="X52">
+        <v>4</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>9</v>
+      </c>
+      <c r="AA52">
+        <v>9</v>
+      </c>
+      <c r="AB52">
+        <v>15</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>4</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>9</v>
+      </c>
+      <c r="AK52">
+        <v>4</v>
+      </c>
+      <c r="AL52">
+        <v>5</v>
+      </c>
+      <c r="AM52">
+        <v>2</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>94</v>
+      </c>
+      <c r="AQ52">
+        <v>2</v>
+      </c>
+      <c r="AR52">
+        <v>4</v>
+      </c>
+      <c r="AS52">
+        <v>7</v>
+      </c>
+      <c r="AT52">
+        <v>5</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>2</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>3</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>5</v>
+      </c>
+      <c r="BJ52">
+        <v>2</v>
+      </c>
+      <c r="BK52">
+        <v>4</v>
+      </c>
+      <c r="BL52">
+        <v>3</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>0</v>
+      </c>
+      <c r="BQ52">
+        <v>2</v>
+      </c>
+      <c r="BR52">
+        <v>0</v>
+      </c>
+      <c r="BS52">
+        <v>0</v>
+      </c>
+      <c r="BT52">
+        <v>0</v>
+      </c>
+      <c r="BU52">
+        <v>0</v>
+      </c>
+      <c r="BV52">
+        <v>0</v>
+      </c>
+      <c r="BW52">
+        <v>0</v>
+      </c>
+      <c r="BX52">
+        <v>2</v>
+      </c>
+      <c r="BY52">
+        <v>2</v>
+      </c>
+      <c r="BZ52">
+        <v>0</v>
+      </c>
+      <c r="CA52">
+        <v>0</v>
+      </c>
+      <c r="CB52">
+        <v>0</v>
+      </c>
+      <c r="CC52">
+        <v>0</v>
+      </c>
+      <c r="CD52">
+        <v>0</v>
+      </c>
+      <c r="CE52">
+        <v>0</v>
+      </c>
+      <c r="CF52">
+        <v>2</v>
+      </c>
+      <c r="CG52">
+        <v>0</v>
+      </c>
+      <c r="CH52">
+        <v>0</v>
+      </c>
+      <c r="CI52">
+        <v>0</v>
+      </c>
+      <c r="CJ52">
+        <v>0</v>
+      </c>
+      <c r="CK52">
+        <v>0</v>
+      </c>
+      <c r="CL52">
+        <v>0</v>
+      </c>
+      <c r="CM52">
+        <v>0</v>
+      </c>
+      <c r="CN52">
+        <v>0</v>
+      </c>
+      <c r="CO52">
+        <v>0</v>
+      </c>
+      <c r="CP52">
+        <v>0</v>
+      </c>
+      <c r="CQ52">
+        <v>0</v>
+      </c>
+      <c r="CR52">
+        <v>0</v>
+      </c>
+      <c r="CS52">
+        <v>0</v>
+      </c>
+      <c r="CT52">
+        <v>0</v>
+      </c>
+      <c r="CU52">
+        <v>2</v>
+      </c>
+      <c r="CV52">
+        <v>0</v>
+      </c>
+      <c r="CW52">
+        <v>6</v>
+      </c>
+      <c r="CX52">
+        <v>0</v>
+      </c>
+      <c r="CY52">
+        <v>0</v>
+      </c>
+      <c r="CZ52">
+        <v>3</v>
+      </c>
+      <c r="DA52">
+        <v>0</v>
+      </c>
+      <c r="DB52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>107</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>8</v>
+      </c>
+      <c r="P53">
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>10</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <v>5</v>
+      </c>
+      <c r="W53">
+        <v>2</v>
+      </c>
+      <c r="X53">
+        <v>4</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>9</v>
+      </c>
+      <c r="AA53">
+        <v>9</v>
+      </c>
+      <c r="AB53">
+        <v>15</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>4</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>9</v>
+      </c>
+      <c r="AK53">
+        <v>4</v>
+      </c>
+      <c r="AL53">
+        <v>5</v>
+      </c>
+      <c r="AM53">
+        <v>2</v>
+      </c>
+      <c r="AN53">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>94</v>
+      </c>
+      <c r="AQ53">
+        <v>2</v>
+      </c>
+      <c r="AR53">
+        <v>4</v>
+      </c>
+      <c r="AS53">
+        <v>7</v>
+      </c>
+      <c r="AT53">
+        <v>5</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>2</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>3</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>5</v>
+      </c>
+      <c r="BJ53">
+        <v>2</v>
+      </c>
+      <c r="BK53">
+        <v>4</v>
+      </c>
+      <c r="BL53">
+        <v>3</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+      <c r="BQ53">
+        <v>2</v>
+      </c>
+      <c r="BR53">
+        <v>0</v>
+      </c>
+      <c r="BS53">
+        <v>0</v>
+      </c>
+      <c r="BT53">
+        <v>0</v>
+      </c>
+      <c r="BU53">
+        <v>0</v>
+      </c>
+      <c r="BV53">
+        <v>0</v>
+      </c>
+      <c r="BW53">
+        <v>0</v>
+      </c>
+      <c r="BX53">
+        <v>2</v>
+      </c>
+      <c r="BY53">
+        <v>2</v>
+      </c>
+      <c r="BZ53">
+        <v>0</v>
+      </c>
+      <c r="CA53">
+        <v>0</v>
+      </c>
+      <c r="CB53">
+        <v>0</v>
+      </c>
+      <c r="CC53">
+        <v>0</v>
+      </c>
+      <c r="CD53">
+        <v>0</v>
+      </c>
+      <c r="CE53">
+        <v>0</v>
+      </c>
+      <c r="CF53">
+        <v>2</v>
+      </c>
+      <c r="CG53">
+        <v>0</v>
+      </c>
+      <c r="CH53">
+        <v>0</v>
+      </c>
+      <c r="CI53">
+        <v>0</v>
+      </c>
+      <c r="CJ53">
+        <v>0</v>
+      </c>
+      <c r="CK53">
+        <v>0</v>
+      </c>
+      <c r="CL53">
+        <v>0</v>
+      </c>
+      <c r="CM53">
+        <v>0</v>
+      </c>
+      <c r="CN53">
+        <v>0</v>
+      </c>
+      <c r="CO53">
+        <v>0</v>
+      </c>
+      <c r="CP53">
+        <v>0</v>
+      </c>
+      <c r="CQ53">
+        <v>0</v>
+      </c>
+      <c r="CR53">
+        <v>0</v>
+      </c>
+      <c r="CS53">
+        <v>0</v>
+      </c>
+      <c r="CT53">
+        <v>0</v>
+      </c>
+      <c r="CU53">
+        <v>2</v>
+      </c>
+      <c r="CV53">
+        <v>0</v>
+      </c>
+      <c r="CW53">
+        <v>6</v>
+      </c>
+      <c r="CX53">
+        <v>0</v>
+      </c>
+      <c r="CY53">
+        <v>0</v>
+      </c>
+      <c r="CZ53">
+        <v>3</v>
+      </c>
+      <c r="DA53">
+        <v>0</v>
+      </c>
+      <c r="DB53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>109</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>8</v>
+      </c>
+      <c r="P54">
+        <v>4</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>10</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
+        <v>5</v>
+      </c>
+      <c r="W54">
+        <v>2</v>
+      </c>
+      <c r="X54">
+        <v>4</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>9</v>
+      </c>
+      <c r="AA54">
+        <v>9</v>
+      </c>
+      <c r="AB54">
+        <v>15</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>4</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>8</v>
+      </c>
+      <c r="AK54">
+        <v>4</v>
+      </c>
+      <c r="AL54">
+        <v>5</v>
+      </c>
+      <c r="AM54">
+        <v>2</v>
+      </c>
+      <c r="AN54">
+        <v>3</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>94</v>
+      </c>
+      <c r="AQ54">
+        <v>2</v>
+      </c>
+      <c r="AR54">
+        <v>4</v>
+      </c>
+      <c r="AS54">
+        <v>7</v>
+      </c>
+      <c r="AT54">
+        <v>5</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>5</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>2</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>3</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>5</v>
+      </c>
+      <c r="BJ54">
+        <v>2</v>
+      </c>
+      <c r="BK54">
+        <v>4</v>
+      </c>
+      <c r="BL54">
+        <v>3</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
+      <c r="BQ54">
+        <v>2</v>
+      </c>
+      <c r="BR54">
+        <v>0</v>
+      </c>
+      <c r="BS54">
+        <v>0</v>
+      </c>
+      <c r="BT54">
+        <v>0</v>
+      </c>
+      <c r="BU54">
+        <v>0</v>
+      </c>
+      <c r="BV54">
+        <v>0</v>
+      </c>
+      <c r="BW54">
+        <v>0</v>
+      </c>
+      <c r="BX54">
+        <v>2</v>
+      </c>
+      <c r="BY54">
+        <v>2</v>
+      </c>
+      <c r="BZ54">
+        <v>0</v>
+      </c>
+      <c r="CA54">
+        <v>0</v>
+      </c>
+      <c r="CB54">
+        <v>0</v>
+      </c>
+      <c r="CC54">
+        <v>0</v>
+      </c>
+      <c r="CD54">
+        <v>0</v>
+      </c>
+      <c r="CE54">
+        <v>0</v>
+      </c>
+      <c r="CF54">
+        <v>2</v>
+      </c>
+      <c r="CG54">
+        <v>0</v>
+      </c>
+      <c r="CH54">
+        <v>0</v>
+      </c>
+      <c r="CI54">
+        <v>0</v>
+      </c>
+      <c r="CJ54">
+        <v>1</v>
+      </c>
+      <c r="CK54">
+        <v>0</v>
+      </c>
+      <c r="CL54">
+        <v>0</v>
+      </c>
+      <c r="CM54">
+        <v>0</v>
+      </c>
+      <c r="CN54">
+        <v>0</v>
+      </c>
+      <c r="CO54">
+        <v>0</v>
+      </c>
+      <c r="CP54">
+        <v>0</v>
+      </c>
+      <c r="CQ54">
+        <v>0</v>
+      </c>
+      <c r="CR54">
+        <v>0</v>
+      </c>
+      <c r="CS54">
+        <v>0</v>
+      </c>
+      <c r="CT54">
+        <v>0</v>
+      </c>
+      <c r="CU54">
+        <v>2</v>
+      </c>
+      <c r="CV54">
+        <v>0</v>
+      </c>
+      <c r="CW54">
+        <v>6</v>
+      </c>
+      <c r="CX54">
+        <v>0</v>
+      </c>
+      <c r="CY54">
+        <v>0</v>
+      </c>
+      <c r="CZ54">
+        <v>3</v>
+      </c>
+      <c r="DA54">
+        <v>0</v>
+      </c>
+      <c r="DB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>110</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>8</v>
+      </c>
+      <c r="P55">
+        <v>4</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="R55">
+        <v>10</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
+        <v>5</v>
+      </c>
+      <c r="W55">
+        <v>2</v>
+      </c>
+      <c r="X55">
+        <v>4</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>9</v>
+      </c>
+      <c r="AA55">
+        <v>9</v>
+      </c>
+      <c r="AB55">
+        <v>15</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>4</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>8</v>
+      </c>
+      <c r="AK55">
+        <v>4</v>
+      </c>
+      <c r="AL55">
+        <v>5</v>
+      </c>
+      <c r="AM55">
+        <v>2</v>
+      </c>
+      <c r="AN55">
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>94</v>
+      </c>
+      <c r="AQ55">
+        <v>2</v>
+      </c>
+      <c r="AR55">
+        <v>4</v>
+      </c>
+      <c r="AS55">
+        <v>7</v>
+      </c>
+      <c r="AT55">
+        <v>5</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>5</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>2</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <v>3</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>5</v>
+      </c>
+      <c r="BJ55">
+        <v>2</v>
+      </c>
+      <c r="BK55">
+        <v>4</v>
+      </c>
+      <c r="BL55">
+        <v>3</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
+      <c r="BQ55">
+        <v>2</v>
+      </c>
+      <c r="BR55">
+        <v>0</v>
+      </c>
+      <c r="BS55">
+        <v>0</v>
+      </c>
+      <c r="BT55">
+        <v>0</v>
+      </c>
+      <c r="BU55">
+        <v>0</v>
+      </c>
+      <c r="BV55">
+        <v>0</v>
+      </c>
+      <c r="BW55">
+        <v>0</v>
+      </c>
+      <c r="BX55">
+        <v>2</v>
+      </c>
+      <c r="BY55">
+        <v>2</v>
+      </c>
+      <c r="BZ55">
+        <v>0</v>
+      </c>
+      <c r="CA55">
+        <v>0</v>
+      </c>
+      <c r="CB55">
+        <v>0</v>
+      </c>
+      <c r="CC55">
+        <v>1</v>
+      </c>
+      <c r="CD55">
+        <v>0</v>
+      </c>
+      <c r="CE55">
+        <v>0</v>
+      </c>
+      <c r="CF55">
+        <v>2</v>
+      </c>
+      <c r="CG55">
+        <v>0</v>
+      </c>
+      <c r="CH55">
+        <v>0</v>
+      </c>
+      <c r="CI55">
+        <v>0</v>
+      </c>
+      <c r="CJ55">
+        <v>0</v>
+      </c>
+      <c r="CK55">
+        <v>0</v>
+      </c>
+      <c r="CL55">
+        <v>0</v>
+      </c>
+      <c r="CM55">
+        <v>0</v>
+      </c>
+      <c r="CN55">
+        <v>0</v>
+      </c>
+      <c r="CO55">
+        <v>0</v>
+      </c>
+      <c r="CP55">
+        <v>0</v>
+      </c>
+      <c r="CQ55">
+        <v>0</v>
+      </c>
+      <c r="CR55">
+        <v>0</v>
+      </c>
+      <c r="CS55">
+        <v>0</v>
+      </c>
+      <c r="CT55">
+        <v>0</v>
+      </c>
+      <c r="CU55">
+        <v>2</v>
+      </c>
+      <c r="CV55">
+        <v>0</v>
+      </c>
+      <c r="CW55">
+        <v>6</v>
+      </c>
+      <c r="CX55">
+        <v>0</v>
+      </c>
+      <c r="CY55">
+        <v>0</v>
+      </c>
+      <c r="CZ55">
+        <v>3</v>
+      </c>
+      <c r="DA55">
+        <v>0</v>
+      </c>
+      <c r="DB55">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -701,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB55"/>
+  <dimension ref="A1:DB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18312,6 +18312,966 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>110</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>8</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>10</v>
+      </c>
+      <c r="S56">
+        <v>4</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>5</v>
+      </c>
+      <c r="W56">
+        <v>2</v>
+      </c>
+      <c r="X56">
+        <v>4</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>9</v>
+      </c>
+      <c r="AA56">
+        <v>9</v>
+      </c>
+      <c r="AB56">
+        <v>15</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>4</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>8</v>
+      </c>
+      <c r="AK56">
+        <v>4</v>
+      </c>
+      <c r="AL56">
+        <v>5</v>
+      </c>
+      <c r="AM56">
+        <v>2</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>94</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AR56">
+        <v>4</v>
+      </c>
+      <c r="AS56">
+        <v>7</v>
+      </c>
+      <c r="AT56">
+        <v>5</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+      <c r="BD56">
+        <v>3</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>5</v>
+      </c>
+      <c r="BJ56">
+        <v>2</v>
+      </c>
+      <c r="BK56">
+        <v>4</v>
+      </c>
+      <c r="BL56">
+        <v>3</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+      <c r="BQ56">
+        <v>2</v>
+      </c>
+      <c r="BR56">
+        <v>0</v>
+      </c>
+      <c r="BS56">
+        <v>0</v>
+      </c>
+      <c r="BT56">
+        <v>0</v>
+      </c>
+      <c r="BU56">
+        <v>0</v>
+      </c>
+      <c r="BV56">
+        <v>1</v>
+      </c>
+      <c r="BW56">
+        <v>0</v>
+      </c>
+      <c r="BX56">
+        <v>2</v>
+      </c>
+      <c r="BY56">
+        <v>2</v>
+      </c>
+      <c r="BZ56">
+        <v>0</v>
+      </c>
+      <c r="CA56">
+        <v>0</v>
+      </c>
+      <c r="CB56">
+        <v>0</v>
+      </c>
+      <c r="CC56">
+        <v>0</v>
+      </c>
+      <c r="CD56">
+        <v>0</v>
+      </c>
+      <c r="CE56">
+        <v>0</v>
+      </c>
+      <c r="CF56">
+        <v>2</v>
+      </c>
+      <c r="CG56">
+        <v>0</v>
+      </c>
+      <c r="CH56">
+        <v>0</v>
+      </c>
+      <c r="CI56">
+        <v>0</v>
+      </c>
+      <c r="CJ56">
+        <v>0</v>
+      </c>
+      <c r="CK56">
+        <v>0</v>
+      </c>
+      <c r="CL56">
+        <v>0</v>
+      </c>
+      <c r="CM56">
+        <v>0</v>
+      </c>
+      <c r="CN56">
+        <v>0</v>
+      </c>
+      <c r="CO56">
+        <v>0</v>
+      </c>
+      <c r="CP56">
+        <v>0</v>
+      </c>
+      <c r="CQ56">
+        <v>0</v>
+      </c>
+      <c r="CR56">
+        <v>0</v>
+      </c>
+      <c r="CS56">
+        <v>0</v>
+      </c>
+      <c r="CT56">
+        <v>0</v>
+      </c>
+      <c r="CU56">
+        <v>2</v>
+      </c>
+      <c r="CV56">
+        <v>0</v>
+      </c>
+      <c r="CW56">
+        <v>6</v>
+      </c>
+      <c r="CX56">
+        <v>0</v>
+      </c>
+      <c r="CY56">
+        <v>0</v>
+      </c>
+      <c r="CZ56">
+        <v>3</v>
+      </c>
+      <c r="DA56">
+        <v>0</v>
+      </c>
+      <c r="DB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>110</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>8</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="R57">
+        <v>10</v>
+      </c>
+      <c r="S57">
+        <v>4</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>5</v>
+      </c>
+      <c r="W57">
+        <v>2</v>
+      </c>
+      <c r="X57">
+        <v>4</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>9</v>
+      </c>
+      <c r="AA57">
+        <v>9</v>
+      </c>
+      <c r="AB57">
+        <v>15</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>4</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>8</v>
+      </c>
+      <c r="AK57">
+        <v>4</v>
+      </c>
+      <c r="AL57">
+        <v>5</v>
+      </c>
+      <c r="AM57">
+        <v>2</v>
+      </c>
+      <c r="AN57">
+        <v>3</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>94</v>
+      </c>
+      <c r="AQ57">
+        <v>2</v>
+      </c>
+      <c r="AR57">
+        <v>4</v>
+      </c>
+      <c r="AS57">
+        <v>7</v>
+      </c>
+      <c r="AT57">
+        <v>5</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>5</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>2</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
+        <v>0</v>
+      </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
+      <c r="BD57">
+        <v>3</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>5</v>
+      </c>
+      <c r="BJ57">
+        <v>2</v>
+      </c>
+      <c r="BK57">
+        <v>4</v>
+      </c>
+      <c r="BL57">
+        <v>3</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+      <c r="BQ57">
+        <v>2</v>
+      </c>
+      <c r="BR57">
+        <v>0</v>
+      </c>
+      <c r="BS57">
+        <v>0</v>
+      </c>
+      <c r="BT57">
+        <v>0</v>
+      </c>
+      <c r="BU57">
+        <v>0</v>
+      </c>
+      <c r="BV57">
+        <v>1</v>
+      </c>
+      <c r="BW57">
+        <v>0</v>
+      </c>
+      <c r="BX57">
+        <v>2</v>
+      </c>
+      <c r="BY57">
+        <v>2</v>
+      </c>
+      <c r="BZ57">
+        <v>0</v>
+      </c>
+      <c r="CA57">
+        <v>0</v>
+      </c>
+      <c r="CB57">
+        <v>0</v>
+      </c>
+      <c r="CC57">
+        <v>0</v>
+      </c>
+      <c r="CD57">
+        <v>0</v>
+      </c>
+      <c r="CE57">
+        <v>0</v>
+      </c>
+      <c r="CF57">
+        <v>2</v>
+      </c>
+      <c r="CG57">
+        <v>0</v>
+      </c>
+      <c r="CH57">
+        <v>0</v>
+      </c>
+      <c r="CI57">
+        <v>0</v>
+      </c>
+      <c r="CJ57">
+        <v>0</v>
+      </c>
+      <c r="CK57">
+        <v>0</v>
+      </c>
+      <c r="CL57">
+        <v>0</v>
+      </c>
+      <c r="CM57">
+        <v>0</v>
+      </c>
+      <c r="CN57">
+        <v>0</v>
+      </c>
+      <c r="CO57">
+        <v>0</v>
+      </c>
+      <c r="CP57">
+        <v>0</v>
+      </c>
+      <c r="CQ57">
+        <v>0</v>
+      </c>
+      <c r="CR57">
+        <v>0</v>
+      </c>
+      <c r="CS57">
+        <v>0</v>
+      </c>
+      <c r="CT57">
+        <v>0</v>
+      </c>
+      <c r="CU57">
+        <v>2</v>
+      </c>
+      <c r="CV57">
+        <v>0</v>
+      </c>
+      <c r="CW57">
+        <v>6</v>
+      </c>
+      <c r="CX57">
+        <v>0</v>
+      </c>
+      <c r="CY57">
+        <v>0</v>
+      </c>
+      <c r="CZ57">
+        <v>3</v>
+      </c>
+      <c r="DA57">
+        <v>0</v>
+      </c>
+      <c r="DB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>110</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>8</v>
+      </c>
+      <c r="P58">
+        <v>4</v>
+      </c>
+      <c r="Q58">
+        <v>3</v>
+      </c>
+      <c r="R58">
+        <v>9</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <v>5</v>
+      </c>
+      <c r="W58">
+        <v>2</v>
+      </c>
+      <c r="X58">
+        <v>4</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>9</v>
+      </c>
+      <c r="AA58">
+        <v>9</v>
+      </c>
+      <c r="AB58">
+        <v>15</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>4</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>9</v>
+      </c>
+      <c r="AK58">
+        <v>5</v>
+      </c>
+      <c r="AL58">
+        <v>5</v>
+      </c>
+      <c r="AM58">
+        <v>2</v>
+      </c>
+      <c r="AN58">
+        <v>3</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>94</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>4</v>
+      </c>
+      <c r="AS58">
+        <v>7</v>
+      </c>
+      <c r="AT58">
+        <v>5</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
+      <c r="AX58">
+        <v>2</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>0</v>
+      </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
+      <c r="BD58">
+        <v>2</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>2</v>
+      </c>
+      <c r="BI58">
+        <v>5</v>
+      </c>
+      <c r="BJ58">
+        <v>2</v>
+      </c>
+      <c r="BK58">
+        <v>4</v>
+      </c>
+      <c r="BL58">
+        <v>3</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+      <c r="BQ58">
+        <v>2</v>
+      </c>
+      <c r="BR58">
+        <v>0</v>
+      </c>
+      <c r="BS58">
+        <v>0</v>
+      </c>
+      <c r="BT58">
+        <v>0</v>
+      </c>
+      <c r="BU58">
+        <v>0</v>
+      </c>
+      <c r="BV58">
+        <v>0</v>
+      </c>
+      <c r="BW58">
+        <v>0</v>
+      </c>
+      <c r="BX58">
+        <v>2</v>
+      </c>
+      <c r="BY58">
+        <v>2</v>
+      </c>
+      <c r="BZ58">
+        <v>0</v>
+      </c>
+      <c r="CA58">
+        <v>0</v>
+      </c>
+      <c r="CB58">
+        <v>0</v>
+      </c>
+      <c r="CC58">
+        <v>0</v>
+      </c>
+      <c r="CD58">
+        <v>0</v>
+      </c>
+      <c r="CE58">
+        <v>0</v>
+      </c>
+      <c r="CF58">
+        <v>2</v>
+      </c>
+      <c r="CG58">
+        <v>0</v>
+      </c>
+      <c r="CH58">
+        <v>0</v>
+      </c>
+      <c r="CI58">
+        <v>0</v>
+      </c>
+      <c r="CJ58">
+        <v>0</v>
+      </c>
+      <c r="CK58">
+        <v>0</v>
+      </c>
+      <c r="CL58">
+        <v>0</v>
+      </c>
+      <c r="CM58">
+        <v>0</v>
+      </c>
+      <c r="CN58">
+        <v>0</v>
+      </c>
+      <c r="CO58">
+        <v>0</v>
+      </c>
+      <c r="CP58">
+        <v>0</v>
+      </c>
+      <c r="CQ58">
+        <v>0</v>
+      </c>
+      <c r="CR58">
+        <v>0</v>
+      </c>
+      <c r="CS58">
+        <v>0</v>
+      </c>
+      <c r="CT58">
+        <v>0</v>
+      </c>
+      <c r="CU58">
+        <v>2</v>
+      </c>
+      <c r="CV58">
+        <v>0</v>
+      </c>
+      <c r="CW58">
+        <v>6</v>
+      </c>
+      <c r="CX58">
+        <v>0</v>
+      </c>
+      <c r="CY58">
+        <v>0</v>
+      </c>
+      <c r="CZ58">
+        <v>3</v>
+      </c>
+      <c r="DA58">
+        <v>2</v>
+      </c>
+      <c r="DB58">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -701,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB58"/>
+  <dimension ref="A1:DB59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19272,6 +19272,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="59" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -704,7 +704,7 @@
   <dimension ref="A1:DB59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19273,7 +19273,324 @@
       </c>
     </row>
     <row r="59" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>109</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>8</v>
+      </c>
+      <c r="P59">
+        <v>4</v>
+      </c>
+      <c r="Q59">
+        <v>3</v>
+      </c>
+      <c r="R59">
+        <v>9</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
+        <v>5</v>
+      </c>
+      <c r="W59">
+        <v>2</v>
+      </c>
+      <c r="X59">
+        <v>4</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>9</v>
+      </c>
+      <c r="AA59">
+        <v>9</v>
+      </c>
+      <c r="AB59">
+        <v>15</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>4</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>9</v>
+      </c>
+      <c r="AK59">
+        <v>5</v>
+      </c>
+      <c r="AL59">
+        <v>5</v>
+      </c>
+      <c r="AM59">
+        <v>2</v>
+      </c>
+      <c r="AN59">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>95</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>4</v>
+      </c>
+      <c r="AS59">
+        <v>7</v>
+      </c>
+      <c r="AT59">
+        <v>5</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <v>5</v>
+      </c>
+      <c r="AW59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <v>2</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
+        <v>0</v>
+      </c>
+      <c r="BA59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>0</v>
+      </c>
+      <c r="BD59">
+        <v>2</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>2</v>
+      </c>
+      <c r="BI59">
+        <v>5</v>
+      </c>
+      <c r="BJ59">
+        <v>2</v>
+      </c>
+      <c r="BK59">
+        <v>4</v>
+      </c>
+      <c r="BL59">
+        <v>3</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
+      </c>
+      <c r="BQ59">
+        <v>2</v>
+      </c>
+      <c r="BR59">
+        <v>0</v>
+      </c>
+      <c r="BS59">
+        <v>0</v>
+      </c>
+      <c r="BT59">
+        <v>0</v>
+      </c>
+      <c r="BU59">
+        <v>0</v>
+      </c>
+      <c r="BV59">
+        <v>0</v>
+      </c>
+      <c r="BW59">
+        <v>0</v>
+      </c>
+      <c r="BX59">
+        <v>2</v>
+      </c>
+      <c r="BY59">
+        <v>2</v>
+      </c>
+      <c r="BZ59">
+        <v>0</v>
+      </c>
+      <c r="CA59">
+        <v>0</v>
+      </c>
+      <c r="CB59">
+        <v>0</v>
+      </c>
+      <c r="CC59">
+        <v>0</v>
+      </c>
+      <c r="CD59">
+        <v>0</v>
+      </c>
+      <c r="CE59">
+        <v>0</v>
+      </c>
+      <c r="CF59">
+        <v>2</v>
+      </c>
+      <c r="CG59">
+        <v>0</v>
+      </c>
+      <c r="CH59">
+        <v>0</v>
+      </c>
+      <c r="CI59">
+        <v>0</v>
+      </c>
+      <c r="CJ59">
+        <v>0</v>
+      </c>
+      <c r="CK59">
+        <v>0</v>
+      </c>
+      <c r="CL59">
+        <v>0</v>
+      </c>
+      <c r="CM59">
+        <v>0</v>
+      </c>
+      <c r="CN59">
+        <v>0</v>
+      </c>
+      <c r="CO59">
+        <v>0</v>
+      </c>
+      <c r="CP59">
+        <v>0</v>
+      </c>
+      <c r="CQ59">
+        <v>0</v>
+      </c>
+      <c r="CR59">
+        <v>0</v>
+      </c>
+      <c r="CS59">
+        <v>0</v>
+      </c>
+      <c r="CT59">
+        <v>0</v>
+      </c>
+      <c r="CU59">
+        <v>2</v>
+      </c>
+      <c r="CV59">
+        <v>0</v>
+      </c>
+      <c r="CW59">
+        <v>6</v>
+      </c>
+      <c r="CX59">
+        <v>0</v>
+      </c>
+      <c r="CY59">
+        <v>0</v>
+      </c>
+      <c r="CZ59">
+        <v>3</v>
+      </c>
+      <c r="DA59">
+        <v>2</v>
+      </c>
+      <c r="DB59">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -701,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB59"/>
+  <dimension ref="A1:DB60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19592,6 +19592,326 @@
         <v>0</v>
       </c>
     </row>
+    <row r="60" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>108</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>8</v>
+      </c>
+      <c r="P60">
+        <v>4</v>
+      </c>
+      <c r="Q60">
+        <v>3</v>
+      </c>
+      <c r="R60">
+        <v>9</v>
+      </c>
+      <c r="S60">
+        <v>4</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
+      <c r="V60">
+        <v>5</v>
+      </c>
+      <c r="W60">
+        <v>2</v>
+      </c>
+      <c r="X60">
+        <v>4</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>9</v>
+      </c>
+      <c r="AA60">
+        <v>9</v>
+      </c>
+      <c r="AB60">
+        <v>15</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>4</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>9</v>
+      </c>
+      <c r="AK60">
+        <v>5</v>
+      </c>
+      <c r="AL60">
+        <v>5</v>
+      </c>
+      <c r="AM60">
+        <v>2</v>
+      </c>
+      <c r="AN60">
+        <v>3</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>95</v>
+      </c>
+      <c r="AQ60">
+        <v>2</v>
+      </c>
+      <c r="AR60">
+        <v>4</v>
+      </c>
+      <c r="AS60">
+        <v>7</v>
+      </c>
+      <c r="AT60">
+        <v>5</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>0</v>
+      </c>
+      <c r="AX60">
+        <v>2</v>
+      </c>
+      <c r="AY60">
+        <v>0</v>
+      </c>
+      <c r="AZ60">
+        <v>0</v>
+      </c>
+      <c r="BA60">
+        <v>0</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>0</v>
+      </c>
+      <c r="BD60">
+        <v>2</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>2</v>
+      </c>
+      <c r="BI60">
+        <v>5</v>
+      </c>
+      <c r="BJ60">
+        <v>2</v>
+      </c>
+      <c r="BK60">
+        <v>4</v>
+      </c>
+      <c r="BL60">
+        <v>3</v>
+      </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+      <c r="BN60">
+        <v>0</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
+        <v>0</v>
+      </c>
+      <c r="BQ60">
+        <v>2</v>
+      </c>
+      <c r="BR60">
+        <v>0</v>
+      </c>
+      <c r="BS60">
+        <v>0</v>
+      </c>
+      <c r="BT60">
+        <v>0</v>
+      </c>
+      <c r="BU60">
+        <v>0</v>
+      </c>
+      <c r="BV60">
+        <v>0</v>
+      </c>
+      <c r="BW60">
+        <v>0</v>
+      </c>
+      <c r="BX60">
+        <v>2</v>
+      </c>
+      <c r="BY60">
+        <v>2</v>
+      </c>
+      <c r="BZ60">
+        <v>0</v>
+      </c>
+      <c r="CA60">
+        <v>0</v>
+      </c>
+      <c r="CB60">
+        <v>0</v>
+      </c>
+      <c r="CC60">
+        <v>0</v>
+      </c>
+      <c r="CD60">
+        <v>0</v>
+      </c>
+      <c r="CE60">
+        <v>0</v>
+      </c>
+      <c r="CF60">
+        <v>2</v>
+      </c>
+      <c r="CG60">
+        <v>0</v>
+      </c>
+      <c r="CH60">
+        <v>0</v>
+      </c>
+      <c r="CI60">
+        <v>0</v>
+      </c>
+      <c r="CJ60">
+        <v>0</v>
+      </c>
+      <c r="CK60">
+        <v>0</v>
+      </c>
+      <c r="CL60">
+        <v>0</v>
+      </c>
+      <c r="CM60">
+        <v>0</v>
+      </c>
+      <c r="CN60">
+        <v>0</v>
+      </c>
+      <c r="CO60">
+        <v>0</v>
+      </c>
+      <c r="CP60">
+        <v>0</v>
+      </c>
+      <c r="CQ60">
+        <v>0</v>
+      </c>
+      <c r="CR60">
+        <v>0</v>
+      </c>
+      <c r="CS60">
+        <v>0</v>
+      </c>
+      <c r="CT60">
+        <v>0</v>
+      </c>
+      <c r="CU60">
+        <v>0</v>
+      </c>
+      <c r="CV60">
+        <v>0</v>
+      </c>
+      <c r="CW60">
+        <v>6</v>
+      </c>
+      <c r="CX60">
+        <v>0</v>
+      </c>
+      <c r="CY60">
+        <v>0</v>
+      </c>
+      <c r="CZ60">
+        <v>3</v>
+      </c>
+      <c r="DA60">
+        <v>2</v>
+      </c>
+      <c r="DB60">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -701,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB60"/>
+  <dimension ref="A1:DB61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19912,6 +19912,326 @@
         <v>0</v>
       </c>
     </row>
+    <row r="61" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>108</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>8</v>
+      </c>
+      <c r="P61">
+        <v>4</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>9</v>
+      </c>
+      <c r="S61">
+        <v>4</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="V61">
+        <v>5</v>
+      </c>
+      <c r="W61">
+        <v>2</v>
+      </c>
+      <c r="X61">
+        <v>4</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>9</v>
+      </c>
+      <c r="AA61">
+        <v>9</v>
+      </c>
+      <c r="AB61">
+        <v>15</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>4</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>9</v>
+      </c>
+      <c r="AK61">
+        <v>4</v>
+      </c>
+      <c r="AL61">
+        <v>5</v>
+      </c>
+      <c r="AM61">
+        <v>2</v>
+      </c>
+      <c r="AN61">
+        <v>3</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>95</v>
+      </c>
+      <c r="AQ61">
+        <v>2</v>
+      </c>
+      <c r="AR61">
+        <v>4</v>
+      </c>
+      <c r="AS61">
+        <v>7</v>
+      </c>
+      <c r="AT61">
+        <v>5</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>0</v>
+      </c>
+      <c r="AX61">
+        <v>2</v>
+      </c>
+      <c r="AY61">
+        <v>0</v>
+      </c>
+      <c r="AZ61">
+        <v>0</v>
+      </c>
+      <c r="BA61">
+        <v>0</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
+        <v>0</v>
+      </c>
+      <c r="BD61">
+        <v>2</v>
+      </c>
+      <c r="BE61">
+        <v>0</v>
+      </c>
+      <c r="BF61">
+        <v>0</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>2</v>
+      </c>
+      <c r="BI61">
+        <v>5</v>
+      </c>
+      <c r="BJ61">
+        <v>2</v>
+      </c>
+      <c r="BK61">
+        <v>4</v>
+      </c>
+      <c r="BL61">
+        <v>3</v>
+      </c>
+      <c r="BM61">
+        <v>0</v>
+      </c>
+      <c r="BN61">
+        <v>0</v>
+      </c>
+      <c r="BO61">
+        <v>0</v>
+      </c>
+      <c r="BP61">
+        <v>0</v>
+      </c>
+      <c r="BQ61">
+        <v>2</v>
+      </c>
+      <c r="BR61">
+        <v>0</v>
+      </c>
+      <c r="BS61">
+        <v>0</v>
+      </c>
+      <c r="BT61">
+        <v>0</v>
+      </c>
+      <c r="BU61">
+        <v>0</v>
+      </c>
+      <c r="BV61">
+        <v>0</v>
+      </c>
+      <c r="BW61">
+        <v>0</v>
+      </c>
+      <c r="BX61">
+        <v>2</v>
+      </c>
+      <c r="BY61">
+        <v>2</v>
+      </c>
+      <c r="BZ61">
+        <v>0</v>
+      </c>
+      <c r="CA61">
+        <v>0</v>
+      </c>
+      <c r="CB61">
+        <v>0</v>
+      </c>
+      <c r="CC61">
+        <v>0</v>
+      </c>
+      <c r="CD61">
+        <v>0</v>
+      </c>
+      <c r="CE61">
+        <v>0</v>
+      </c>
+      <c r="CF61">
+        <v>2</v>
+      </c>
+      <c r="CG61">
+        <v>0</v>
+      </c>
+      <c r="CH61">
+        <v>0</v>
+      </c>
+      <c r="CI61">
+        <v>0</v>
+      </c>
+      <c r="CJ61">
+        <v>0</v>
+      </c>
+      <c r="CK61">
+        <v>0</v>
+      </c>
+      <c r="CL61">
+        <v>0</v>
+      </c>
+      <c r="CM61">
+        <v>0</v>
+      </c>
+      <c r="CN61">
+        <v>0</v>
+      </c>
+      <c r="CO61">
+        <v>0</v>
+      </c>
+      <c r="CP61">
+        <v>0</v>
+      </c>
+      <c r="CQ61">
+        <v>0</v>
+      </c>
+      <c r="CR61">
+        <v>0</v>
+      </c>
+      <c r="CS61">
+        <v>0</v>
+      </c>
+      <c r="CT61">
+        <v>0</v>
+      </c>
+      <c r="CU61">
+        <v>2</v>
+      </c>
+      <c r="CV61">
+        <v>0</v>
+      </c>
+      <c r="CW61">
+        <v>6</v>
+      </c>
+      <c r="CX61">
+        <v>0</v>
+      </c>
+      <c r="CY61">
+        <v>0</v>
+      </c>
+      <c r="CZ61">
+        <v>3</v>
+      </c>
+      <c r="DA61">
+        <v>2</v>
+      </c>
+      <c r="DB61">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -701,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB61"/>
+  <dimension ref="A1:DB62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20232,6 +20232,326 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>108</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>8</v>
+      </c>
+      <c r="P62">
+        <v>4</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>9</v>
+      </c>
+      <c r="S62">
+        <v>4</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
+        <v>5</v>
+      </c>
+      <c r="W62">
+        <v>2</v>
+      </c>
+      <c r="X62">
+        <v>4</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>9</v>
+      </c>
+      <c r="AA62">
+        <v>9</v>
+      </c>
+      <c r="AB62">
+        <v>15</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>4</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>9</v>
+      </c>
+      <c r="AK62">
+        <v>4</v>
+      </c>
+      <c r="AL62">
+        <v>5</v>
+      </c>
+      <c r="AM62">
+        <v>2</v>
+      </c>
+      <c r="AN62">
+        <v>3</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>95</v>
+      </c>
+      <c r="AQ62">
+        <v>2</v>
+      </c>
+      <c r="AR62">
+        <v>4</v>
+      </c>
+      <c r="AS62">
+        <v>7</v>
+      </c>
+      <c r="AT62">
+        <v>5</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62">
+        <v>0</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>0</v>
+      </c>
+      <c r="AZ62">
+        <v>0</v>
+      </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>0</v>
+      </c>
+      <c r="BD62">
+        <v>2</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>5</v>
+      </c>
+      <c r="BJ62">
+        <v>2</v>
+      </c>
+      <c r="BK62">
+        <v>4</v>
+      </c>
+      <c r="BL62">
+        <v>3</v>
+      </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
+      </c>
+      <c r="BQ62">
+        <v>2</v>
+      </c>
+      <c r="BR62">
+        <v>0</v>
+      </c>
+      <c r="BS62">
+        <v>0</v>
+      </c>
+      <c r="BT62">
+        <v>0</v>
+      </c>
+      <c r="BU62">
+        <v>0</v>
+      </c>
+      <c r="BV62">
+        <v>0</v>
+      </c>
+      <c r="BW62">
+        <v>0</v>
+      </c>
+      <c r="BX62">
+        <v>2</v>
+      </c>
+      <c r="BY62">
+        <v>2</v>
+      </c>
+      <c r="BZ62">
+        <v>0</v>
+      </c>
+      <c r="CA62">
+        <v>0</v>
+      </c>
+      <c r="CB62">
+        <v>0</v>
+      </c>
+      <c r="CC62">
+        <v>0</v>
+      </c>
+      <c r="CD62">
+        <v>0</v>
+      </c>
+      <c r="CE62">
+        <v>0</v>
+      </c>
+      <c r="CF62">
+        <v>2</v>
+      </c>
+      <c r="CG62">
+        <v>0</v>
+      </c>
+      <c r="CH62">
+        <v>0</v>
+      </c>
+      <c r="CI62">
+        <v>0</v>
+      </c>
+      <c r="CJ62">
+        <v>0</v>
+      </c>
+      <c r="CK62">
+        <v>0</v>
+      </c>
+      <c r="CL62">
+        <v>0</v>
+      </c>
+      <c r="CM62">
+        <v>0</v>
+      </c>
+      <c r="CN62">
+        <v>0</v>
+      </c>
+      <c r="CO62">
+        <v>0</v>
+      </c>
+      <c r="CP62">
+        <v>0</v>
+      </c>
+      <c r="CQ62">
+        <v>0</v>
+      </c>
+      <c r="CR62">
+        <v>0</v>
+      </c>
+      <c r="CS62">
+        <v>0</v>
+      </c>
+      <c r="CT62">
+        <v>0</v>
+      </c>
+      <c r="CU62">
+        <v>2</v>
+      </c>
+      <c r="CV62">
+        <v>0</v>
+      </c>
+      <c r="CW62">
+        <v>6</v>
+      </c>
+      <c r="CX62">
+        <v>0</v>
+      </c>
+      <c r="CY62">
+        <v>0</v>
+      </c>
+      <c r="CZ62">
+        <v>3</v>
+      </c>
+      <c r="DA62">
+        <v>2</v>
+      </c>
+      <c r="DB62">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="18720"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Zográfou, Greece</t>
+  </si>
+  <si>
+    <t>Acharne, Greece</t>
   </si>
 </sst>
 </file>
@@ -701,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB62"/>
+  <dimension ref="A1:DC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -712,7 +715,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1031,8 +1034,11 @@
       <c r="DB1" t="s">
         <v>105</v>
       </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43497</v>
       </c>
@@ -1351,8 +1357,11 @@
       <c r="DB2">
         <v>0</v>
       </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43498</v>
       </c>
@@ -1671,8 +1680,11 @@
       <c r="DB3">
         <v>0</v>
       </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43499</v>
       </c>
@@ -1991,8 +2003,11 @@
       <c r="DB4">
         <v>0</v>
       </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43500</v>
       </c>
@@ -2311,8 +2326,11 @@
       <c r="DB5">
         <v>0</v>
       </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43501</v>
       </c>
@@ -2631,8 +2649,11 @@
       <c r="DB6">
         <v>0</v>
       </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43502</v>
       </c>
@@ -2951,8 +2972,11 @@
       <c r="DB7">
         <v>0</v>
       </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43503</v>
       </c>
@@ -3271,8 +3295,11 @@
       <c r="DB8">
         <v>0</v>
       </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43504</v>
       </c>
@@ -3591,8 +3618,11 @@
       <c r="DB9">
         <v>0</v>
       </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43507</v>
       </c>
@@ -3911,8 +3941,11 @@
       <c r="DB10">
         <v>0</v>
       </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43507</v>
       </c>
@@ -4231,8 +4264,11 @@
       <c r="DB11">
         <v>0</v>
       </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43508</v>
       </c>
@@ -4551,8 +4587,11 @@
       <c r="DB12">
         <v>0</v>
       </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43509</v>
       </c>
@@ -4871,8 +4910,11 @@
       <c r="DB13">
         <v>0</v>
       </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43510</v>
       </c>
@@ -5191,8 +5233,11 @@
       <c r="DB14">
         <v>0</v>
       </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43512</v>
       </c>
@@ -5511,8 +5556,11 @@
       <c r="DB15">
         <v>0</v>
       </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43515</v>
       </c>
@@ -5831,8 +5879,11 @@
       <c r="DB16">
         <v>0</v>
       </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43519</v>
       </c>
@@ -6151,8 +6202,11 @@
       <c r="DB17">
         <v>0</v>
       </c>
+      <c r="DC17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43520</v>
       </c>
@@ -6471,8 +6525,11 @@
       <c r="DB18">
         <v>0</v>
       </c>
+      <c r="DC18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43521</v>
       </c>
@@ -6791,8 +6848,11 @@
       <c r="DB19">
         <v>0</v>
       </c>
+      <c r="DC19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43522</v>
       </c>
@@ -7111,8 +7171,11 @@
       <c r="DB20">
         <v>0</v>
       </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43523</v>
       </c>
@@ -7431,8 +7494,11 @@
       <c r="DB21">
         <v>0</v>
       </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43524</v>
       </c>
@@ -7751,8 +7817,11 @@
       <c r="DB22">
         <v>0</v>
       </c>
+      <c r="DC22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43525</v>
       </c>
@@ -8071,8 +8140,11 @@
       <c r="DB23">
         <v>0</v>
       </c>
+      <c r="DC23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43526</v>
       </c>
@@ -8391,8 +8463,11 @@
       <c r="DB24">
         <v>0</v>
       </c>
+      <c r="DC24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43527</v>
       </c>
@@ -8711,8 +8786,11 @@
       <c r="DB25">
         <v>0</v>
       </c>
+      <c r="DC25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43529</v>
       </c>
@@ -9031,8 +9109,11 @@
       <c r="DB26">
         <v>0</v>
       </c>
+      <c r="DC26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43530</v>
       </c>
@@ -9351,8 +9432,11 @@
       <c r="DB27">
         <v>0</v>
       </c>
+      <c r="DC27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43531</v>
       </c>
@@ -9671,8 +9755,11 @@
       <c r="DB28">
         <v>0</v>
       </c>
+      <c r="DC28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43532</v>
       </c>
@@ -9991,8 +10078,11 @@
       <c r="DB29">
         <v>0</v>
       </c>
+      <c r="DC29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43533</v>
       </c>
@@ -10311,8 +10401,11 @@
       <c r="DB30">
         <v>0</v>
       </c>
+      <c r="DC30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43534</v>
       </c>
@@ -10631,8 +10724,11 @@
       <c r="DB31">
         <v>0</v>
       </c>
+      <c r="DC31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43535</v>
       </c>
@@ -10951,8 +11047,11 @@
       <c r="DB32">
         <v>0</v>
       </c>
+      <c r="DC32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43536</v>
       </c>
@@ -11271,8 +11370,11 @@
       <c r="DB33">
         <v>0</v>
       </c>
+      <c r="DC33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43537</v>
       </c>
@@ -11591,8 +11693,11 @@
       <c r="DB34">
         <v>0</v>
       </c>
+      <c r="DC34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43538</v>
       </c>
@@ -11911,8 +12016,11 @@
       <c r="DB35">
         <v>0</v>
       </c>
+      <c r="DC35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43539</v>
       </c>
@@ -12231,8 +12339,11 @@
       <c r="DB36">
         <v>0</v>
       </c>
+      <c r="DC36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43540</v>
       </c>
@@ -12551,8 +12662,11 @@
       <c r="DB37">
         <v>0</v>
       </c>
+      <c r="DC37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43541</v>
       </c>
@@ -12871,8 +12985,11 @@
       <c r="DB38">
         <v>0</v>
       </c>
+      <c r="DC38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43542</v>
       </c>
@@ -13191,8 +13308,11 @@
       <c r="DB39">
         <v>0</v>
       </c>
+      <c r="DC39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43543</v>
       </c>
@@ -13511,8 +13631,11 @@
       <c r="DB40">
         <v>0</v>
       </c>
+      <c r="DC40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43544</v>
       </c>
@@ -13831,8 +13954,11 @@
       <c r="DB41">
         <v>0</v>
       </c>
+      <c r="DC41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43548</v>
       </c>
@@ -14151,8 +14277,11 @@
       <c r="DB42">
         <v>0</v>
       </c>
+      <c r="DC42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43549</v>
       </c>
@@ -14471,8 +14600,11 @@
       <c r="DB43">
         <v>0</v>
       </c>
+      <c r="DC43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43550</v>
       </c>
@@ -14791,8 +14923,11 @@
       <c r="DB44">
         <v>0</v>
       </c>
+      <c r="DC44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43554</v>
       </c>
@@ -15111,8 +15246,11 @@
       <c r="DB45">
         <v>0</v>
       </c>
+      <c r="DC45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43556</v>
       </c>
@@ -15431,8 +15569,11 @@
       <c r="DB46">
         <v>0</v>
       </c>
+      <c r="DC46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43557</v>
       </c>
@@ -15751,8 +15892,11 @@
       <c r="DB47">
         <v>0</v>
       </c>
+      <c r="DC47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43558</v>
       </c>
@@ -16071,8 +16215,11 @@
       <c r="DB48">
         <v>0</v>
       </c>
+      <c r="DC48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43559</v>
       </c>
@@ -16391,8 +16538,11 @@
       <c r="DB49">
         <v>0</v>
       </c>
+      <c r="DC49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43560</v>
       </c>
@@ -16711,8 +16861,11 @@
       <c r="DB50">
         <v>0</v>
       </c>
+      <c r="DC50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43561</v>
       </c>
@@ -17031,8 +17184,11 @@
       <c r="DB51">
         <v>0</v>
       </c>
+      <c r="DC51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43562</v>
       </c>
@@ -17351,8 +17507,11 @@
       <c r="DB52">
         <v>1</v>
       </c>
+      <c r="DC52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43563</v>
       </c>
@@ -17671,8 +17830,11 @@
       <c r="DB53">
         <v>1</v>
       </c>
+      <c r="DC53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43564</v>
       </c>
@@ -17991,8 +18153,11 @@
       <c r="DB54">
         <v>0</v>
       </c>
+      <c r="DC54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43565</v>
       </c>
@@ -18311,8 +18476,11 @@
       <c r="DB55">
         <v>0</v>
       </c>
+      <c r="DC55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43566</v>
       </c>
@@ -18631,8 +18799,11 @@
       <c r="DB56">
         <v>0</v>
       </c>
+      <c r="DC56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43567</v>
       </c>
@@ -18951,8 +19122,11 @@
       <c r="DB57">
         <v>0</v>
       </c>
+      <c r="DC57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43568</v>
       </c>
@@ -19271,8 +19445,11 @@
       <c r="DB58">
         <v>0</v>
       </c>
+      <c r="DC58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43569</v>
       </c>
@@ -19591,8 +19768,11 @@
       <c r="DB59">
         <v>0</v>
       </c>
+      <c r="DC59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43570</v>
       </c>
@@ -19911,8 +20091,11 @@
       <c r="DB60">
         <v>0</v>
       </c>
+      <c r="DC60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43571</v>
       </c>
@@ -20231,8 +20414,11 @@
       <c r="DB61">
         <v>0</v>
       </c>
+      <c r="DC61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43572</v>
       </c>
@@ -20549,6 +20735,1301 @@
         <v>2</v>
       </c>
       <c r="DB62">
+        <v>0</v>
+      </c>
+      <c r="DC62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>108</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>8</v>
+      </c>
+      <c r="P63">
+        <v>4</v>
+      </c>
+      <c r="Q63">
+        <v>3</v>
+      </c>
+      <c r="R63">
+        <v>9</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
+        <v>5</v>
+      </c>
+      <c r="W63">
+        <v>2</v>
+      </c>
+      <c r="X63">
+        <v>4</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>9</v>
+      </c>
+      <c r="AA63">
+        <v>9</v>
+      </c>
+      <c r="AB63">
+        <v>15</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>4</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>9</v>
+      </c>
+      <c r="AK63">
+        <v>4</v>
+      </c>
+      <c r="AL63">
+        <v>5</v>
+      </c>
+      <c r="AM63">
+        <v>2</v>
+      </c>
+      <c r="AN63">
+        <v>3</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>95</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>4</v>
+      </c>
+      <c r="AS63">
+        <v>7</v>
+      </c>
+      <c r="AT63">
+        <v>5</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AV63">
+        <v>5</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
+        <v>2</v>
+      </c>
+      <c r="AY63">
+        <v>0</v>
+      </c>
+      <c r="AZ63">
+        <v>0</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>0</v>
+      </c>
+      <c r="BD63">
+        <v>2</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>2</v>
+      </c>
+      <c r="BI63">
+        <v>5</v>
+      </c>
+      <c r="BJ63">
+        <v>2</v>
+      </c>
+      <c r="BK63">
+        <v>4</v>
+      </c>
+      <c r="BL63">
+        <v>3</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
+        <v>0</v>
+      </c>
+      <c r="BQ63">
+        <v>2</v>
+      </c>
+      <c r="BR63">
+        <v>0</v>
+      </c>
+      <c r="BS63">
+        <v>0</v>
+      </c>
+      <c r="BT63">
+        <v>0</v>
+      </c>
+      <c r="BU63">
+        <v>0</v>
+      </c>
+      <c r="BV63">
+        <v>0</v>
+      </c>
+      <c r="BW63">
+        <v>0</v>
+      </c>
+      <c r="BX63">
+        <v>2</v>
+      </c>
+      <c r="BY63">
+        <v>2</v>
+      </c>
+      <c r="BZ63">
+        <v>0</v>
+      </c>
+      <c r="CA63">
+        <v>0</v>
+      </c>
+      <c r="CB63">
+        <v>0</v>
+      </c>
+      <c r="CC63">
+        <v>0</v>
+      </c>
+      <c r="CD63">
+        <v>0</v>
+      </c>
+      <c r="CE63">
+        <v>0</v>
+      </c>
+      <c r="CF63">
+        <v>0</v>
+      </c>
+      <c r="CG63">
+        <v>0</v>
+      </c>
+      <c r="CH63">
+        <v>0</v>
+      </c>
+      <c r="CI63">
+        <v>0</v>
+      </c>
+      <c r="CJ63">
+        <v>0</v>
+      </c>
+      <c r="CK63">
+        <v>0</v>
+      </c>
+      <c r="CL63">
+        <v>0</v>
+      </c>
+      <c r="CM63">
+        <v>0</v>
+      </c>
+      <c r="CN63">
+        <v>0</v>
+      </c>
+      <c r="CO63">
+        <v>0</v>
+      </c>
+      <c r="CP63">
+        <v>0</v>
+      </c>
+      <c r="CQ63">
+        <v>0</v>
+      </c>
+      <c r="CR63">
+        <v>0</v>
+      </c>
+      <c r="CS63">
+        <v>0</v>
+      </c>
+      <c r="CT63">
+        <v>0</v>
+      </c>
+      <c r="CU63">
+        <v>2</v>
+      </c>
+      <c r="CV63">
+        <v>0</v>
+      </c>
+      <c r="CW63">
+        <v>6</v>
+      </c>
+      <c r="CX63">
+        <v>0</v>
+      </c>
+      <c r="CY63">
+        <v>0</v>
+      </c>
+      <c r="CZ63">
+        <v>3</v>
+      </c>
+      <c r="DA63">
+        <v>2</v>
+      </c>
+      <c r="DB63">
+        <v>0</v>
+      </c>
+      <c r="DC63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>108</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>8</v>
+      </c>
+      <c r="P64">
+        <v>4</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>9</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
+        <v>5</v>
+      </c>
+      <c r="W64">
+        <v>2</v>
+      </c>
+      <c r="X64">
+        <v>4</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>9</v>
+      </c>
+      <c r="AA64">
+        <v>9</v>
+      </c>
+      <c r="AB64">
+        <v>15</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>4</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>9</v>
+      </c>
+      <c r="AK64">
+        <v>4</v>
+      </c>
+      <c r="AL64">
+        <v>5</v>
+      </c>
+      <c r="AM64">
+        <v>2</v>
+      </c>
+      <c r="AN64">
+        <v>3</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>95</v>
+      </c>
+      <c r="AQ64">
+        <v>2</v>
+      </c>
+      <c r="AR64">
+        <v>4</v>
+      </c>
+      <c r="AS64">
+        <v>7</v>
+      </c>
+      <c r="AT64">
+        <v>5</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+      <c r="AV64">
+        <v>5</v>
+      </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
+      <c r="AX64">
+        <v>2</v>
+      </c>
+      <c r="AY64">
+        <v>0</v>
+      </c>
+      <c r="AZ64">
+        <v>0</v>
+      </c>
+      <c r="BA64">
+        <v>0</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>0</v>
+      </c>
+      <c r="BD64">
+        <v>2</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+      <c r="BH64">
+        <v>2</v>
+      </c>
+      <c r="BI64">
+        <v>5</v>
+      </c>
+      <c r="BJ64">
+        <v>2</v>
+      </c>
+      <c r="BK64">
+        <v>4</v>
+      </c>
+      <c r="BL64">
+        <v>3</v>
+      </c>
+      <c r="BM64">
+        <v>0</v>
+      </c>
+      <c r="BN64">
+        <v>0</v>
+      </c>
+      <c r="BO64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
+        <v>0</v>
+      </c>
+      <c r="BQ64">
+        <v>2</v>
+      </c>
+      <c r="BR64">
+        <v>0</v>
+      </c>
+      <c r="BS64">
+        <v>0</v>
+      </c>
+      <c r="BT64">
+        <v>0</v>
+      </c>
+      <c r="BU64">
+        <v>0</v>
+      </c>
+      <c r="BV64">
+        <v>0</v>
+      </c>
+      <c r="BW64">
+        <v>0</v>
+      </c>
+      <c r="BX64">
+        <v>2</v>
+      </c>
+      <c r="BY64">
+        <v>2</v>
+      </c>
+      <c r="BZ64">
+        <v>0</v>
+      </c>
+      <c r="CA64">
+        <v>0</v>
+      </c>
+      <c r="CB64">
+        <v>0</v>
+      </c>
+      <c r="CC64">
+        <v>0</v>
+      </c>
+      <c r="CD64">
+        <v>0</v>
+      </c>
+      <c r="CE64">
+        <v>0</v>
+      </c>
+      <c r="CF64">
+        <v>0</v>
+      </c>
+      <c r="CG64">
+        <v>0</v>
+      </c>
+      <c r="CH64">
+        <v>0</v>
+      </c>
+      <c r="CI64">
+        <v>0</v>
+      </c>
+      <c r="CJ64">
+        <v>0</v>
+      </c>
+      <c r="CK64">
+        <v>0</v>
+      </c>
+      <c r="CL64">
+        <v>0</v>
+      </c>
+      <c r="CM64">
+        <v>0</v>
+      </c>
+      <c r="CN64">
+        <v>0</v>
+      </c>
+      <c r="CO64">
+        <v>0</v>
+      </c>
+      <c r="CP64">
+        <v>0</v>
+      </c>
+      <c r="CQ64">
+        <v>0</v>
+      </c>
+      <c r="CR64">
+        <v>0</v>
+      </c>
+      <c r="CS64">
+        <v>0</v>
+      </c>
+      <c r="CT64">
+        <v>0</v>
+      </c>
+      <c r="CU64">
+        <v>2</v>
+      </c>
+      <c r="CV64">
+        <v>0</v>
+      </c>
+      <c r="CW64">
+        <v>6</v>
+      </c>
+      <c r="CX64">
+        <v>0</v>
+      </c>
+      <c r="CY64">
+        <v>0</v>
+      </c>
+      <c r="CZ64">
+        <v>3</v>
+      </c>
+      <c r="DA64">
+        <v>2</v>
+      </c>
+      <c r="DB64">
+        <v>0</v>
+      </c>
+      <c r="DC64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>118</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>8</v>
+      </c>
+      <c r="P65">
+        <v>4</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>9</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
+        <v>5</v>
+      </c>
+      <c r="W65">
+        <v>2</v>
+      </c>
+      <c r="X65">
+        <v>6</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>9</v>
+      </c>
+      <c r="AA65">
+        <v>9</v>
+      </c>
+      <c r="AB65">
+        <v>15</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>4</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>12</v>
+      </c>
+      <c r="AK65">
+        <v>6</v>
+      </c>
+      <c r="AL65">
+        <v>5</v>
+      </c>
+      <c r="AM65">
+        <v>2</v>
+      </c>
+      <c r="AN65">
+        <v>3</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>95</v>
+      </c>
+      <c r="AQ65">
+        <v>2</v>
+      </c>
+      <c r="AR65">
+        <v>4</v>
+      </c>
+      <c r="AS65">
+        <v>7</v>
+      </c>
+      <c r="AT65">
+        <v>5</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <v>7</v>
+      </c>
+      <c r="AW65">
+        <v>0</v>
+      </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+      <c r="AZ65">
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>0</v>
+      </c>
+      <c r="BD65">
+        <v>2</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <v>2</v>
+      </c>
+      <c r="BI65">
+        <v>6</v>
+      </c>
+      <c r="BJ65">
+        <v>2</v>
+      </c>
+      <c r="BK65">
+        <v>4</v>
+      </c>
+      <c r="BL65">
+        <v>3</v>
+      </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+      <c r="BN65">
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <v>0</v>
+      </c>
+      <c r="BP65">
+        <v>0</v>
+      </c>
+      <c r="BQ65">
+        <v>2</v>
+      </c>
+      <c r="BR65">
+        <v>0</v>
+      </c>
+      <c r="BS65">
+        <v>0</v>
+      </c>
+      <c r="BT65">
+        <v>0</v>
+      </c>
+      <c r="BU65">
+        <v>0</v>
+      </c>
+      <c r="BV65">
+        <v>0</v>
+      </c>
+      <c r="BW65">
+        <v>0</v>
+      </c>
+      <c r="BX65">
+        <v>2</v>
+      </c>
+      <c r="BY65">
+        <v>2</v>
+      </c>
+      <c r="BZ65">
+        <v>0</v>
+      </c>
+      <c r="CA65">
+        <v>0</v>
+      </c>
+      <c r="CB65">
+        <v>0</v>
+      </c>
+      <c r="CC65">
+        <v>0</v>
+      </c>
+      <c r="CD65">
+        <v>0</v>
+      </c>
+      <c r="CE65">
+        <v>0</v>
+      </c>
+      <c r="CF65">
+        <v>0</v>
+      </c>
+      <c r="CG65">
+        <v>0</v>
+      </c>
+      <c r="CH65">
+        <v>0</v>
+      </c>
+      <c r="CI65">
+        <v>0</v>
+      </c>
+      <c r="CJ65">
+        <v>0</v>
+      </c>
+      <c r="CK65">
+        <v>0</v>
+      </c>
+      <c r="CL65">
+        <v>0</v>
+      </c>
+      <c r="CM65">
+        <v>0</v>
+      </c>
+      <c r="CN65">
+        <v>0</v>
+      </c>
+      <c r="CO65">
+        <v>0</v>
+      </c>
+      <c r="CP65">
+        <v>0</v>
+      </c>
+      <c r="CQ65">
+        <v>0</v>
+      </c>
+      <c r="CR65">
+        <v>0</v>
+      </c>
+      <c r="CS65">
+        <v>0</v>
+      </c>
+      <c r="CT65">
+        <v>0</v>
+      </c>
+      <c r="CU65">
+        <v>2</v>
+      </c>
+      <c r="CV65">
+        <v>0</v>
+      </c>
+      <c r="CW65">
+        <v>8</v>
+      </c>
+      <c r="CX65">
+        <v>0</v>
+      </c>
+      <c r="CY65">
+        <v>2</v>
+      </c>
+      <c r="CZ65">
+        <v>3</v>
+      </c>
+      <c r="DA65">
+        <v>2</v>
+      </c>
+      <c r="DB65">
+        <v>0</v>
+      </c>
+      <c r="DC65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>127</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66">
+        <v>8</v>
+      </c>
+      <c r="P66">
+        <v>4</v>
+      </c>
+      <c r="Q66">
+        <v>3</v>
+      </c>
+      <c r="R66">
+        <v>9</v>
+      </c>
+      <c r="S66">
+        <v>4</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66">
+        <v>5</v>
+      </c>
+      <c r="W66">
+        <v>2</v>
+      </c>
+      <c r="X66">
+        <v>6</v>
+      </c>
+      <c r="Y66">
+        <v>2</v>
+      </c>
+      <c r="Z66">
+        <v>10</v>
+      </c>
+      <c r="AA66">
+        <v>9</v>
+      </c>
+      <c r="AB66">
+        <v>15</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>4</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>12</v>
+      </c>
+      <c r="AK66">
+        <v>6</v>
+      </c>
+      <c r="AL66">
+        <v>5</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>3</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>96</v>
+      </c>
+      <c r="AQ66">
+        <v>2</v>
+      </c>
+      <c r="AR66">
+        <v>4</v>
+      </c>
+      <c r="AS66">
+        <v>7</v>
+      </c>
+      <c r="AT66">
+        <v>5</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AV66">
+        <v>7</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>2</v>
+      </c>
+      <c r="AY66">
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>0</v>
+      </c>
+      <c r="BD66">
+        <v>2</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>2</v>
+      </c>
+      <c r="BI66">
+        <v>7</v>
+      </c>
+      <c r="BJ66">
+        <v>2</v>
+      </c>
+      <c r="BK66">
+        <v>4</v>
+      </c>
+      <c r="BL66">
+        <v>3</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <v>0</v>
+      </c>
+      <c r="BQ66">
+        <v>2</v>
+      </c>
+      <c r="BR66">
+        <v>0</v>
+      </c>
+      <c r="BS66">
+        <v>0</v>
+      </c>
+      <c r="BT66">
+        <v>0</v>
+      </c>
+      <c r="BU66">
+        <v>0</v>
+      </c>
+      <c r="BV66">
+        <v>0</v>
+      </c>
+      <c r="BW66">
+        <v>0</v>
+      </c>
+      <c r="BX66">
+        <v>2</v>
+      </c>
+      <c r="BY66">
+        <v>2</v>
+      </c>
+      <c r="BZ66">
+        <v>0</v>
+      </c>
+      <c r="CA66">
+        <v>0</v>
+      </c>
+      <c r="CB66">
+        <v>0</v>
+      </c>
+      <c r="CC66">
+        <v>0</v>
+      </c>
+      <c r="CD66">
+        <v>0</v>
+      </c>
+      <c r="CE66">
+        <v>0</v>
+      </c>
+      <c r="CF66">
+        <v>0</v>
+      </c>
+      <c r="CG66">
+        <v>0</v>
+      </c>
+      <c r="CH66">
+        <v>0</v>
+      </c>
+      <c r="CI66">
+        <v>0</v>
+      </c>
+      <c r="CJ66">
+        <v>0</v>
+      </c>
+      <c r="CK66">
+        <v>0</v>
+      </c>
+      <c r="CL66">
+        <v>0</v>
+      </c>
+      <c r="CM66">
+        <v>0</v>
+      </c>
+      <c r="CN66">
+        <v>0</v>
+      </c>
+      <c r="CO66">
+        <v>0</v>
+      </c>
+      <c r="CP66">
+        <v>0</v>
+      </c>
+      <c r="CQ66">
+        <v>0</v>
+      </c>
+      <c r="CR66">
+        <v>0</v>
+      </c>
+      <c r="CS66">
+        <v>0</v>
+      </c>
+      <c r="CT66">
+        <v>0</v>
+      </c>
+      <c r="CU66">
+        <v>0</v>
+      </c>
+      <c r="CV66">
+        <v>0</v>
+      </c>
+      <c r="CW66">
+        <v>8</v>
+      </c>
+      <c r="CX66">
+        <v>0</v>
+      </c>
+      <c r="CY66">
+        <v>7</v>
+      </c>
+      <c r="CZ66">
+        <v>3</v>
+      </c>
+      <c r="DA66">
+        <v>0</v>
+      </c>
+      <c r="DB66">
+        <v>0</v>
+      </c>
+      <c r="DC66">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>Acharne, Greece</t>
+  </si>
+  <si>
+    <t>Keratsíni, Greece</t>
+  </si>
+  <si>
+    <t>Níkaia, Greece</t>
   </si>
 </sst>
 </file>
@@ -704,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DC66"/>
+  <dimension ref="A1:DE67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -715,7 +721,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,8 +1043,14 @@
       <c r="DC1" t="s">
         <v>106</v>
       </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43497</v>
       </c>
@@ -1360,8 +1372,14 @@
       <c r="DC2">
         <v>0</v>
       </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43498</v>
       </c>
@@ -1683,8 +1701,14 @@
       <c r="DC3">
         <v>0</v>
       </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43499</v>
       </c>
@@ -2006,8 +2030,14 @@
       <c r="DC4">
         <v>0</v>
       </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43500</v>
       </c>
@@ -2329,8 +2359,14 @@
       <c r="DC5">
         <v>0</v>
       </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43501</v>
       </c>
@@ -2652,8 +2688,14 @@
       <c r="DC6">
         <v>0</v>
       </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43502</v>
       </c>
@@ -2975,8 +3017,14 @@
       <c r="DC7">
         <v>0</v>
       </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43503</v>
       </c>
@@ -3298,8 +3346,14 @@
       <c r="DC8">
         <v>0</v>
       </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43504</v>
       </c>
@@ -3621,8 +3675,14 @@
       <c r="DC9">
         <v>0</v>
       </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43507</v>
       </c>
@@ -3944,8 +4004,14 @@
       <c r="DC10">
         <v>0</v>
       </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43507</v>
       </c>
@@ -4267,8 +4333,14 @@
       <c r="DC11">
         <v>0</v>
       </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43508</v>
       </c>
@@ -4590,8 +4662,14 @@
       <c r="DC12">
         <v>0</v>
       </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43509</v>
       </c>
@@ -4913,8 +4991,14 @@
       <c r="DC13">
         <v>0</v>
       </c>
+      <c r="DD13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43510</v>
       </c>
@@ -5236,8 +5320,14 @@
       <c r="DC14">
         <v>0</v>
       </c>
+      <c r="DD14">
+        <v>0</v>
+      </c>
+      <c r="DE14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43512</v>
       </c>
@@ -5559,8 +5649,14 @@
       <c r="DC15">
         <v>0</v>
       </c>
+      <c r="DD15">
+        <v>0</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43515</v>
       </c>
@@ -5882,8 +5978,14 @@
       <c r="DC16">
         <v>0</v>
       </c>
+      <c r="DD16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43519</v>
       </c>
@@ -6205,8 +6307,14 @@
       <c r="DC17">
         <v>0</v>
       </c>
+      <c r="DD17">
+        <v>0</v>
+      </c>
+      <c r="DE17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43520</v>
       </c>
@@ -6528,8 +6636,14 @@
       <c r="DC18">
         <v>0</v>
       </c>
+      <c r="DD18">
+        <v>0</v>
+      </c>
+      <c r="DE18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43521</v>
       </c>
@@ -6851,8 +6965,14 @@
       <c r="DC19">
         <v>0</v>
       </c>
+      <c r="DD19">
+        <v>0</v>
+      </c>
+      <c r="DE19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43522</v>
       </c>
@@ -7174,8 +7294,14 @@
       <c r="DC20">
         <v>0</v>
       </c>
+      <c r="DD20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43523</v>
       </c>
@@ -7497,8 +7623,14 @@
       <c r="DC21">
         <v>0</v>
       </c>
+      <c r="DD21">
+        <v>0</v>
+      </c>
+      <c r="DE21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43524</v>
       </c>
@@ -7820,8 +7952,14 @@
       <c r="DC22">
         <v>0</v>
       </c>
+      <c r="DD22">
+        <v>0</v>
+      </c>
+      <c r="DE22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43525</v>
       </c>
@@ -8143,8 +8281,14 @@
       <c r="DC23">
         <v>0</v>
       </c>
+      <c r="DD23">
+        <v>0</v>
+      </c>
+      <c r="DE23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43526</v>
       </c>
@@ -8466,8 +8610,14 @@
       <c r="DC24">
         <v>0</v>
       </c>
+      <c r="DD24">
+        <v>0</v>
+      </c>
+      <c r="DE24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43527</v>
       </c>
@@ -8789,8 +8939,14 @@
       <c r="DC25">
         <v>0</v>
       </c>
+      <c r="DD25">
+        <v>0</v>
+      </c>
+      <c r="DE25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43529</v>
       </c>
@@ -9112,8 +9268,14 @@
       <c r="DC26">
         <v>0</v>
       </c>
+      <c r="DD26">
+        <v>0</v>
+      </c>
+      <c r="DE26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43530</v>
       </c>
@@ -9435,8 +9597,14 @@
       <c r="DC27">
         <v>0</v>
       </c>
+      <c r="DD27">
+        <v>0</v>
+      </c>
+      <c r="DE27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43531</v>
       </c>
@@ -9758,8 +9926,14 @@
       <c r="DC28">
         <v>0</v>
       </c>
+      <c r="DD28">
+        <v>0</v>
+      </c>
+      <c r="DE28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43532</v>
       </c>
@@ -10081,8 +10255,14 @@
       <c r="DC29">
         <v>0</v>
       </c>
+      <c r="DD29">
+        <v>0</v>
+      </c>
+      <c r="DE29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43533</v>
       </c>
@@ -10404,8 +10584,14 @@
       <c r="DC30">
         <v>0</v>
       </c>
+      <c r="DD30">
+        <v>0</v>
+      </c>
+      <c r="DE30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43534</v>
       </c>
@@ -10727,8 +10913,14 @@
       <c r="DC31">
         <v>0</v>
       </c>
+      <c r="DD31">
+        <v>0</v>
+      </c>
+      <c r="DE31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43535</v>
       </c>
@@ -11050,8 +11242,14 @@
       <c r="DC32">
         <v>0</v>
       </c>
+      <c r="DD32">
+        <v>0</v>
+      </c>
+      <c r="DE32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43536</v>
       </c>
@@ -11373,8 +11571,14 @@
       <c r="DC33">
         <v>0</v>
       </c>
+      <c r="DD33">
+        <v>0</v>
+      </c>
+      <c r="DE33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43537</v>
       </c>
@@ -11696,8 +11900,14 @@
       <c r="DC34">
         <v>0</v>
       </c>
+      <c r="DD34">
+        <v>0</v>
+      </c>
+      <c r="DE34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43538</v>
       </c>
@@ -12019,8 +12229,14 @@
       <c r="DC35">
         <v>0</v>
       </c>
+      <c r="DD35">
+        <v>0</v>
+      </c>
+      <c r="DE35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43539</v>
       </c>
@@ -12342,8 +12558,14 @@
       <c r="DC36">
         <v>0</v>
       </c>
+      <c r="DD36">
+        <v>0</v>
+      </c>
+      <c r="DE36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43540</v>
       </c>
@@ -12665,8 +12887,14 @@
       <c r="DC37">
         <v>0</v>
       </c>
+      <c r="DD37">
+        <v>0</v>
+      </c>
+      <c r="DE37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43541</v>
       </c>
@@ -12988,8 +13216,14 @@
       <c r="DC38">
         <v>0</v>
       </c>
+      <c r="DD38">
+        <v>0</v>
+      </c>
+      <c r="DE38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43542</v>
       </c>
@@ -13311,8 +13545,14 @@
       <c r="DC39">
         <v>0</v>
       </c>
+      <c r="DD39">
+        <v>0</v>
+      </c>
+      <c r="DE39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43543</v>
       </c>
@@ -13634,8 +13874,14 @@
       <c r="DC40">
         <v>0</v>
       </c>
+      <c r="DD40">
+        <v>0</v>
+      </c>
+      <c r="DE40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43544</v>
       </c>
@@ -13957,8 +14203,14 @@
       <c r="DC41">
         <v>0</v>
       </c>
+      <c r="DD41">
+        <v>0</v>
+      </c>
+      <c r="DE41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43548</v>
       </c>
@@ -14280,8 +14532,14 @@
       <c r="DC42">
         <v>0</v>
       </c>
+      <c r="DD42">
+        <v>0</v>
+      </c>
+      <c r="DE42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43549</v>
       </c>
@@ -14603,8 +14861,14 @@
       <c r="DC43">
         <v>0</v>
       </c>
+      <c r="DD43">
+        <v>0</v>
+      </c>
+      <c r="DE43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43550</v>
       </c>
@@ -14926,8 +15190,14 @@
       <c r="DC44">
         <v>0</v>
       </c>
+      <c r="DD44">
+        <v>0</v>
+      </c>
+      <c r="DE44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43554</v>
       </c>
@@ -15249,8 +15519,14 @@
       <c r="DC45">
         <v>0</v>
       </c>
+      <c r="DD45">
+        <v>0</v>
+      </c>
+      <c r="DE45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43556</v>
       </c>
@@ -15572,8 +15848,14 @@
       <c r="DC46">
         <v>0</v>
       </c>
+      <c r="DD46">
+        <v>0</v>
+      </c>
+      <c r="DE46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43557</v>
       </c>
@@ -15895,8 +16177,14 @@
       <c r="DC47">
         <v>0</v>
       </c>
+      <c r="DD47">
+        <v>0</v>
+      </c>
+      <c r="DE47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43558</v>
       </c>
@@ -16218,8 +16506,14 @@
       <c r="DC48">
         <v>0</v>
       </c>
+      <c r="DD48">
+        <v>0</v>
+      </c>
+      <c r="DE48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43559</v>
       </c>
@@ -16541,8 +16835,14 @@
       <c r="DC49">
         <v>0</v>
       </c>
+      <c r="DD49">
+        <v>0</v>
+      </c>
+      <c r="DE49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43560</v>
       </c>
@@ -16864,8 +17164,14 @@
       <c r="DC50">
         <v>0</v>
       </c>
+      <c r="DD50">
+        <v>0</v>
+      </c>
+      <c r="DE50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43561</v>
       </c>
@@ -17187,8 +17493,14 @@
       <c r="DC51">
         <v>0</v>
       </c>
+      <c r="DD51">
+        <v>0</v>
+      </c>
+      <c r="DE51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43562</v>
       </c>
@@ -17510,8 +17822,14 @@
       <c r="DC52">
         <v>0</v>
       </c>
+      <c r="DD52">
+        <v>0</v>
+      </c>
+      <c r="DE52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43563</v>
       </c>
@@ -17833,8 +18151,14 @@
       <c r="DC53">
         <v>0</v>
       </c>
+      <c r="DD53">
+        <v>0</v>
+      </c>
+      <c r="DE53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43564</v>
       </c>
@@ -18156,8 +18480,14 @@
       <c r="DC54">
         <v>0</v>
       </c>
+      <c r="DD54">
+        <v>0</v>
+      </c>
+      <c r="DE54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43565</v>
       </c>
@@ -18479,8 +18809,14 @@
       <c r="DC55">
         <v>0</v>
       </c>
+      <c r="DD55">
+        <v>0</v>
+      </c>
+      <c r="DE55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43566</v>
       </c>
@@ -18802,8 +19138,14 @@
       <c r="DC56">
         <v>0</v>
       </c>
+      <c r="DD56">
+        <v>0</v>
+      </c>
+      <c r="DE56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43567</v>
       </c>
@@ -19125,8 +19467,14 @@
       <c r="DC57">
         <v>0</v>
       </c>
+      <c r="DD57">
+        <v>0</v>
+      </c>
+      <c r="DE57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43568</v>
       </c>
@@ -19448,8 +19796,14 @@
       <c r="DC58">
         <v>0</v>
       </c>
+      <c r="DD58">
+        <v>0</v>
+      </c>
+      <c r="DE58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43569</v>
       </c>
@@ -19771,8 +20125,14 @@
       <c r="DC59">
         <v>0</v>
       </c>
+      <c r="DD59">
+        <v>0</v>
+      </c>
+      <c r="DE59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43570</v>
       </c>
@@ -20094,8 +20454,14 @@
       <c r="DC60">
         <v>0</v>
       </c>
+      <c r="DD60">
+        <v>0</v>
+      </c>
+      <c r="DE60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43571</v>
       </c>
@@ -20417,8 +20783,14 @@
       <c r="DC61">
         <v>0</v>
       </c>
+      <c r="DD61">
+        <v>0</v>
+      </c>
+      <c r="DE61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43572</v>
       </c>
@@ -20740,8 +21112,14 @@
       <c r="DC62">
         <v>0</v>
       </c>
+      <c r="DD62">
+        <v>0</v>
+      </c>
+      <c r="DE62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43573</v>
       </c>
@@ -21063,8 +21441,14 @@
       <c r="DC63">
         <v>0</v>
       </c>
+      <c r="DD63">
+        <v>0</v>
+      </c>
+      <c r="DE63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43574</v>
       </c>
@@ -21386,8 +21770,14 @@
       <c r="DC64">
         <v>0</v>
       </c>
+      <c r="DD64">
+        <v>0</v>
+      </c>
+      <c r="DE64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43575</v>
       </c>
@@ -21709,8 +22099,14 @@
       <c r="DC65">
         <v>2</v>
       </c>
+      <c r="DD65">
+        <v>0</v>
+      </c>
+      <c r="DE65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43576</v>
       </c>
@@ -22031,6 +22427,341 @@
       </c>
       <c r="DC66">
         <v>0</v>
+      </c>
+      <c r="DD66">
+        <v>0</v>
+      </c>
+      <c r="DE66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>134</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>8</v>
+      </c>
+      <c r="P67">
+        <v>4</v>
+      </c>
+      <c r="Q67">
+        <v>3</v>
+      </c>
+      <c r="R67">
+        <v>9</v>
+      </c>
+      <c r="S67">
+        <v>5</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>5</v>
+      </c>
+      <c r="W67">
+        <v>2</v>
+      </c>
+      <c r="X67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>2</v>
+      </c>
+      <c r="Z67">
+        <v>10</v>
+      </c>
+      <c r="AA67">
+        <v>9</v>
+      </c>
+      <c r="AB67">
+        <v>15</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>4</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>12</v>
+      </c>
+      <c r="AK67">
+        <v>6</v>
+      </c>
+      <c r="AL67">
+        <v>5</v>
+      </c>
+      <c r="AM67">
+        <v>2</v>
+      </c>
+      <c r="AN67">
+        <v>4</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>97</v>
+      </c>
+      <c r="AQ67">
+        <v>2</v>
+      </c>
+      <c r="AR67">
+        <v>4</v>
+      </c>
+      <c r="AS67">
+        <v>7</v>
+      </c>
+      <c r="AT67">
+        <v>5</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <v>8</v>
+      </c>
+      <c r="AW67">
+        <v>0</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>0</v>
+      </c>
+      <c r="BD67">
+        <v>2</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>2</v>
+      </c>
+      <c r="BI67">
+        <v>7</v>
+      </c>
+      <c r="BJ67">
+        <v>2</v>
+      </c>
+      <c r="BK67">
+        <v>4</v>
+      </c>
+      <c r="BL67">
+        <v>3</v>
+      </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
+      <c r="BO67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
+        <v>0</v>
+      </c>
+      <c r="BQ67">
+        <v>0</v>
+      </c>
+      <c r="BR67">
+        <v>0</v>
+      </c>
+      <c r="BS67">
+        <v>0</v>
+      </c>
+      <c r="BT67">
+        <v>0</v>
+      </c>
+      <c r="BU67">
+        <v>0</v>
+      </c>
+      <c r="BV67">
+        <v>0</v>
+      </c>
+      <c r="BW67">
+        <v>0</v>
+      </c>
+      <c r="BX67">
+        <v>0</v>
+      </c>
+      <c r="BY67">
+        <v>2</v>
+      </c>
+      <c r="BZ67">
+        <v>0</v>
+      </c>
+      <c r="CA67">
+        <v>0</v>
+      </c>
+      <c r="CB67">
+        <v>0</v>
+      </c>
+      <c r="CC67">
+        <v>0</v>
+      </c>
+      <c r="CD67">
+        <v>0</v>
+      </c>
+      <c r="CE67">
+        <v>0</v>
+      </c>
+      <c r="CF67">
+        <v>0</v>
+      </c>
+      <c r="CG67">
+        <v>0</v>
+      </c>
+      <c r="CH67">
+        <v>0</v>
+      </c>
+      <c r="CI67">
+        <v>0</v>
+      </c>
+      <c r="CJ67">
+        <v>0</v>
+      </c>
+      <c r="CK67">
+        <v>0</v>
+      </c>
+      <c r="CL67">
+        <v>0</v>
+      </c>
+      <c r="CM67">
+        <v>0</v>
+      </c>
+      <c r="CN67">
+        <v>0</v>
+      </c>
+      <c r="CO67">
+        <v>2</v>
+      </c>
+      <c r="CP67">
+        <v>0</v>
+      </c>
+      <c r="CQ67">
+        <v>0</v>
+      </c>
+      <c r="CR67">
+        <v>0</v>
+      </c>
+      <c r="CS67">
+        <v>0</v>
+      </c>
+      <c r="CT67">
+        <v>0</v>
+      </c>
+      <c r="CU67">
+        <v>2</v>
+      </c>
+      <c r="CV67">
+        <v>0</v>
+      </c>
+      <c r="CW67">
+        <v>9</v>
+      </c>
+      <c r="CX67">
+        <v>0</v>
+      </c>
+      <c r="CY67">
+        <v>8</v>
+      </c>
+      <c r="CZ67">
+        <v>2</v>
+      </c>
+      <c r="DA67">
+        <v>0</v>
+      </c>
+      <c r="DB67">
+        <v>0</v>
+      </c>
+      <c r="DC67">
+        <v>0</v>
+      </c>
+      <c r="DD67">
+        <v>2</v>
+      </c>
+      <c r="DE67">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -710,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DE67"/>
+  <dimension ref="A1:DE68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22764,6 +22764,335 @@
         <v>2</v>
       </c>
     </row>
+    <row r="68" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>146</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>8</v>
+      </c>
+      <c r="P68">
+        <v>4</v>
+      </c>
+      <c r="Q68">
+        <v>3</v>
+      </c>
+      <c r="R68">
+        <v>9</v>
+      </c>
+      <c r="S68">
+        <v>5</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>5</v>
+      </c>
+      <c r="W68">
+        <v>2</v>
+      </c>
+      <c r="X68">
+        <v>6</v>
+      </c>
+      <c r="Y68">
+        <v>2</v>
+      </c>
+      <c r="Z68">
+        <v>10</v>
+      </c>
+      <c r="AA68">
+        <v>9</v>
+      </c>
+      <c r="AB68">
+        <v>15</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>4</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>12</v>
+      </c>
+      <c r="AK68">
+        <v>6</v>
+      </c>
+      <c r="AL68">
+        <v>5</v>
+      </c>
+      <c r="AM68">
+        <v>2</v>
+      </c>
+      <c r="AN68">
+        <v>4</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>97</v>
+      </c>
+      <c r="AQ68">
+        <v>2</v>
+      </c>
+      <c r="AR68">
+        <v>4</v>
+      </c>
+      <c r="AS68">
+        <v>7</v>
+      </c>
+      <c r="AT68">
+        <v>5</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>8</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
+      <c r="BD68">
+        <v>2</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>2</v>
+      </c>
+      <c r="BI68">
+        <v>7</v>
+      </c>
+      <c r="BJ68">
+        <v>2</v>
+      </c>
+      <c r="BK68">
+        <v>4</v>
+      </c>
+      <c r="BL68">
+        <v>3</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
+      </c>
+      <c r="BQ68">
+        <v>0</v>
+      </c>
+      <c r="BR68">
+        <v>0</v>
+      </c>
+      <c r="BS68">
+        <v>0</v>
+      </c>
+      <c r="BT68">
+        <v>0</v>
+      </c>
+      <c r="BU68">
+        <v>0</v>
+      </c>
+      <c r="BV68">
+        <v>0</v>
+      </c>
+      <c r="BW68">
+        <v>0</v>
+      </c>
+      <c r="BX68">
+        <v>0</v>
+      </c>
+      <c r="BY68">
+        <v>2</v>
+      </c>
+      <c r="BZ68">
+        <v>0</v>
+      </c>
+      <c r="CA68">
+        <v>0</v>
+      </c>
+      <c r="CB68">
+        <v>0</v>
+      </c>
+      <c r="CC68">
+        <v>0</v>
+      </c>
+      <c r="CD68">
+        <v>0</v>
+      </c>
+      <c r="CE68">
+        <v>0</v>
+      </c>
+      <c r="CF68">
+        <v>0</v>
+      </c>
+      <c r="CG68">
+        <v>0</v>
+      </c>
+      <c r="CH68">
+        <v>0</v>
+      </c>
+      <c r="CI68">
+        <v>0</v>
+      </c>
+      <c r="CJ68">
+        <v>0</v>
+      </c>
+      <c r="CK68">
+        <v>0</v>
+      </c>
+      <c r="CL68">
+        <v>0</v>
+      </c>
+      <c r="CM68">
+        <v>0</v>
+      </c>
+      <c r="CN68">
+        <v>0</v>
+      </c>
+      <c r="CO68">
+        <v>2</v>
+      </c>
+      <c r="CP68">
+        <v>0</v>
+      </c>
+      <c r="CQ68">
+        <v>0</v>
+      </c>
+      <c r="CR68">
+        <v>0</v>
+      </c>
+      <c r="CS68">
+        <v>0</v>
+      </c>
+      <c r="CT68">
+        <v>0</v>
+      </c>
+      <c r="CU68">
+        <v>2</v>
+      </c>
+      <c r="CV68">
+        <v>0</v>
+      </c>
+      <c r="CW68">
+        <v>9</v>
+      </c>
+      <c r="CX68">
+        <v>0</v>
+      </c>
+      <c r="CY68">
+        <v>8</v>
+      </c>
+      <c r="CZ68">
+        <v>2</v>
+      </c>
+      <c r="DA68">
+        <v>0</v>
+      </c>
+      <c r="DB68">
+        <v>0</v>
+      </c>
+      <c r="DC68">
+        <v>0</v>
+      </c>
+      <c r="DD68">
+        <v>2</v>
+      </c>
+      <c r="DE68">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -710,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DE68"/>
+  <dimension ref="A1:DE69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23093,6 +23093,335 @@
         <v>2</v>
       </c>
     </row>
+    <row r="69" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>152</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>8</v>
+      </c>
+      <c r="P69">
+        <v>4</v>
+      </c>
+      <c r="Q69">
+        <v>3</v>
+      </c>
+      <c r="R69">
+        <v>9</v>
+      </c>
+      <c r="S69">
+        <v>6</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>5</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>6</v>
+      </c>
+      <c r="Y69">
+        <v>2</v>
+      </c>
+      <c r="Z69">
+        <v>10</v>
+      </c>
+      <c r="AA69">
+        <v>9</v>
+      </c>
+      <c r="AB69">
+        <v>15</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>4</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>13</v>
+      </c>
+      <c r="AK69">
+        <v>7</v>
+      </c>
+      <c r="AL69">
+        <v>5</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>4</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>98</v>
+      </c>
+      <c r="AQ69">
+        <v>2</v>
+      </c>
+      <c r="AR69">
+        <v>4</v>
+      </c>
+      <c r="AS69">
+        <v>7</v>
+      </c>
+      <c r="AT69">
+        <v>5</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AV69">
+        <v>9</v>
+      </c>
+      <c r="AW69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
+        <v>0</v>
+      </c>
+      <c r="AY69">
+        <v>0</v>
+      </c>
+      <c r="AZ69">
+        <v>0</v>
+      </c>
+      <c r="BA69">
+        <v>0</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>0</v>
+      </c>
+      <c r="BD69">
+        <v>2</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>2</v>
+      </c>
+      <c r="BI69">
+        <v>7</v>
+      </c>
+      <c r="BJ69">
+        <v>2</v>
+      </c>
+      <c r="BK69">
+        <v>4</v>
+      </c>
+      <c r="BL69">
+        <v>3</v>
+      </c>
+      <c r="BM69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
+        <v>0</v>
+      </c>
+      <c r="BO69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
+        <v>0</v>
+      </c>
+      <c r="BQ69">
+        <v>0</v>
+      </c>
+      <c r="BR69">
+        <v>0</v>
+      </c>
+      <c r="BS69">
+        <v>0</v>
+      </c>
+      <c r="BT69">
+        <v>0</v>
+      </c>
+      <c r="BU69">
+        <v>0</v>
+      </c>
+      <c r="BV69">
+        <v>0</v>
+      </c>
+      <c r="BW69">
+        <v>0</v>
+      </c>
+      <c r="BX69">
+        <v>2</v>
+      </c>
+      <c r="BY69">
+        <v>2</v>
+      </c>
+      <c r="BZ69">
+        <v>0</v>
+      </c>
+      <c r="CA69">
+        <v>0</v>
+      </c>
+      <c r="CB69">
+        <v>0</v>
+      </c>
+      <c r="CC69">
+        <v>0</v>
+      </c>
+      <c r="CD69">
+        <v>0</v>
+      </c>
+      <c r="CE69">
+        <v>0</v>
+      </c>
+      <c r="CF69">
+        <v>2</v>
+      </c>
+      <c r="CG69">
+        <v>0</v>
+      </c>
+      <c r="CH69">
+        <v>0</v>
+      </c>
+      <c r="CI69">
+        <v>0</v>
+      </c>
+      <c r="CJ69">
+        <v>0</v>
+      </c>
+      <c r="CK69">
+        <v>0</v>
+      </c>
+      <c r="CL69">
+        <v>0</v>
+      </c>
+      <c r="CM69">
+        <v>0</v>
+      </c>
+      <c r="CN69">
+        <v>0</v>
+      </c>
+      <c r="CO69">
+        <v>2</v>
+      </c>
+      <c r="CP69">
+        <v>0</v>
+      </c>
+      <c r="CQ69">
+        <v>0</v>
+      </c>
+      <c r="CR69">
+        <v>0</v>
+      </c>
+      <c r="CS69">
+        <v>0</v>
+      </c>
+      <c r="CT69">
+        <v>0</v>
+      </c>
+      <c r="CU69">
+        <v>2</v>
+      </c>
+      <c r="CV69">
+        <v>0</v>
+      </c>
+      <c r="CW69">
+        <v>9</v>
+      </c>
+      <c r="CX69">
+        <v>0</v>
+      </c>
+      <c r="CY69">
+        <v>8</v>
+      </c>
+      <c r="CZ69">
+        <v>2</v>
+      </c>
+      <c r="DA69">
+        <v>2</v>
+      </c>
+      <c r="DB69">
+        <v>0</v>
+      </c>
+      <c r="DC69">
+        <v>0</v>
+      </c>
+      <c r="DD69">
+        <v>2</v>
+      </c>
+      <c r="DE69">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Níkaia, Greece</t>
+  </si>
+  <si>
+    <t>Kími, Greece</t>
   </si>
 </sst>
 </file>
@@ -710,18 +713,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DE69"/>
+  <dimension ref="A1:DF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,8 +1052,11 @@
       <c r="DE1" t="s">
         <v>108</v>
       </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43497</v>
       </c>
@@ -1378,8 +1384,11 @@
       <c r="DE2">
         <v>0</v>
       </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43498</v>
       </c>
@@ -1707,8 +1716,11 @@
       <c r="DE3">
         <v>0</v>
       </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43499</v>
       </c>
@@ -2036,8 +2048,11 @@
       <c r="DE4">
         <v>0</v>
       </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43500</v>
       </c>
@@ -2365,8 +2380,11 @@
       <c r="DE5">
         <v>0</v>
       </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43501</v>
       </c>
@@ -2694,8 +2712,11 @@
       <c r="DE6">
         <v>0</v>
       </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43502</v>
       </c>
@@ -3023,8 +3044,11 @@
       <c r="DE7">
         <v>0</v>
       </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43503</v>
       </c>
@@ -3352,8 +3376,11 @@
       <c r="DE8">
         <v>0</v>
       </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43504</v>
       </c>
@@ -3681,8 +3708,11 @@
       <c r="DE9">
         <v>0</v>
       </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43507</v>
       </c>
@@ -4010,8 +4040,11 @@
       <c r="DE10">
         <v>0</v>
       </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43507</v>
       </c>
@@ -4339,8 +4372,11 @@
       <c r="DE11">
         <v>0</v>
       </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43508</v>
       </c>
@@ -4668,8 +4704,11 @@
       <c r="DE12">
         <v>0</v>
       </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43509</v>
       </c>
@@ -4997,8 +5036,11 @@
       <c r="DE13">
         <v>0</v>
       </c>
+      <c r="DF13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43510</v>
       </c>
@@ -5326,8 +5368,11 @@
       <c r="DE14">
         <v>0</v>
       </c>
+      <c r="DF14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43512</v>
       </c>
@@ -5655,8 +5700,11 @@
       <c r="DE15">
         <v>0</v>
       </c>
+      <c r="DF15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43515</v>
       </c>
@@ -5984,8 +6032,11 @@
       <c r="DE16">
         <v>0</v>
       </c>
+      <c r="DF16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43519</v>
       </c>
@@ -6313,8 +6364,11 @@
       <c r="DE17">
         <v>0</v>
       </c>
+      <c r="DF17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43520</v>
       </c>
@@ -6642,8 +6696,11 @@
       <c r="DE18">
         <v>0</v>
       </c>
+      <c r="DF18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43521</v>
       </c>
@@ -6971,8 +7028,11 @@
       <c r="DE19">
         <v>0</v>
       </c>
+      <c r="DF19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43522</v>
       </c>
@@ -7300,8 +7360,11 @@
       <c r="DE20">
         <v>0</v>
       </c>
+      <c r="DF20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43523</v>
       </c>
@@ -7629,8 +7692,11 @@
       <c r="DE21">
         <v>0</v>
       </c>
+      <c r="DF21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43524</v>
       </c>
@@ -7958,8 +8024,11 @@
       <c r="DE22">
         <v>0</v>
       </c>
+      <c r="DF22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43525</v>
       </c>
@@ -8287,8 +8356,11 @@
       <c r="DE23">
         <v>0</v>
       </c>
+      <c r="DF23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43526</v>
       </c>
@@ -8616,8 +8688,11 @@
       <c r="DE24">
         <v>0</v>
       </c>
+      <c r="DF24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43527</v>
       </c>
@@ -8945,8 +9020,11 @@
       <c r="DE25">
         <v>0</v>
       </c>
+      <c r="DF25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43529</v>
       </c>
@@ -9274,8 +9352,11 @@
       <c r="DE26">
         <v>0</v>
       </c>
+      <c r="DF26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43530</v>
       </c>
@@ -9603,8 +9684,11 @@
       <c r="DE27">
         <v>0</v>
       </c>
+      <c r="DF27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43531</v>
       </c>
@@ -9932,8 +10016,11 @@
       <c r="DE28">
         <v>0</v>
       </c>
+      <c r="DF28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43532</v>
       </c>
@@ -10261,8 +10348,11 @@
       <c r="DE29">
         <v>0</v>
       </c>
+      <c r="DF29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43533</v>
       </c>
@@ -10590,8 +10680,11 @@
       <c r="DE30">
         <v>0</v>
       </c>
+      <c r="DF30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43534</v>
       </c>
@@ -10919,8 +11012,11 @@
       <c r="DE31">
         <v>0</v>
       </c>
+      <c r="DF31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43535</v>
       </c>
@@ -11248,8 +11344,11 @@
       <c r="DE32">
         <v>0</v>
       </c>
+      <c r="DF32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43536</v>
       </c>
@@ -11577,8 +11676,11 @@
       <c r="DE33">
         <v>0</v>
       </c>
+      <c r="DF33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43537</v>
       </c>
@@ -11906,8 +12008,11 @@
       <c r="DE34">
         <v>0</v>
       </c>
+      <c r="DF34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43538</v>
       </c>
@@ -12235,8 +12340,11 @@
       <c r="DE35">
         <v>0</v>
       </c>
+      <c r="DF35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43539</v>
       </c>
@@ -12564,8 +12672,11 @@
       <c r="DE36">
         <v>0</v>
       </c>
+      <c r="DF36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43540</v>
       </c>
@@ -12893,8 +13004,11 @@
       <c r="DE37">
         <v>0</v>
       </c>
+      <c r="DF37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43541</v>
       </c>
@@ -13222,8 +13336,11 @@
       <c r="DE38">
         <v>0</v>
       </c>
+      <c r="DF38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43542</v>
       </c>
@@ -13551,8 +13668,11 @@
       <c r="DE39">
         <v>0</v>
       </c>
+      <c r="DF39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43543</v>
       </c>
@@ -13880,8 +14000,11 @@
       <c r="DE40">
         <v>0</v>
       </c>
+      <c r="DF40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43544</v>
       </c>
@@ -14209,8 +14332,11 @@
       <c r="DE41">
         <v>0</v>
       </c>
+      <c r="DF41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43548</v>
       </c>
@@ -14538,8 +14664,11 @@
       <c r="DE42">
         <v>0</v>
       </c>
+      <c r="DF42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43549</v>
       </c>
@@ -14867,8 +14996,11 @@
       <c r="DE43">
         <v>0</v>
       </c>
+      <c r="DF43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43550</v>
       </c>
@@ -15196,8 +15328,11 @@
       <c r="DE44">
         <v>0</v>
       </c>
+      <c r="DF44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43554</v>
       </c>
@@ -15525,8 +15660,11 @@
       <c r="DE45">
         <v>0</v>
       </c>
+      <c r="DF45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43556</v>
       </c>
@@ -15854,8 +15992,11 @@
       <c r="DE46">
         <v>0</v>
       </c>
+      <c r="DF46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43557</v>
       </c>
@@ -16183,8 +16324,11 @@
       <c r="DE47">
         <v>0</v>
       </c>
+      <c r="DF47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43558</v>
       </c>
@@ -16512,8 +16656,11 @@
       <c r="DE48">
         <v>0</v>
       </c>
+      <c r="DF48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43559</v>
       </c>
@@ -16841,8 +16988,11 @@
       <c r="DE49">
         <v>0</v>
       </c>
+      <c r="DF49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43560</v>
       </c>
@@ -17170,8 +17320,11 @@
       <c r="DE50">
         <v>0</v>
       </c>
+      <c r="DF50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43561</v>
       </c>
@@ -17499,8 +17652,11 @@
       <c r="DE51">
         <v>0</v>
       </c>
+      <c r="DF51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43562</v>
       </c>
@@ -17828,8 +17984,11 @@
       <c r="DE52">
         <v>0</v>
       </c>
+      <c r="DF52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43563</v>
       </c>
@@ -18157,8 +18316,11 @@
       <c r="DE53">
         <v>0</v>
       </c>
+      <c r="DF53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43564</v>
       </c>
@@ -18486,8 +18648,11 @@
       <c r="DE54">
         <v>0</v>
       </c>
+      <c r="DF54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43565</v>
       </c>
@@ -18815,8 +18980,11 @@
       <c r="DE55">
         <v>0</v>
       </c>
+      <c r="DF55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43566</v>
       </c>
@@ -19144,8 +19312,11 @@
       <c r="DE56">
         <v>0</v>
       </c>
+      <c r="DF56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43567</v>
       </c>
@@ -19473,8 +19644,11 @@
       <c r="DE57">
         <v>0</v>
       </c>
+      <c r="DF57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43568</v>
       </c>
@@ -19802,8 +19976,11 @@
       <c r="DE58">
         <v>0</v>
       </c>
+      <c r="DF58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43569</v>
       </c>
@@ -20131,8 +20308,11 @@
       <c r="DE59">
         <v>0</v>
       </c>
+      <c r="DF59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43570</v>
       </c>
@@ -20460,8 +20640,11 @@
       <c r="DE60">
         <v>0</v>
       </c>
+      <c r="DF60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43571</v>
       </c>
@@ -20789,8 +20972,11 @@
       <c r="DE61">
         <v>0</v>
       </c>
+      <c r="DF61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43572</v>
       </c>
@@ -21118,8 +21304,11 @@
       <c r="DE62">
         <v>0</v>
       </c>
+      <c r="DF62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43573</v>
       </c>
@@ -21447,8 +21636,11 @@
       <c r="DE63">
         <v>0</v>
       </c>
+      <c r="DF63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43574</v>
       </c>
@@ -21776,8 +21968,11 @@
       <c r="DE64">
         <v>0</v>
       </c>
+      <c r="DF64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43575</v>
       </c>
@@ -22105,8 +22300,11 @@
       <c r="DE65">
         <v>0</v>
       </c>
+      <c r="DF65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43576</v>
       </c>
@@ -22434,8 +22632,11 @@
       <c r="DE66">
         <v>0</v>
       </c>
+      <c r="DF66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43577</v>
       </c>
@@ -22763,8 +22964,11 @@
       <c r="DE67">
         <v>2</v>
       </c>
+      <c r="DF67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43578</v>
       </c>
@@ -23092,8 +23296,11 @@
       <c r="DE68">
         <v>2</v>
       </c>
+      <c r="DF68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43579</v>
       </c>
@@ -23419,6 +23626,1005 @@
         <v>2</v>
       </c>
       <c r="DE69">
+        <v>0</v>
+      </c>
+      <c r="DF69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>156</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>8</v>
+      </c>
+      <c r="P70">
+        <v>4</v>
+      </c>
+      <c r="Q70">
+        <v>3</v>
+      </c>
+      <c r="R70">
+        <v>9</v>
+      </c>
+      <c r="S70">
+        <v>6</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
+        <v>5</v>
+      </c>
+      <c r="W70">
+        <v>2</v>
+      </c>
+      <c r="X70">
+        <v>6</v>
+      </c>
+      <c r="Y70">
+        <v>3</v>
+      </c>
+      <c r="Z70">
+        <v>10</v>
+      </c>
+      <c r="AA70">
+        <v>9</v>
+      </c>
+      <c r="AB70">
+        <v>15</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>5</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>13</v>
+      </c>
+      <c r="AK70">
+        <v>7</v>
+      </c>
+      <c r="AL70">
+        <v>4</v>
+      </c>
+      <c r="AM70">
+        <v>2</v>
+      </c>
+      <c r="AN70">
+        <v>4</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>99</v>
+      </c>
+      <c r="AQ70">
+        <v>2</v>
+      </c>
+      <c r="AR70">
+        <v>4</v>
+      </c>
+      <c r="AS70">
+        <v>7</v>
+      </c>
+      <c r="AT70">
+        <v>5</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AV70">
+        <v>9</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>0</v>
+      </c>
+      <c r="AZ70">
+        <v>0</v>
+      </c>
+      <c r="BA70">
+        <v>0</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>0</v>
+      </c>
+      <c r="BD70">
+        <v>2</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>2</v>
+      </c>
+      <c r="BI70">
+        <v>8</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>4</v>
+      </c>
+      <c r="BL70">
+        <v>4</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>0</v>
+      </c>
+      <c r="BQ70">
+        <v>2</v>
+      </c>
+      <c r="BR70">
+        <v>0</v>
+      </c>
+      <c r="BS70">
+        <v>0</v>
+      </c>
+      <c r="BT70">
+        <v>0</v>
+      </c>
+      <c r="BU70">
+        <v>0</v>
+      </c>
+      <c r="BV70">
+        <v>0</v>
+      </c>
+      <c r="BW70">
+        <v>0</v>
+      </c>
+      <c r="BX70">
+        <v>0</v>
+      </c>
+      <c r="BY70">
+        <v>0</v>
+      </c>
+      <c r="BZ70">
+        <v>0</v>
+      </c>
+      <c r="CA70">
+        <v>0</v>
+      </c>
+      <c r="CB70">
+        <v>0</v>
+      </c>
+      <c r="CC70">
+        <v>0</v>
+      </c>
+      <c r="CD70">
+        <v>0</v>
+      </c>
+      <c r="CE70">
+        <v>0</v>
+      </c>
+      <c r="CF70">
+        <v>0</v>
+      </c>
+      <c r="CG70">
+        <v>0</v>
+      </c>
+      <c r="CH70">
+        <v>0</v>
+      </c>
+      <c r="CI70">
+        <v>0</v>
+      </c>
+      <c r="CJ70">
+        <v>0</v>
+      </c>
+      <c r="CK70">
+        <v>0</v>
+      </c>
+      <c r="CL70">
+        <v>0</v>
+      </c>
+      <c r="CM70">
+        <v>0</v>
+      </c>
+      <c r="CN70">
+        <v>0</v>
+      </c>
+      <c r="CO70">
+        <v>0</v>
+      </c>
+      <c r="CP70">
+        <v>0</v>
+      </c>
+      <c r="CQ70">
+        <v>0</v>
+      </c>
+      <c r="CR70">
+        <v>0</v>
+      </c>
+      <c r="CS70">
+        <v>0</v>
+      </c>
+      <c r="CT70">
+        <v>0</v>
+      </c>
+      <c r="CU70">
+        <v>2</v>
+      </c>
+      <c r="CV70">
+        <v>0</v>
+      </c>
+      <c r="CW70">
+        <v>9</v>
+      </c>
+      <c r="CX70">
+        <v>0</v>
+      </c>
+      <c r="CY70">
+        <v>9</v>
+      </c>
+      <c r="CZ70">
+        <v>0</v>
+      </c>
+      <c r="DA70">
+        <v>2</v>
+      </c>
+      <c r="DB70">
+        <v>0</v>
+      </c>
+      <c r="DC70">
+        <v>0</v>
+      </c>
+      <c r="DD70">
+        <v>2</v>
+      </c>
+      <c r="DE70">
+        <v>2</v>
+      </c>
+      <c r="DF70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>155</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>8</v>
+      </c>
+      <c r="P71">
+        <v>4</v>
+      </c>
+      <c r="Q71">
+        <v>3</v>
+      </c>
+      <c r="R71">
+        <v>10</v>
+      </c>
+      <c r="S71">
+        <v>6</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>5</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>5</v>
+      </c>
+      <c r="Y71">
+        <v>3</v>
+      </c>
+      <c r="Z71">
+        <v>10</v>
+      </c>
+      <c r="AA71">
+        <v>9</v>
+      </c>
+      <c r="AB71">
+        <v>15</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>5</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>13</v>
+      </c>
+      <c r="AK71">
+        <v>7</v>
+      </c>
+      <c r="AL71">
+        <v>4</v>
+      </c>
+      <c r="AM71">
+        <v>2</v>
+      </c>
+      <c r="AN71">
+        <v>4</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>99</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>4</v>
+      </c>
+      <c r="AS71">
+        <v>7</v>
+      </c>
+      <c r="AT71">
+        <v>5</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AV71">
+        <v>10</v>
+      </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
+      <c r="BA71">
+        <v>0</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>0</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>2</v>
+      </c>
+      <c r="BI71">
+        <v>8</v>
+      </c>
+      <c r="BJ71">
+        <v>2</v>
+      </c>
+      <c r="BK71">
+        <v>4</v>
+      </c>
+      <c r="BL71">
+        <v>4</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
+        <v>0</v>
+      </c>
+      <c r="BQ71">
+        <v>0</v>
+      </c>
+      <c r="BR71">
+        <v>0</v>
+      </c>
+      <c r="BS71">
+        <v>0</v>
+      </c>
+      <c r="BT71">
+        <v>0</v>
+      </c>
+      <c r="BU71">
+        <v>0</v>
+      </c>
+      <c r="BV71">
+        <v>0</v>
+      </c>
+      <c r="BW71">
+        <v>0</v>
+      </c>
+      <c r="BX71">
+        <v>0</v>
+      </c>
+      <c r="BY71">
+        <v>2</v>
+      </c>
+      <c r="BZ71">
+        <v>0</v>
+      </c>
+      <c r="CA71">
+        <v>0</v>
+      </c>
+      <c r="CB71">
+        <v>0</v>
+      </c>
+      <c r="CC71">
+        <v>0</v>
+      </c>
+      <c r="CD71">
+        <v>0</v>
+      </c>
+      <c r="CE71">
+        <v>0</v>
+      </c>
+      <c r="CF71">
+        <v>2</v>
+      </c>
+      <c r="CG71">
+        <v>0</v>
+      </c>
+      <c r="CH71">
+        <v>0</v>
+      </c>
+      <c r="CI71">
+        <v>0</v>
+      </c>
+      <c r="CJ71">
+        <v>0</v>
+      </c>
+      <c r="CK71">
+        <v>0</v>
+      </c>
+      <c r="CL71">
+        <v>0</v>
+      </c>
+      <c r="CM71">
+        <v>0</v>
+      </c>
+      <c r="CN71">
+        <v>0</v>
+      </c>
+      <c r="CO71">
+        <v>2</v>
+      </c>
+      <c r="CP71">
+        <v>0</v>
+      </c>
+      <c r="CQ71">
+        <v>0</v>
+      </c>
+      <c r="CR71">
+        <v>0</v>
+      </c>
+      <c r="CS71">
+        <v>0</v>
+      </c>
+      <c r="CT71">
+        <v>0</v>
+      </c>
+      <c r="CU71">
+        <v>2</v>
+      </c>
+      <c r="CV71">
+        <v>0</v>
+      </c>
+      <c r="CW71">
+        <v>9</v>
+      </c>
+      <c r="CX71">
+        <v>0</v>
+      </c>
+      <c r="CY71">
+        <v>14</v>
+      </c>
+      <c r="CZ71">
+        <v>2</v>
+      </c>
+      <c r="DA71">
+        <v>0</v>
+      </c>
+      <c r="DB71">
+        <v>0</v>
+      </c>
+      <c r="DC71">
+        <v>0</v>
+      </c>
+      <c r="DD71">
+        <v>0</v>
+      </c>
+      <c r="DE71">
+        <v>2</v>
+      </c>
+      <c r="DF71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>156</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72">
+        <v>8</v>
+      </c>
+      <c r="P72">
+        <v>4</v>
+      </c>
+      <c r="Q72">
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>9</v>
+      </c>
+      <c r="S72">
+        <v>6</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>5</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>5</v>
+      </c>
+      <c r="Y72">
+        <v>3</v>
+      </c>
+      <c r="Z72">
+        <v>10</v>
+      </c>
+      <c r="AA72">
+        <v>9</v>
+      </c>
+      <c r="AB72">
+        <v>15</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>5</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>13</v>
+      </c>
+      <c r="AK72">
+        <v>8</v>
+      </c>
+      <c r="AL72">
+        <v>4</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>4</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>99</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>4</v>
+      </c>
+      <c r="AS72">
+        <v>8</v>
+      </c>
+      <c r="AT72">
+        <v>5</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>13</v>
+      </c>
+      <c r="AW72">
+        <v>0</v>
+      </c>
+      <c r="AX72">
+        <v>2</v>
+      </c>
+      <c r="AY72">
+        <v>0</v>
+      </c>
+      <c r="AZ72">
+        <v>0</v>
+      </c>
+      <c r="BA72">
+        <v>0</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>0</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>8</v>
+      </c>
+      <c r="BJ72">
+        <v>2</v>
+      </c>
+      <c r="BK72">
+        <v>4</v>
+      </c>
+      <c r="BL72">
+        <v>4</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+      <c r="BQ72">
+        <v>2</v>
+      </c>
+      <c r="BR72">
+        <v>0</v>
+      </c>
+      <c r="BS72">
+        <v>0</v>
+      </c>
+      <c r="BT72">
+        <v>0</v>
+      </c>
+      <c r="BU72">
+        <v>0</v>
+      </c>
+      <c r="BV72">
+        <v>0</v>
+      </c>
+      <c r="BW72">
+        <v>0</v>
+      </c>
+      <c r="BX72">
+        <v>2</v>
+      </c>
+      <c r="BY72">
+        <v>0</v>
+      </c>
+      <c r="BZ72">
+        <v>0</v>
+      </c>
+      <c r="CA72">
+        <v>0</v>
+      </c>
+      <c r="CB72">
+        <v>0</v>
+      </c>
+      <c r="CC72">
+        <v>0</v>
+      </c>
+      <c r="CD72">
+        <v>0</v>
+      </c>
+      <c r="CE72">
+        <v>0</v>
+      </c>
+      <c r="CF72">
+        <v>0</v>
+      </c>
+      <c r="CG72">
+        <v>0</v>
+      </c>
+      <c r="CH72">
+        <v>0</v>
+      </c>
+      <c r="CI72">
+        <v>0</v>
+      </c>
+      <c r="CJ72">
+        <v>0</v>
+      </c>
+      <c r="CK72">
+        <v>0</v>
+      </c>
+      <c r="CL72">
+        <v>2</v>
+      </c>
+      <c r="CM72">
+        <v>0</v>
+      </c>
+      <c r="CN72">
+        <v>0</v>
+      </c>
+      <c r="CO72">
+        <v>2</v>
+      </c>
+      <c r="CP72">
+        <v>0</v>
+      </c>
+      <c r="CQ72">
+        <v>0</v>
+      </c>
+      <c r="CR72">
+        <v>0</v>
+      </c>
+      <c r="CS72">
+        <v>0</v>
+      </c>
+      <c r="CT72">
+        <v>0</v>
+      </c>
+      <c r="CU72">
+        <v>2</v>
+      </c>
+      <c r="CV72">
+        <v>0</v>
+      </c>
+      <c r="CW72">
+        <v>9</v>
+      </c>
+      <c r="CX72">
+        <v>0</v>
+      </c>
+      <c r="CY72">
+        <v>15</v>
+      </c>
+      <c r="CZ72">
+        <v>2</v>
+      </c>
+      <c r="DA72">
+        <v>2</v>
+      </c>
+      <c r="DB72">
+        <v>0</v>
+      </c>
+      <c r="DC72">
+        <v>0</v>
+      </c>
+      <c r="DD72">
+        <v>2</v>
+      </c>
+      <c r="DE72">
+        <v>2</v>
+      </c>
+      <c r="DF72">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Kími, Greece</t>
+  </si>
+  <si>
+    <t>Mégara, Greece</t>
   </si>
 </sst>
 </file>
@@ -713,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DF72"/>
+  <dimension ref="A1:DG74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -724,7 +727,7 @@
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,8 +1058,11 @@
       <c r="DF1" t="s">
         <v>109</v>
       </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43497</v>
       </c>
@@ -1387,8 +1393,11 @@
       <c r="DF2">
         <v>0</v>
       </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43498</v>
       </c>
@@ -1719,8 +1728,11 @@
       <c r="DF3">
         <v>0</v>
       </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43499</v>
       </c>
@@ -2051,8 +2063,11 @@
       <c r="DF4">
         <v>0</v>
       </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43500</v>
       </c>
@@ -2383,8 +2398,11 @@
       <c r="DF5">
         <v>0</v>
       </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43501</v>
       </c>
@@ -2715,8 +2733,11 @@
       <c r="DF6">
         <v>0</v>
       </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43502</v>
       </c>
@@ -3047,8 +3068,11 @@
       <c r="DF7">
         <v>0</v>
       </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43503</v>
       </c>
@@ -3379,8 +3403,11 @@
       <c r="DF8">
         <v>0</v>
       </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43504</v>
       </c>
@@ -3711,8 +3738,11 @@
       <c r="DF9">
         <v>0</v>
       </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43507</v>
       </c>
@@ -4043,8 +4073,11 @@
       <c r="DF10">
         <v>0</v>
       </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43507</v>
       </c>
@@ -4375,8 +4408,11 @@
       <c r="DF11">
         <v>0</v>
       </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43508</v>
       </c>
@@ -4707,8 +4743,11 @@
       <c r="DF12">
         <v>0</v>
       </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43509</v>
       </c>
@@ -5039,8 +5078,11 @@
       <c r="DF13">
         <v>0</v>
       </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43510</v>
       </c>
@@ -5371,8 +5413,11 @@
       <c r="DF14">
         <v>0</v>
       </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43512</v>
       </c>
@@ -5703,8 +5748,11 @@
       <c r="DF15">
         <v>0</v>
       </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43515</v>
       </c>
@@ -6035,8 +6083,11 @@
       <c r="DF16">
         <v>0</v>
       </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43519</v>
       </c>
@@ -6367,8 +6418,11 @@
       <c r="DF17">
         <v>0</v>
       </c>
+      <c r="DG17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43520</v>
       </c>
@@ -6699,8 +6753,11 @@
       <c r="DF18">
         <v>0</v>
       </c>
+      <c r="DG18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43521</v>
       </c>
@@ -7031,8 +7088,11 @@
       <c r="DF19">
         <v>0</v>
       </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43522</v>
       </c>
@@ -7363,8 +7423,11 @@
       <c r="DF20">
         <v>0</v>
       </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43523</v>
       </c>
@@ -7695,8 +7758,11 @@
       <c r="DF21">
         <v>0</v>
       </c>
+      <c r="DG21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43524</v>
       </c>
@@ -8027,8 +8093,11 @@
       <c r="DF22">
         <v>0</v>
       </c>
+      <c r="DG22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43525</v>
       </c>
@@ -8359,8 +8428,11 @@
       <c r="DF23">
         <v>0</v>
       </c>
+      <c r="DG23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43526</v>
       </c>
@@ -8691,8 +8763,11 @@
       <c r="DF24">
         <v>0</v>
       </c>
+      <c r="DG24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43527</v>
       </c>
@@ -9023,8 +9098,11 @@
       <c r="DF25">
         <v>0</v>
       </c>
+      <c r="DG25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43529</v>
       </c>
@@ -9355,8 +9433,11 @@
       <c r="DF26">
         <v>0</v>
       </c>
+      <c r="DG26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43530</v>
       </c>
@@ -9687,8 +9768,11 @@
       <c r="DF27">
         <v>0</v>
       </c>
+      <c r="DG27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43531</v>
       </c>
@@ -10019,8 +10103,11 @@
       <c r="DF28">
         <v>0</v>
       </c>
+      <c r="DG28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43532</v>
       </c>
@@ -10351,8 +10438,11 @@
       <c r="DF29">
         <v>0</v>
       </c>
+      <c r="DG29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43533</v>
       </c>
@@ -10683,8 +10773,11 @@
       <c r="DF30">
         <v>0</v>
       </c>
+      <c r="DG30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43534</v>
       </c>
@@ -11015,8 +11108,11 @@
       <c r="DF31">
         <v>0</v>
       </c>
+      <c r="DG31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43535</v>
       </c>
@@ -11347,8 +11443,11 @@
       <c r="DF32">
         <v>0</v>
       </c>
+      <c r="DG32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43536</v>
       </c>
@@ -11679,8 +11778,11 @@
       <c r="DF33">
         <v>0</v>
       </c>
+      <c r="DG33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43537</v>
       </c>
@@ -12011,8 +12113,11 @@
       <c r="DF34">
         <v>0</v>
       </c>
+      <c r="DG34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43538</v>
       </c>
@@ -12343,8 +12448,11 @@
       <c r="DF35">
         <v>0</v>
       </c>
+      <c r="DG35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43539</v>
       </c>
@@ -12675,8 +12783,11 @@
       <c r="DF36">
         <v>0</v>
       </c>
+      <c r="DG36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43540</v>
       </c>
@@ -13007,8 +13118,11 @@
       <c r="DF37">
         <v>0</v>
       </c>
+      <c r="DG37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43541</v>
       </c>
@@ -13339,8 +13453,11 @@
       <c r="DF38">
         <v>0</v>
       </c>
+      <c r="DG38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43542</v>
       </c>
@@ -13671,8 +13788,11 @@
       <c r="DF39">
         <v>0</v>
       </c>
+      <c r="DG39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43543</v>
       </c>
@@ -14003,8 +14123,11 @@
       <c r="DF40">
         <v>0</v>
       </c>
+      <c r="DG40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43544</v>
       </c>
@@ -14335,8 +14458,11 @@
       <c r="DF41">
         <v>0</v>
       </c>
+      <c r="DG41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43548</v>
       </c>
@@ -14667,8 +14793,11 @@
       <c r="DF42">
         <v>0</v>
       </c>
+      <c r="DG42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43549</v>
       </c>
@@ -14999,8 +15128,11 @@
       <c r="DF43">
         <v>0</v>
       </c>
+      <c r="DG43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43550</v>
       </c>
@@ -15331,8 +15463,11 @@
       <c r="DF44">
         <v>0</v>
       </c>
+      <c r="DG44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43554</v>
       </c>
@@ -15663,8 +15798,11 @@
       <c r="DF45">
         <v>0</v>
       </c>
+      <c r="DG45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43556</v>
       </c>
@@ -15995,8 +16133,11 @@
       <c r="DF46">
         <v>0</v>
       </c>
+      <c r="DG46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43557</v>
       </c>
@@ -16327,8 +16468,11 @@
       <c r="DF47">
         <v>0</v>
       </c>
+      <c r="DG47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43558</v>
       </c>
@@ -16659,8 +16803,11 @@
       <c r="DF48">
         <v>0</v>
       </c>
+      <c r="DG48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43559</v>
       </c>
@@ -16991,8 +17138,11 @@
       <c r="DF49">
         <v>0</v>
       </c>
+      <c r="DG49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43560</v>
       </c>
@@ -17323,8 +17473,11 @@
       <c r="DF50">
         <v>0</v>
       </c>
+      <c r="DG50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43561</v>
       </c>
@@ -17655,8 +17808,11 @@
       <c r="DF51">
         <v>0</v>
       </c>
+      <c r="DG51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43562</v>
       </c>
@@ -17987,8 +18143,11 @@
       <c r="DF52">
         <v>0</v>
       </c>
+      <c r="DG52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43563</v>
       </c>
@@ -18319,8 +18478,11 @@
       <c r="DF53">
         <v>0</v>
       </c>
+      <c r="DG53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43564</v>
       </c>
@@ -18651,8 +18813,11 @@
       <c r="DF54">
         <v>0</v>
       </c>
+      <c r="DG54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43565</v>
       </c>
@@ -18983,8 +19148,11 @@
       <c r="DF55">
         <v>0</v>
       </c>
+      <c r="DG55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43566</v>
       </c>
@@ -19315,8 +19483,11 @@
       <c r="DF56">
         <v>0</v>
       </c>
+      <c r="DG56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43567</v>
       </c>
@@ -19647,8 +19818,11 @@
       <c r="DF57">
         <v>0</v>
       </c>
+      <c r="DG57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43568</v>
       </c>
@@ -19979,8 +20153,11 @@
       <c r="DF58">
         <v>0</v>
       </c>
+      <c r="DG58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43569</v>
       </c>
@@ -20311,8 +20488,11 @@
       <c r="DF59">
         <v>0</v>
       </c>
+      <c r="DG59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43570</v>
       </c>
@@ -20643,8 +20823,11 @@
       <c r="DF60">
         <v>0</v>
       </c>
+      <c r="DG60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43571</v>
       </c>
@@ -20975,8 +21158,11 @@
       <c r="DF61">
         <v>0</v>
       </c>
+      <c r="DG61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43572</v>
       </c>
@@ -21307,8 +21493,11 @@
       <c r="DF62">
         <v>0</v>
       </c>
+      <c r="DG62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43573</v>
       </c>
@@ -21639,8 +21828,11 @@
       <c r="DF63">
         <v>0</v>
       </c>
+      <c r="DG63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43574</v>
       </c>
@@ -21971,8 +22163,11 @@
       <c r="DF64">
         <v>0</v>
       </c>
+      <c r="DG64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43575</v>
       </c>
@@ -22303,8 +22498,11 @@
       <c r="DF65">
         <v>0</v>
       </c>
+      <c r="DG65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43576</v>
       </c>
@@ -22635,8 +22833,11 @@
       <c r="DF66">
         <v>0</v>
       </c>
+      <c r="DG66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43577</v>
       </c>
@@ -22967,8 +23168,11 @@
       <c r="DF67">
         <v>0</v>
       </c>
+      <c r="DG67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43578</v>
       </c>
@@ -23299,8 +23503,11 @@
       <c r="DF68">
         <v>0</v>
       </c>
+      <c r="DG68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43579</v>
       </c>
@@ -23631,8 +23838,11 @@
       <c r="DF69">
         <v>0</v>
       </c>
+      <c r="DG69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43580</v>
       </c>
@@ -23963,8 +24173,11 @@
       <c r="DF70">
         <v>2</v>
       </c>
+      <c r="DG70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43581</v>
       </c>
@@ -24295,8 +24508,11 @@
       <c r="DF71">
         <v>2</v>
       </c>
+      <c r="DG71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43582</v>
       </c>
@@ -24626,6 +24842,679 @@
       </c>
       <c r="DF72">
         <v>0</v>
+      </c>
+      <c r="DG72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>156</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>9</v>
+      </c>
+      <c r="P73">
+        <v>4</v>
+      </c>
+      <c r="Q73">
+        <v>3</v>
+      </c>
+      <c r="R73">
+        <v>9</v>
+      </c>
+      <c r="S73">
+        <v>6</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>5</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>5</v>
+      </c>
+      <c r="Y73">
+        <v>3</v>
+      </c>
+      <c r="Z73">
+        <v>10</v>
+      </c>
+      <c r="AA73">
+        <v>9</v>
+      </c>
+      <c r="AB73">
+        <v>15</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>5</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>13</v>
+      </c>
+      <c r="AK73">
+        <v>8</v>
+      </c>
+      <c r="AL73">
+        <v>4</v>
+      </c>
+      <c r="AM73">
+        <v>2</v>
+      </c>
+      <c r="AN73">
+        <v>4</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>99</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
+      <c r="AR73">
+        <v>4</v>
+      </c>
+      <c r="AS73">
+        <v>8</v>
+      </c>
+      <c r="AT73">
+        <v>4</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>14</v>
+      </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>0</v>
+      </c>
+      <c r="BD73">
+        <v>2</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>8</v>
+      </c>
+      <c r="BJ73">
+        <v>2</v>
+      </c>
+      <c r="BK73">
+        <v>4</v>
+      </c>
+      <c r="BL73">
+        <v>4</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
+        <v>0</v>
+      </c>
+      <c r="BQ73">
+        <v>2</v>
+      </c>
+      <c r="BR73">
+        <v>0</v>
+      </c>
+      <c r="BS73">
+        <v>0</v>
+      </c>
+      <c r="BT73">
+        <v>0</v>
+      </c>
+      <c r="BU73">
+        <v>0</v>
+      </c>
+      <c r="BV73">
+        <v>0</v>
+      </c>
+      <c r="BW73">
+        <v>0</v>
+      </c>
+      <c r="BX73">
+        <v>2</v>
+      </c>
+      <c r="BY73">
+        <v>0</v>
+      </c>
+      <c r="BZ73">
+        <v>0</v>
+      </c>
+      <c r="CA73">
+        <v>0</v>
+      </c>
+      <c r="CB73">
+        <v>0</v>
+      </c>
+      <c r="CC73">
+        <v>0</v>
+      </c>
+      <c r="CD73">
+        <v>0</v>
+      </c>
+      <c r="CE73">
+        <v>0</v>
+      </c>
+      <c r="CF73">
+        <v>2</v>
+      </c>
+      <c r="CG73">
+        <v>0</v>
+      </c>
+      <c r="CH73">
+        <v>0</v>
+      </c>
+      <c r="CI73">
+        <v>0</v>
+      </c>
+      <c r="CJ73">
+        <v>0</v>
+      </c>
+      <c r="CK73">
+        <v>0</v>
+      </c>
+      <c r="CL73">
+        <v>2</v>
+      </c>
+      <c r="CM73">
+        <v>0</v>
+      </c>
+      <c r="CN73">
+        <v>0</v>
+      </c>
+      <c r="CO73">
+        <v>2</v>
+      </c>
+      <c r="CP73">
+        <v>0</v>
+      </c>
+      <c r="CQ73">
+        <v>0</v>
+      </c>
+      <c r="CR73">
+        <v>0</v>
+      </c>
+      <c r="CS73">
+        <v>0</v>
+      </c>
+      <c r="CT73">
+        <v>0</v>
+      </c>
+      <c r="CU73">
+        <v>2</v>
+      </c>
+      <c r="CV73">
+        <v>0</v>
+      </c>
+      <c r="CW73">
+        <v>9</v>
+      </c>
+      <c r="CX73">
+        <v>0</v>
+      </c>
+      <c r="CY73">
+        <v>16</v>
+      </c>
+      <c r="CZ73">
+        <v>2</v>
+      </c>
+      <c r="DA73">
+        <v>2</v>
+      </c>
+      <c r="DB73">
+        <v>0</v>
+      </c>
+      <c r="DC73">
+        <v>0</v>
+      </c>
+      <c r="DD73">
+        <v>0</v>
+      </c>
+      <c r="DE73">
+        <v>2</v>
+      </c>
+      <c r="DF73">
+        <v>0</v>
+      </c>
+      <c r="DG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>150</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74">
+        <v>9</v>
+      </c>
+      <c r="P74">
+        <v>4</v>
+      </c>
+      <c r="Q74">
+        <v>3</v>
+      </c>
+      <c r="R74">
+        <v>9</v>
+      </c>
+      <c r="S74">
+        <v>5</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>5</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>5</v>
+      </c>
+      <c r="Y74">
+        <v>3</v>
+      </c>
+      <c r="Z74">
+        <v>10</v>
+      </c>
+      <c r="AA74">
+        <v>9</v>
+      </c>
+      <c r="AB74">
+        <v>15</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>4</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>13</v>
+      </c>
+      <c r="AK74">
+        <v>10</v>
+      </c>
+      <c r="AL74">
+        <v>4</v>
+      </c>
+      <c r="AM74">
+        <v>2</v>
+      </c>
+      <c r="AN74">
+        <v>3</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>103</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <v>3</v>
+      </c>
+      <c r="AS74">
+        <v>8</v>
+      </c>
+      <c r="AT74">
+        <v>4</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
+        <v>16</v>
+      </c>
+      <c r="AW74">
+        <v>0</v>
+      </c>
+      <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
+        <v>0</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>8</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>4</v>
+      </c>
+      <c r="BL74">
+        <v>4</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
+        <v>0</v>
+      </c>
+      <c r="BQ74">
+        <v>0</v>
+      </c>
+      <c r="BR74">
+        <v>0</v>
+      </c>
+      <c r="BS74">
+        <v>0</v>
+      </c>
+      <c r="BT74">
+        <v>0</v>
+      </c>
+      <c r="BU74">
+        <v>0</v>
+      </c>
+      <c r="BV74">
+        <v>0</v>
+      </c>
+      <c r="BW74">
+        <v>0</v>
+      </c>
+      <c r="BX74">
+        <v>2</v>
+      </c>
+      <c r="BY74">
+        <v>2</v>
+      </c>
+      <c r="BZ74">
+        <v>0</v>
+      </c>
+      <c r="CA74">
+        <v>0</v>
+      </c>
+      <c r="CB74">
+        <v>0</v>
+      </c>
+      <c r="CC74">
+        <v>0</v>
+      </c>
+      <c r="CD74">
+        <v>0</v>
+      </c>
+      <c r="CE74">
+        <v>0</v>
+      </c>
+      <c r="CF74">
+        <v>2</v>
+      </c>
+      <c r="CG74">
+        <v>0</v>
+      </c>
+      <c r="CH74">
+        <v>0</v>
+      </c>
+      <c r="CI74">
+        <v>0</v>
+      </c>
+      <c r="CJ74">
+        <v>0</v>
+      </c>
+      <c r="CK74">
+        <v>0</v>
+      </c>
+      <c r="CL74">
+        <v>2</v>
+      </c>
+      <c r="CM74">
+        <v>0</v>
+      </c>
+      <c r="CN74">
+        <v>0</v>
+      </c>
+      <c r="CO74">
+        <v>2</v>
+      </c>
+      <c r="CP74">
+        <v>0</v>
+      </c>
+      <c r="CQ74">
+        <v>0</v>
+      </c>
+      <c r="CR74">
+        <v>0</v>
+      </c>
+      <c r="CS74">
+        <v>0</v>
+      </c>
+      <c r="CT74">
+        <v>0</v>
+      </c>
+      <c r="CU74">
+        <v>2</v>
+      </c>
+      <c r="CV74">
+        <v>0</v>
+      </c>
+      <c r="CW74">
+        <v>9</v>
+      </c>
+      <c r="CX74">
+        <v>0</v>
+      </c>
+      <c r="CY74">
+        <v>17</v>
+      </c>
+      <c r="CZ74">
+        <v>3</v>
+      </c>
+      <c r="DA74">
+        <v>2</v>
+      </c>
+      <c r="DB74">
+        <v>0</v>
+      </c>
+      <c r="DC74">
+        <v>0</v>
+      </c>
+      <c r="DD74">
+        <v>2</v>
+      </c>
+      <c r="DE74">
+        <v>0</v>
+      </c>
+      <c r="DF74">
+        <v>0</v>
+      </c>
+      <c r="DG74">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-City.xlsx
+++ b/excels/lite/lite-City.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Mégara, Greece</t>
+  </si>
+  <si>
+    <t>Syros, Greece</t>
   </si>
 </sst>
 </file>
@@ -716,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DG74"/>
+  <dimension ref="A1:DH75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -727,7 +730,7 @@
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1061,8 +1064,11 @@
       <c r="DG1" t="s">
         <v>110</v>
       </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43497</v>
       </c>
@@ -1396,8 +1402,11 @@
       <c r="DG2">
         <v>0</v>
       </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43498</v>
       </c>
@@ -1731,8 +1740,11 @@
       <c r="DG3">
         <v>0</v>
       </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43499</v>
       </c>
@@ -2066,8 +2078,11 @@
       <c r="DG4">
         <v>0</v>
       </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43500</v>
       </c>
@@ -2401,8 +2416,11 @@
       <c r="DG5">
         <v>0</v>
       </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43501</v>
       </c>
@@ -2736,8 +2754,11 @@
       <c r="DG6">
         <v>0</v>
       </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43502</v>
       </c>
@@ -3071,8 +3092,11 @@
       <c r="DG7">
         <v>0</v>
       </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43503</v>
       </c>
@@ -3406,8 +3430,11 @@
       <c r="DG8">
         <v>0</v>
       </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43504</v>
       </c>
@@ -3741,8 +3768,11 @@
       <c r="DG9">
         <v>0</v>
       </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43507</v>
       </c>
@@ -4076,8 +4106,11 @@
       <c r="DG10">
         <v>0</v>
       </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43507</v>
       </c>
@@ -4411,8 +4444,11 @@
       <c r="DG11">
         <v>0</v>
       </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43508</v>
       </c>
@@ -4746,8 +4782,11 @@
       <c r="DG12">
         <v>0</v>
       </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43509</v>
       </c>
@@ -5081,8 +5120,11 @@
       <c r="DG13">
         <v>0</v>
       </c>
+      <c r="DH13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43510</v>
       </c>
@@ -5416,8 +5458,11 @@
       <c r="DG14">
         <v>0</v>
       </c>
+      <c r="DH14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43512</v>
       </c>
@@ -5751,8 +5796,11 @@
       <c r="DG15">
         <v>0</v>
       </c>
+      <c r="DH15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43515</v>
       </c>
@@ -6086,8 +6134,11 @@
       <c r="DG16">
         <v>0</v>
       </c>
+      <c r="DH16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43519</v>
       </c>
@@ -6421,8 +6472,11 @@
       <c r="DG17">
         <v>0</v>
       </c>
+      <c r="DH17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43520</v>
       </c>
@@ -6756,8 +6810,11 @@
       <c r="DG18">
         <v>0</v>
       </c>
+      <c r="DH18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43521</v>
       </c>
@@ -7091,8 +7148,11 @@
       <c r="DG19">
         <v>0</v>
       </c>
+      <c r="DH19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43522</v>
       </c>
@@ -7426,8 +7486,11 @@
       <c r="DG20">
         <v>0</v>
       </c>
+      <c r="DH20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43523</v>
       </c>
@@ -7761,8 +7824,11 @@
       <c r="DG21">
         <v>0</v>
       </c>
+      <c r="DH21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43524</v>
       </c>
@@ -8096,8 +8162,11 @@
       <c r="DG22">
         <v>0</v>
       </c>
+      <c r="DH22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43525</v>
       </c>
@@ -8431,8 +8500,11 @@
       <c r="DG23">
         <v>0</v>
       </c>
+      <c r="DH23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43526</v>
       </c>
@@ -8766,8 +8838,11 @@
       <c r="DG24">
         <v>0</v>
       </c>
+      <c r="DH24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43527</v>
       </c>
@@ -9101,8 +9176,11 @@
       <c r="DG25">
         <v>0</v>
       </c>
+      <c r="DH25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43529</v>
       </c>
@@ -9436,8 +9514,11 @@
       <c r="DG26">
         <v>0</v>
       </c>
+      <c r="DH26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43530</v>
       </c>
@@ -9771,8 +9852,11 @@
       <c r="DG27">
         <v>0</v>
       </c>
+      <c r="DH27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43531</v>
       </c>
@@ -10106,8 +10190,11 @@
       <c r="DG28">
         <v>0</v>
       </c>
+      <c r="DH28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43532</v>
       </c>
@@ -10441,8 +10528,11 @@
       <c r="DG29">
         <v>0</v>
       </c>
+      <c r="DH29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43533</v>
       </c>
@@ -10776,8 +10866,11 @@
       <c r="DG30">
         <v>0</v>
       </c>
+      <c r="DH30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43534</v>
       </c>
@@ -11111,8 +11204,11 @@
       <c r="DG31">
         <v>0</v>
       </c>
+      <c r="DH31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43535</v>
       </c>
@@ -11446,8 +11542,11 @@
       <c r="DG32">
         <v>0</v>
       </c>
+      <c r="DH32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43536</v>
       </c>
@@ -11781,8 +11880,11 @@
       <c r="DG33">
         <v>0</v>
       </c>
+      <c r="DH33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43537</v>
       </c>
@@ -12116,8 +12218,11 @@
       <c r="DG34">
         <v>0</v>
       </c>
+      <c r="DH34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43538</v>
       </c>
@@ -12451,8 +12556,11 @@
       <c r="DG35">
         <v>0</v>
       </c>
+      <c r="DH35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43539</v>
       </c>
@@ -12786,8 +12894,11 @@
       <c r="DG36">
         <v>0</v>
       </c>
+      <c r="DH36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43540</v>
       </c>
@@ -13121,8 +13232,11 @@
       <c r="DG37">
         <v>0</v>
       </c>
+      <c r="DH37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43541</v>
       </c>
@@ -13456,8 +13570,11 @@
       <c r="DG38">
         <v>0</v>
       </c>
+      <c r="DH38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43542</v>
       </c>
@@ -13791,8 +13908,11 @@
       <c r="DG39">
         <v>0</v>
       </c>
+      <c r="DH39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43543</v>
       </c>
@@ -14126,8 +14246,11 @@
       <c r="DG40">
         <v>0</v>
       </c>
+      <c r="DH40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43544</v>
       </c>
@@ -14461,8 +14584,11 @@
       <c r="DG41">
         <v>0</v>
       </c>
+      <c r="DH41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43548</v>
       </c>
@@ -14796,8 +14922,11 @@
       <c r="DG42">
         <v>0</v>
       </c>
+      <c r="DH42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43549</v>
       </c>
@@ -15131,8 +15260,11 @@
       <c r="DG43">
         <v>0</v>
       </c>
+      <c r="DH43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43550</v>
       </c>
@@ -15466,8 +15598,11 @@
       <c r="DG44">
         <v>0</v>
       </c>
+      <c r="DH44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43554</v>
       </c>
@@ -15801,8 +15936,11 @@
       <c r="DG45">
         <v>0</v>
       </c>
+      <c r="DH45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43556</v>
       </c>
@@ -16136,8 +16274,11 @@
       <c r="DG46">
         <v>0</v>
       </c>
+      <c r="DH46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43557</v>
       </c>
@@ -16471,8 +16612,11 @@
       <c r="DG47">
         <v>0</v>
       </c>
+      <c r="DH47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43558</v>
       </c>
@@ -16806,8 +16950,11 @@
       <c r="DG48">
         <v>0</v>
       </c>
+      <c r="DH48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43559</v>
       </c>
@@ -17141,8 +17288,11 @@
       <c r="DG49">
         <v>0</v>
       </c>
+      <c r="DH49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43560</v>
       </c>
@@ -17476,8 +17626,11 @@
       <c r="DG50">
         <v>0</v>
       </c>
+      <c r="DH50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43561</v>
       </c>
@@ -17811,8 +17964,11 @@
       <c r="DG51">
         <v>0</v>
       </c>
+      <c r="DH51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43562</v>
       </c>
@@ -18146,8 +18302,11 @@
       <c r="DG52">
         <v>0</v>
       </c>
+      <c r="DH52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43563</v>
       </c>
@@ -18481,8 +18640,11 @@
       <c r="DG53">
         <v>0</v>
       </c>
+      <c r="DH53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43564</v>
       </c>
@@ -18816,8 +18978,11 @@
       <c r="DG54">
         <v>0</v>
       </c>
+      <c r="DH54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43565</v>
       </c>
@@ -19151,8 +19316,11 @@
       <c r="DG55">
         <v>0</v>
       </c>
+      <c r="DH55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43566</v>
       </c>
@@ -19486,8 +19654,11 @@
       <c r="DG56">
         <v>0</v>
       </c>
+      <c r="DH56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43567</v>
       </c>
@@ -19821,8 +19992,11 @@
       <c r="DG57">
         <v>0</v>
       </c>
+      <c r="DH57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43568</v>
       </c>
@@ -20156,8 +20330,11 @@
       <c r="DG58">
         <v>0</v>
       </c>
+      <c r="DH58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43569</v>
       </c>
@@ -20491,8 +20668,11 @@
       <c r="DG59">
         <v>0</v>
       </c>
+      <c r="DH59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43570</v>
       </c>
@@ -20826,8 +21006,11 @@
       <c r="DG60">
         <v>0</v>
       </c>
+      <c r="DH60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43571</v>
       </c>
@@ -21161,8 +21344,11 @@
       <c r="DG61">
         <v>0</v>
       </c>
+      <c r="DH61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43572</v>
       </c>
@@ -21496,8 +21682,11 @@
       <c r="DG62">
         <v>0</v>
       </c>
+      <c r="DH62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43573</v>
       </c>
@@ -21831,8 +22020,11 @@
       <c r="DG63">
         <v>0</v>
       </c>
+      <c r="DH63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43574</v>
       </c>
@@ -22166,8 +22358,11 @@
       <c r="DG64">
         <v>0</v>
       </c>
+      <c r="DH64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43575</v>
       </c>
@@ -22501,8 +22696,11 @@
       <c r="DG65">
         <v>0</v>
       </c>
+      <c r="DH65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43576</v>
       </c>
@@ -22836,8 +23034,11 @@
       <c r="DG66">
         <v>0</v>
       </c>
+      <c r="DH66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43577</v>
       </c>
@@ -23171,8 +23372,11 @@
       <c r="DG67">
         <v>0</v>
       </c>
+      <c r="DH67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43578</v>
       </c>
@@ -23506,8 +23710,11 @@
       <c r="DG68">
         <v>0</v>
       </c>
+      <c r="DH68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43579</v>
       </c>
@@ -23841,8 +24048,11 @@
       <c r="DG69">
         <v>0</v>
       </c>
+      <c r="DH69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43580</v>
       </c>
@@ -24176,8 +24386,11 @@
       <c r="DG70">
         <v>0</v>
       </c>
+      <c r="DH70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43581</v>
       </c>
@@ -24511,8 +24724,11 @@
       <c r="DG71">
         <v>0</v>
       </c>
+      <c r="DH71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43582</v>
       </c>
@@ -24846,8 +25062,11 @@
       <c r="DG72">
         <v>0</v>
       </c>
+      <c r="DH72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43583</v>
       </c>
@@ -25181,8 +25400,11 @@
       <c r="DG73">
         <v>0</v>
       </c>
+      <c r="DH73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43584</v>
       </c>
@@ -25514,6 +25736,347 @@
         <v>0</v>
       </c>
       <c r="DG74">
+        <v>2</v>
+      </c>
+      <c r="DH74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>156</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75">
+        <v>9</v>
+      </c>
+      <c r="P75">
+        <v>4</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>9</v>
+      </c>
+      <c r="S75">
+        <v>5</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>5</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>5</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>10</v>
+      </c>
+      <c r="AA75">
+        <v>9</v>
+      </c>
+      <c r="AB75">
+        <v>16</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>4</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>14</v>
+      </c>
+      <c r="AK75">
+        <v>10</v>
+      </c>
+      <c r="AL75">
+        <v>4</v>
+      </c>
+      <c r="AM75">
+        <v>2</v>
+      </c>
+      <c r="AN75">
+        <v>3</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>106</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>3</v>
+      </c>
+      <c r="AS75">
+        <v>8</v>
+      </c>
+      <c r="AT75">
+        <v>4</v>
+      </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
+      <c r="AV75">
+        <v>16</v>
+      </c>
+      <c r="AW75">
+        <v>0</v>
+      </c>
+      <c r="AX75">
+        <v>2</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
+        <v>0</v>
+      </c>
+      <c r="BD75">
+        <v>2</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>8</v>
+      </c>
+      <c r="BJ75">
+        <v>2</v>
+      </c>
+      <c r="BK75">
+        <v>5</v>
+      </c>
+      <c r="BL75">
+        <v>5</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
+        <v>0</v>
+      </c>
+      <c r="BQ75">
+        <v>2</v>
+      </c>
+      <c r="BR75">
+        <v>0</v>
+      </c>
+      <c r="BS75">
+        <v>0</v>
+      </c>
+      <c r="BT75">
+        <v>0</v>
+      </c>
+      <c r="BU75">
+        <v>0</v>
+      </c>
+      <c r="BV75">
+        <v>0</v>
+      </c>
+      <c r="BW75">
+        <v>0</v>
+      </c>
+      <c r="BX75">
+        <v>2</v>
+      </c>
+      <c r="BY75">
+        <v>0</v>
+      </c>
+      <c r="BZ75">
+        <v>0</v>
+      </c>
+      <c r="CA75">
+        <v>0</v>
+      </c>
+      <c r="CB75">
+        <v>0</v>
+      </c>
+      <c r="CC75">
+        <v>0</v>
+      </c>
+      <c r="CD75">
+        <v>0</v>
+      </c>
+      <c r="CE75">
+        <v>0</v>
+      </c>
+      <c r="CF75">
+        <v>2</v>
+      </c>
+      <c r="CG75">
+        <v>0</v>
+      </c>
+      <c r="CH75">
+        <v>0</v>
+      </c>
+      <c r="CI75">
+        <v>0</v>
+      </c>
+      <c r="CJ75">
+        <v>0</v>
+      </c>
+      <c r="CK75">
+        <v>0</v>
+      </c>
+      <c r="CL75">
+        <v>2</v>
+      </c>
+      <c r="CM75">
+        <v>0</v>
+      </c>
+      <c r="CN75">
+        <v>0</v>
+      </c>
+      <c r="CO75">
+        <v>2</v>
+      </c>
+      <c r="CP75">
+        <v>0</v>
+      </c>
+      <c r="CQ75">
+        <v>0</v>
+      </c>
+      <c r="CR75">
+        <v>0</v>
+      </c>
+      <c r="CS75">
+        <v>0</v>
+      </c>
+      <c r="CT75">
+        <v>0</v>
+      </c>
+      <c r="CU75">
+        <v>0</v>
+      </c>
+      <c r="CV75">
+        <v>0</v>
+      </c>
+      <c r="CW75">
+        <v>9</v>
+      </c>
+      <c r="CX75">
+        <v>0</v>
+      </c>
+      <c r="CY75">
+        <v>17</v>
+      </c>
+      <c r="CZ75">
+        <v>3</v>
+      </c>
+      <c r="DA75">
+        <v>2</v>
+      </c>
+      <c r="DB75">
+        <v>0</v>
+      </c>
+      <c r="DC75">
+        <v>0</v>
+      </c>
+      <c r="DD75">
+        <v>2</v>
+      </c>
+      <c r="DE75">
+        <v>0</v>
+      </c>
+      <c r="DF75">
+        <v>0</v>
+      </c>
+      <c r="DG75">
+        <v>0</v>
+      </c>
+      <c r="DH75">
         <v>2</v>
       </c>
     </row>
